--- a/AAII_Financials/Quarterly/AZO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AZO_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
   <si>
     <t>AZO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,215 +665,228 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43876</v>
+      </c>
+      <c r="E7" s="2">
         <v>43792</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43708</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43589</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43505</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43421</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43337</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43225</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43141</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43057</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42973</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42861</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42777</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42693</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42609</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2513700</v>
+      </c>
+      <c r="E8" s="3">
         <v>2793000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>3988400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2783000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2450600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2641700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>3558800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2660200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2413000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2589100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3512600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2619000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2289200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2467800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>3398800</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1147600</v>
+      </c>
+      <c r="E9" s="3">
         <v>1292000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1858000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1291000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1125500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1224300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1650900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1237200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1136000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1223300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1658500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1240600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1083700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1166300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1604000</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1366100</v>
+      </c>
+      <c r="E10" s="3">
         <v>1501000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>2130400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1492000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1325100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1417400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1907900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1423000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1277000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1365800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1854100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1378400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1205500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1301500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1794800</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -891,8 +904,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -938,8 +952,11 @@
       <c r="Q12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -985,8 +1002,11 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1032,55 +1052,61 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="3">
         <v>118800</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>84900</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>83800</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>82500</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>108000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>79800</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>79400</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>78000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>103100</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>75300</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>72800</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>71800</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>93900</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1095,102 +1121,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2105700</v>
+      </c>
+      <c r="E17" s="3">
         <v>2293000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>3207700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2235500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2050500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2153900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2967500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2114400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2207900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2120400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2805000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2089400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1905300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2008900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2695400</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>408000</v>
+      </c>
+      <c r="E18" s="3">
         <v>500000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>780700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>547500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>400100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>487800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>591300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>545800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>205100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>468700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>707600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>529600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>384000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>458900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>703400</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1208,110 +1241,117 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-43100</v>
+      </c>
+      <c r="E20" s="3">
         <v>-42300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-61200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-43200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-41400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-39000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-54400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-42000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-39300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-38900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-51400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-35700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-34200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-33300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-45800</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>455600</v>
+      </c>
+      <c r="E21" s="3">
         <v>547400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>838400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>589200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>442400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>531300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>644900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>583600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>245100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>507900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>759300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>569200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>422600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>497400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>751500</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E22" s="3">
         <v>1400</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>8</v>
@@ -1328,8 +1368,8 @@
       <c r="J22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
+      <c r="K22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L22" s="3">
         <v>0</v>
@@ -1349,102 +1389,111 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>363600</v>
+      </c>
+      <c r="E23" s="3">
         <v>456300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>719600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>504300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>358700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>448800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>536900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>503800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>165800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>429900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>656200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>493900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>349800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>425600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>657600</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>64300</v>
+      </c>
+      <c r="E24" s="3">
         <v>105900</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>51300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>201400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>72800</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>97400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>156800</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>136500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>47600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>148900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>222300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>162200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>112600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>147500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>230800</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1490,102 +1539,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>299300</v>
+      </c>
+      <c r="E26" s="3">
         <v>350300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>668300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>302800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>285800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>351400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>380100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>367300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>118100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>281000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>433900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>331700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>237100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>278100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>426800</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>299300</v>
+      </c>
+      <c r="E27" s="3">
         <v>350300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>668300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>302800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>285800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>351400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>380100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>367300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>118100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>281000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>433900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>331700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>237100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>278100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>426800</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1631,37 +1689,40 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" s="3">
         <v>-103100</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>103100</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>8800</v>
       </c>
-      <c r="H29" s="3" t="s">
+      <c r="I29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>20200</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>-600</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>171400</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>8</v>
@@ -1678,8 +1739,11 @@
       <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1725,8 +1789,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1772,102 +1839,111 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>43100</v>
+      </c>
+      <c r="E32" s="3">
         <v>42300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>61200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>43200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>41400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>39000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>54400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>42000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>39300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>38900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>51400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>35700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>34200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>33300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>45800</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>299300</v>
+      </c>
+      <c r="E33" s="3">
         <v>350300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>565200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>405900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>294600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>351400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>400300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>366700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>289500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>281000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>433900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>331700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>237100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>278100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>426800</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1913,107 +1989,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>299300</v>
+      </c>
+      <c r="E35" s="3">
         <v>350300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>565200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>405900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>294600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>351400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>400300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>366700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>289500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>281000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>433900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>331700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>237100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>278100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>426800</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43876</v>
+      </c>
+      <c r="E38" s="2">
         <v>43792</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43708</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43589</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43505</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43421</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43337</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43225</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43141</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43057</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42973</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42861</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42777</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42693</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42609</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2031,8 +2116,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2050,55 +2136,59 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>153000</v>
+      </c>
+      <c r="E41" s="3">
         <v>158100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>176300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>174100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>195700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>252100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>217800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>218400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>288500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>257700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>293300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>227100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>210600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>195500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>189700</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2144,196 +2234,211 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>340300</v>
+      </c>
+      <c r="E43" s="3">
         <v>333200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>309000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>281600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>298300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>275200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>258100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>261300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>282500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>272500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>280700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>276100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>246900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>270800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>287700</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>4606200</v>
+      </c>
+      <c r="E44" s="3">
         <v>4463100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>4319100</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>4325700</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>4305500</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>4090400</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>3943700</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>4005800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>4085500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>4012100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>3882100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>3861100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>3902100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>3773200</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>3631900</v>
       </c>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>201100</v>
+      </c>
+      <c r="E45" s="3">
         <v>202500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>224300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>190000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>197600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>196700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>216200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>185800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>169700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>175000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>155200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>142900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>133100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>129100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>130200</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>5300500</v>
+      </c>
+      <c r="E46" s="3">
         <v>5157000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>5028700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>4971300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>4997100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>4814300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>4635900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>4671300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>4826300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>4717200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>4611300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>4507200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>4492800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>4368700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>4239600</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2379,102 +2484,111 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>7055600</v>
+      </c>
+      <c r="E48" s="3">
         <v>7035800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>4398800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>4324900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>4269900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>4228800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>4218400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>4123000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4081300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>4061000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>4031000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>3904200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>3803800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>3750500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>3733300</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>306300</v>
+      </c>
+      <c r="E49" s="3">
         <v>307300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>308300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>309500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>310500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>311500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>312400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>324800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>326700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>443000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>444400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>447000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>448900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>450900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>452900</v>
       </c>
     </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2520,8 +2634,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2567,55 +2684,61 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>201200</v>
+      </c>
+      <c r="E52" s="3">
         <v>200400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>160200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>167900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>167600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>169000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>180300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>182700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>169400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>176000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>173100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>169900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>157200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>172500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>174100</v>
       </c>
     </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2661,55 +2784,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>12863700</v>
+      </c>
+      <c r="E54" s="3">
         <v>12700500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>9895900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>9773700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>9745100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>9523600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>9347000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>9301800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>9403700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>9397100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>9259800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>9028300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>8902600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>8742500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>8599800</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2727,8 +2856,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2746,63 +2876,67 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4869900</v>
+      </c>
+      <c r="E57" s="3">
         <v>4922100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>4864900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>4693100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>4669600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>4455300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>4409400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>4296700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>4365700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>4326700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>4168900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>4140700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>4115000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>4162300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>4095900</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>58900</v>
+      </c>
+      <c r="E58" s="3">
         <v>57800</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>8</v>
@@ -2819,8 +2953,8 @@
       <c r="J58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
+      <c r="K58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L58" s="3">
         <v>0</v>
@@ -2840,196 +2974,211 @@
       <c r="Q58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>850800</v>
+      </c>
+      <c r="E59" s="3">
         <v>888300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>647200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>623800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>664700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>712800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>619300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>621700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>581600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>740900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>597400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>652900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>669300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>687900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>594500</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>5779600</v>
+      </c>
+      <c r="E60" s="3">
         <v>5868200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>5512100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>5316900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>5334300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>5168200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>5028700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>4918300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>4947200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>5067600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>4766300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>4793500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>4784300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>4850200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>4690300</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>5588700</v>
+      </c>
+      <c r="E61" s="3">
         <v>5425200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>5206300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>5151900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>5111200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>5156000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>5005900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>4954700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>5043500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>4983000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>5081200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>5152800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>5151900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>4997400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>4924100</v>
       </c>
     </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>3206700</v>
+      </c>
+      <c r="E62" s="3">
         <v>3183100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>891300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>894400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>894000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>858000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>832700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>790300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>743500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>871600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>840600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>796100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>793900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>790100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>772900</v>
       </c>
     </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3075,8 +3224,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3122,8 +3274,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3169,55 +3324,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>14574900</v>
+      </c>
+      <c r="E66" s="3">
         <v>14476500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>11609800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>11363300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>11339500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>11182200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>10867300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>10663400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>10734300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>10922200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>10688200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>10742500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>10730100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>10637800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>10387300</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3235,8 +3396,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3282,8 +3444,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3329,8 +3494,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3376,8 +3544,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3423,55 +3594,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-2534300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-955000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-1305300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-1870600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-2276500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-864200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-1208800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-1623600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-1990300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-1361400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-1642400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-2076300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-2408000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-1324100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-1602200</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3517,8 +3694,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3564,8 +3744,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3611,55 +3794,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-1711100</v>
+      </c>
+      <c r="E76" s="3">
         <v>-1776100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-1713900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-1589500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-1594400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-1658600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-1520400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-1361600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-1330500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-1525100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-1428400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-1714200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-1827400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-1895200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-1787500</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3705,107 +3894,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43876</v>
+      </c>
+      <c r="E80" s="2">
         <v>43792</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43708</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43589</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43505</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43421</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43337</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43225</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43141</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43057</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42973</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42861</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42777</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42693</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42609</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>299300</v>
+      </c>
+      <c r="E81" s="3">
         <v>350300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>565200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>405900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>294600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>351400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>400300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>366700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>289500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>281000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>433900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>331700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>237100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>278100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>426800</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3823,55 +4021,59 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>90700</v>
+      </c>
+      <c r="E83" s="3">
         <v>89800</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>118800</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>84900</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>83800</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>82500</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>108000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>79800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>79400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>78000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>103100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>75300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>72800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>71800</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>93900</v>
       </c>
     </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3917,8 +4119,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3964,8 +4169,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4011,8 +4219,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4058,8 +4269,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4105,55 +4319,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>204500</v>
+      </c>
+      <c r="E89" s="3">
         <v>447100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>841900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>469600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>367900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>449200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>823900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>504000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>187300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>565000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>561400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>445300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>157400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>406500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>545800</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4171,55 +4391,59 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-89200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-101400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-182200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-118000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-97700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-98200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>326700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-112400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-104500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-110300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-195900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-141800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-118200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-97900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-377700</v>
       </c>
     </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4265,8 +4489,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4312,55 +4539,61 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-84200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-90700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-206600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-109100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-84300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-91900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-219200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-72100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-96000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-134700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-194400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-156500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-103100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-99700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-189500</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4378,8 +4611,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4425,8 +4659,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4472,8 +4709,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4519,8 +4759,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4566,145 +4809,157 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-127000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-375800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-630600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-381900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-345900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-315600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-607000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-500900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-60600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-463700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-302500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-275300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-38600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-297900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-363800</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E101" s="3">
         <v>1200</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-2500</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-200</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>5900</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-7400</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>1700</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-1200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-2300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>1600</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>3000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-600</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-3100</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-18200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>2200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-21600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-56400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>34300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-70100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>30800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-35600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>66100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>16500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>15100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>5800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-23600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AZO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AZO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="92">
   <si>
     <t>AZO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,228 +665,240 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43960</v>
+      </c>
+      <c r="E7" s="2">
         <v>43876</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43792</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43708</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43589</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43505</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43421</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43337</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43225</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43141</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43057</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42973</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42861</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42777</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42693</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42609</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2779300</v>
+      </c>
+      <c r="E8" s="3">
         <v>2513700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2793000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>3988400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2783000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2450600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2641700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>3558800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2660200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2413000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2589100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3512600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2619000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2289200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2467800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>3398800</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1288700</v>
+      </c>
+      <c r="E9" s="3">
         <v>1147600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1292000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1858000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1291000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1125500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1224300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1650900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1237200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1136000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1223300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1658500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1240600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1083700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1166300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1604000</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1490600</v>
+      </c>
+      <c r="E10" s="3">
         <v>1366100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1501000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>2130400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1492000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1325100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1417400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1907900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1423000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1277000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1365800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1854100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1378400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1205500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1301500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1794800</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -905,8 +917,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -955,8 +968,11 @@
       <c r="R12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1005,8 +1021,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1055,8 +1074,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1066,47 +1088,50 @@
       <c r="E15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G15" s="3">
         <v>118800</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>84900</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>83800</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>82500</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>108000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>79800</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>79400</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>78000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>103100</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>75300</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>72800</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>71800</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>93900</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1122,108 +1147,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2287600</v>
+      </c>
+      <c r="E17" s="3">
         <v>2105700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2293000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>3207700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2235500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2050500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2153900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2967500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2114400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2207900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2120400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2805000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2089400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1905300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2008900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2695400</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>491700</v>
+      </c>
+      <c r="E18" s="3">
         <v>408000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>500000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>780700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>547500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>400100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>487800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>591300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>545800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>205100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>468700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>707600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>529600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>384000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>458900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>703400</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1242,119 +1274,126 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-46500</v>
+      </c>
+      <c r="E20" s="3">
         <v>-43100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-42300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-61200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-43200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-41400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-39000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-54400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-42000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-39300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-38900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-51400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-35700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-34200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-33300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-45800</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>536900</v>
+      </c>
+      <c r="E21" s="3">
         <v>455600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>547400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>838400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>589200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>442400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>531300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>644900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>583600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>245100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>507900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>759300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>569200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>422600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>497400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>751500</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>900</v>
+      </c>
+      <c r="E22" s="3">
         <v>1300</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>1400</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>8</v>
@@ -1371,8 +1410,8 @@
       <c r="K22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
+      <c r="L22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M22" s="3">
         <v>0</v>
@@ -1392,108 +1431,117 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>444200</v>
+      </c>
+      <c r="E23" s="3">
         <v>363600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>456300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>719600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>504300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>358700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>448800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>536900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>503800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>165800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>429900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>656200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>493900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>349800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>425600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>657600</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>101300</v>
+      </c>
+      <c r="E24" s="3">
         <v>64300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>105900</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>51300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>201400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>72800</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>97400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>156800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>136500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>47600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>148900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>222300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>162200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>112600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>147500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>230800</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1542,108 +1590,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>342900</v>
+      </c>
+      <c r="E26" s="3">
         <v>299300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>350300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>668300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>302800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>285800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>351400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>380100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>367300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>118100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>281000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>433900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>331700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>237100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>278100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>426800</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>342900</v>
+      </c>
+      <c r="E27" s="3">
         <v>299300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>350300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>668300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>302800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>285800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>351400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>380100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>367300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>118100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>281000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>433900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>331700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>237100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>278100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>426800</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1692,8 +1749,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1703,29 +1763,29 @@
       <c r="E29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G29" s="3">
         <v>-103100</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>103100</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>8800</v>
       </c>
-      <c r="I29" s="3" t="s">
+      <c r="J29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>20200</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-600</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>171400</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>8</v>
@@ -1742,8 +1802,11 @@
       <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1792,8 +1855,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1842,108 +1908,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>46500</v>
+      </c>
+      <c r="E32" s="3">
         <v>43100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>42300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>61200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>43200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>41400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>39000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>54400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>42000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>39300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>38900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>51400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>35700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>34200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>33300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>45800</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>342900</v>
+      </c>
+      <c r="E33" s="3">
         <v>299300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>350300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>565200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>405900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>294600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>351400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>400300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>366700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>289500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>281000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>433900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>331700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>237100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>278100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>426800</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1992,113 +2067,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>342900</v>
+      </c>
+      <c r="E35" s="3">
         <v>299300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>350300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>565200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>405900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>294600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>351400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>400300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>366700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>289500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>281000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>433900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>331700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>237100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>278100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>426800</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43960</v>
+      </c>
+      <c r="E38" s="2">
         <v>43876</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43792</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43708</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43589</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43505</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43421</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43337</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43225</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43141</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43057</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42973</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42861</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42777</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42693</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42609</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2117,8 +2201,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2137,58 +2222,62 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>509100</v>
+      </c>
+      <c r="E41" s="3">
         <v>153000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>158100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>176300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>174100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>195700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>252100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>217800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>218400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>288500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>257700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>293300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>227100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>210600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>195500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>189700</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2237,208 +2326,223 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>266900</v>
+      </c>
+      <c r="E43" s="3">
         <v>340300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>333200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>309000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>281600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>298300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>275200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>258100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>261300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>282500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>272500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>280700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>276100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>246900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>270800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>287700</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>4440600</v>
+      </c>
+      <c r="E44" s="3">
         <v>4606200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>4463100</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>4319100</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>4325700</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>4305500</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>4090400</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>3943700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>4005800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>4085500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>4012100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>3882100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>3861100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>3902100</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>3773200</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>3631900</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>181400</v>
+      </c>
+      <c r="E45" s="3">
         <v>201100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>202500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>224300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>190000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>197600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>196700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>216200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>185800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>169700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>175000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>155200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>142900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>133100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>129100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>130200</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>5398000</v>
+      </c>
+      <c r="E46" s="3">
         <v>5300500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>5157000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>5028700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>4971300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>4997100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>4814300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>4635900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>4671300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>4826300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>4717200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>4611300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>4507200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>4492800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>4368700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>4239600</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2487,108 +2591,117 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>6998400</v>
+      </c>
+      <c r="E48" s="3">
         <v>7055600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>7035800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>4398800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>4324900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>4269900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>4228800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>4218400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4123000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>4081300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>4061000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>4031000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>3904200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>3803800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>3750500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>3733300</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>305400</v>
+      </c>
+      <c r="E49" s="3">
         <v>306300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>307300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>308300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>309500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>310500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>311500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>312400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>324800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>326700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>443000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>444400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>447000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>448900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>450900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>452900</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2637,8 +2750,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2687,58 +2803,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>200300</v>
+      </c>
+      <c r="E52" s="3">
         <v>201200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>200400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>160200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>167900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>167600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>169000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>180300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>182700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>169400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>176000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>173100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>169900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>157200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>172500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>174100</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2787,58 +2909,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>12902100</v>
+      </c>
+      <c r="E54" s="3">
         <v>12863700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>12700500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>9895900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>9773700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>9745100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>9523600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>9347000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>9301800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>9403700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>9397100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>9259800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>9028300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>8902600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>8742500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>8599800</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2857,8 +2985,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2877,69 +3006,73 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4806300</v>
+      </c>
+      <c r="E57" s="3">
         <v>4869900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>4922100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>4864900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>4693100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>4669600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>4455300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>4409400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>4296700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>4365700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>4326700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>4168900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>4140700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>4115000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>4162300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>4095900</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>58000</v>
+      </c>
+      <c r="E58" s="3">
         <v>58900</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>57800</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>8</v>
@@ -2956,8 +3089,8 @@
       <c r="K58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L58" s="3">
-        <v>0</v>
+      <c r="L58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M58" s="3">
         <v>0</v>
@@ -2977,208 +3110,223 @@
       <c r="R58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>904700</v>
+      </c>
+      <c r="E59" s="3">
         <v>850800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>888300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>647200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>623800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>664700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>712800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>619300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>621700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>581600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>740900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>597400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>652900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>669300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>687900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>594500</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>5769100</v>
+      </c>
+      <c r="E60" s="3">
         <v>5779600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>5868200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>5512100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>5316900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>5334300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>5168200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>5028700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>4918300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>4947200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>5067600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>4766300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>4793500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>4784300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>4850200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>4690300</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>5544500</v>
+      </c>
+      <c r="E61" s="3">
         <v>5588700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>5425200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>5206300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>5151900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>5111200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>5156000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>5005900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>4954700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>5043500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>4983000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>5081200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>5152800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>5151900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>4997400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>4924100</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>3221300</v>
+      </c>
+      <c r="E62" s="3">
         <v>3206700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>3183100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>891300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>894400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>894000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>858000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>832700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>790300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>743500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>871600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>840600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>796100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>793900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>790100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>772900</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3227,8 +3375,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3277,8 +3428,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3327,58 +3481,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>14534900</v>
+      </c>
+      <c r="E66" s="3">
         <v>14574900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>14476500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>11609800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>11363300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>11339500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>11182200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>10867300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>10663400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>10734300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>10922200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>10688200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>10742500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>10730100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>10637800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>10387300</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3397,8 +3557,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3447,8 +3608,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3497,8 +3661,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3547,8 +3714,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3597,58 +3767,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-2191400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-2534300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-955000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-1305300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-1870600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-2276500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-864200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-1208800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-1623600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-1990300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-1361400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-1642400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-2076300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-2408000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-1324100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-1602200</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3697,8 +3873,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3747,8 +3926,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3797,58 +3979,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-1632700</v>
+      </c>
+      <c r="E76" s="3">
         <v>-1711100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-1776100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-1713900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-1589500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-1594400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-1658600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-1520400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-1361600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-1330500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-1525100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-1428400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-1714200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-1827400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-1895200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-1787500</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3897,113 +4085,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43960</v>
+      </c>
+      <c r="E80" s="2">
         <v>43876</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43792</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43708</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43589</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43505</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43421</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43337</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43225</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43141</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43057</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42973</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42861</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42777</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42693</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42609</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>342900</v>
+      </c>
+      <c r="E81" s="3">
         <v>299300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>350300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>565200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>405900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>294600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>351400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>400300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>366700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>289500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>281000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>433900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>331700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>237100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>278100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>426800</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4022,58 +4219,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>91700</v>
+      </c>
+      <c r="E83" s="3">
         <v>90700</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>89800</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>118800</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>84900</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>83800</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>82500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>108000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>79800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>79400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>78000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>103100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>75300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>72800</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>71800</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>93900</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4122,8 +4323,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4172,8 +4376,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4222,8 +4429,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4272,8 +4482,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4322,58 +4535,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>651500</v>
+      </c>
+      <c r="E89" s="3">
         <v>204500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>447100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>841900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>469600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>367900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>449200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>823900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>504000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>187300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>565000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>561400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>445300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>157400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>406500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>545800</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4392,58 +4611,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-83300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-89200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-101400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-182200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-118000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-97700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-98200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>326700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-112400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-104500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-110300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-195900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-141800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-118200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-97900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-377700</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4492,8 +4715,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4542,58 +4768,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-73000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-84200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-90700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-206600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-109100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-84300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-91900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-219200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-72100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-96000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-134700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-194400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-156500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-103100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-99700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-189500</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4612,8 +4844,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4662,8 +4895,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4712,8 +4948,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4762,8 +5001,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4812,154 +5054,166 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-209400</v>
+      </c>
+      <c r="E100" s="3">
         <v>-127000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-375800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-630600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-381900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-345900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-315600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-607000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-500900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-60600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-463700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-302500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-275300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-38600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-297900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-363800</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-12900</v>
+      </c>
+      <c r="E101" s="3">
         <v>1500</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>1200</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-2500</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-200</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>5900</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-7400</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>1700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-1200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-2300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>1600</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>3000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-600</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-3100</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>356100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-5100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-18200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>2200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-21600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-56400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>34300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-70100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>30800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-35600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>66100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>16500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>15100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>5800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-23600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AZO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AZO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="92">
   <si>
     <t>AZO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,240 +665,253 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44072</v>
+      </c>
+      <c r="E7" s="2">
         <v>43960</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43876</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43792</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43708</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43589</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43505</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43421</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43337</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43225</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43141</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43057</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42973</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42861</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42777</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42693</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42609</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>4546000</v>
+      </c>
+      <c r="E8" s="3">
         <v>2779300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2513700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2793000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>3988400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2783000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2450600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2641700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3558800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2660200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2413000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2589100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3512600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2619000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2289200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2467800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>3398800</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>2133000</v>
+      </c>
+      <c r="E9" s="3">
         <v>1288700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1147600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1292000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1858000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1291000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1125500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1224300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1650900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1237200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1136000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1223300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1658500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1240600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1083700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1166300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1604000</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>2413000</v>
+      </c>
+      <c r="E10" s="3">
         <v>1490600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1366100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1501000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>2130400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1492000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1325100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1417400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1907900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1423000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1277000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1365800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1854100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1378400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1205500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1301500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1794800</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -918,8 +931,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -971,8 +985,11 @@
       <c r="S12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1024,31 +1041,34 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>8900</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>75000</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1077,8 +1097,11 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1091,47 +1114,50 @@
       <c r="F15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H15" s="3">
         <v>118800</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>84900</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>83800</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>82500</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>108000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>79800</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>79400</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>78000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>103100</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>75300</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>72800</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>71800</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>93900</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1148,114 +1174,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3527900</v>
+      </c>
+      <c r="E17" s="3">
         <v>2287600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2105700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2293000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>3207700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2235500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2050500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2153900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2967500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2114400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2207900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2120400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2805000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2089400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1905300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2008900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2695400</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>1018100</v>
+      </c>
+      <c r="E18" s="3">
         <v>491700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>408000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>500000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>780700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>547500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>400100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>487800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>591300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>545800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>205100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>468700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>707600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>529600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>384000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>458900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>703400</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1275,128 +1308,135 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-64900</v>
+      </c>
+      <c r="E20" s="3">
         <v>-46500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-43100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-42300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-61200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-43200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-41400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-39000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-54400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-42000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-39300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-38900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-51400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-35700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-34200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-33300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-45800</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1078500</v>
+      </c>
+      <c r="E21" s="3">
         <v>536900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>455600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>547400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>838400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>589200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>442400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>531300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>644900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>583600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>245100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>507900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>759300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>569200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>422600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>497400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>751500</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>800</v>
+      </c>
+      <c r="E22" s="3">
         <v>900</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>1300</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>1400</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>8</v>
@@ -1413,8 +1453,8 @@
       <c r="L22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
+      <c r="M22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N22" s="3">
         <v>0</v>
@@ -1434,114 +1474,123 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>952400</v>
+      </c>
+      <c r="E23" s="3">
         <v>444200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>363600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>456300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>719600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>504300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>358700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>448800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>536900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>503800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>165800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>429900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>656200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>493900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>349800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>425600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>657600</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>212000</v>
+      </c>
+      <c r="E24" s="3">
         <v>101300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>64300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>105900</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>51300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>201400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>72800</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>97400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>156800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>136500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>47600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>148900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>222300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>162200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>112600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>147500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>230800</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1593,114 +1642,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>740500</v>
+      </c>
+      <c r="E26" s="3">
         <v>342900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>299300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>350300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>668300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>302800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>285800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>351400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>380100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>367300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>118100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>281000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>433900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>331700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>237100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>278100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>426800</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>740500</v>
+      </c>
+      <c r="E27" s="3">
         <v>342900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>299300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>350300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>668300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>302800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>285800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>351400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>380100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>367300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>118100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>281000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>433900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>331700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>237100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>278100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>426800</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1752,8 +1810,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1766,29 +1827,29 @@
       <c r="F29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G29" s="3">
+      <c r="G29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H29" s="3">
         <v>-103100</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>103100</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>8800</v>
       </c>
-      <c r="J29" s="3" t="s">
+      <c r="K29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>20200</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-600</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>171400</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>8</v>
@@ -1805,8 +1866,11 @@
       <c r="S29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1858,8 +1922,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1911,114 +1978,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>64900</v>
+      </c>
+      <c r="E32" s="3">
         <v>46500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>43100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>42300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>61200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>43200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>41400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>39000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>54400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>42000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>39300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>38900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>51400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>35700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>34200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>33300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>45800</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>740500</v>
+      </c>
+      <c r="E33" s="3">
         <v>342900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>299300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>350300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>565200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>405900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>294600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>351400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>400300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>366700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>289500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>281000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>433900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>331700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>237100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>278100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>426800</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2070,119 +2146,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>740500</v>
+      </c>
+      <c r="E35" s="3">
         <v>342900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>299300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>350300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>565200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>405900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>294600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>351400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>400300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>366700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>289500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>281000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>433900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>331700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>237100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>278100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>426800</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44072</v>
+      </c>
+      <c r="E38" s="2">
         <v>43960</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43876</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43792</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43708</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43589</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43505</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43421</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43337</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43225</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43141</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43057</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42973</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42861</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42777</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42693</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42609</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2202,8 +2287,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2223,61 +2309,65 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1750800</v>
+      </c>
+      <c r="E41" s="3">
         <v>509100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>153000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>158100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>176300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>174100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>195700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>252100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>217800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>218400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>288500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>257700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>293300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>227100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>210600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>195500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>189700</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2329,220 +2419,235 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>364800</v>
+      </c>
+      <c r="E43" s="3">
         <v>266900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>340300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>333200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>309000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>281600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>298300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>275200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>258100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>261300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>282500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>272500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>280700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>276100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>246900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>270800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>287700</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>4473300</v>
+      </c>
+      <c r="E44" s="3">
         <v>4440600</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>4606200</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>4463100</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>4319100</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>4325700</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>4305500</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>4090400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>3943700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>4005800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>4085500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>4012100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>3882100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>3861100</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>3902100</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>3773200</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>3631900</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>223000</v>
+      </c>
+      <c r="E45" s="3">
         <v>181400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>201100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>202500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>224300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>190000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>197600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>196700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>216200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>185800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>169700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>175000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>155200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>142900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>133100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>129100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>130200</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>6811900</v>
+      </c>
+      <c r="E46" s="3">
         <v>5398000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>5300500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>5157000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>5028700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>4971300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>4997100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>4814300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>4635900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>4671300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>4826300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>4717200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>4611300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>4507200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>4492800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>4368700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>4239600</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2594,114 +2699,123 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>7090900</v>
+      </c>
+      <c r="E48" s="3">
         <v>6998400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>7055600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>7035800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>4398800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>4324900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>4269900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>4228800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4218400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>4123000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>4081300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>4061000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>4031000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>3904200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>3803800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>3750500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>3733300</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>304100</v>
+      </c>
+      <c r="E49" s="3">
         <v>305400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>306300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>307300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>308300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>309500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>310500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>311500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>312400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>324800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>326700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>443000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>444400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>447000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>448900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>450900</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>452900</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2753,8 +2867,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2806,61 +2923,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>217000</v>
+      </c>
+      <c r="E52" s="3">
         <v>200300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>201200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>200400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>160200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>167900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>167600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>169000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>180300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>182700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>169400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>176000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>173100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>169900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>157200</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>172500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>174100</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2912,61 +3035,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>14423900</v>
+      </c>
+      <c r="E54" s="3">
         <v>12902100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>12863700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>12700500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>9895900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>9773700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>9745100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>9523600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>9347000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>9301800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>9403700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>9397100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>9259800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>9028300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>8902600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>8742500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>8599800</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2986,8 +3115,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3007,75 +3137,79 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>5156300</v>
+      </c>
+      <c r="E57" s="3">
         <v>4806300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>4869900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>4922100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>4864900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>4693100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>4669600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>4455300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>4409400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>4296700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>4365700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>4326700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>4168900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>4140700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>4115000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>4162300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>4095900</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>67500</v>
+      </c>
+      <c r="E58" s="3">
         <v>58000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>58900</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>57800</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>8</v>
@@ -3092,8 +3226,8 @@
       <c r="L58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M58" s="3">
-        <v>0</v>
+      <c r="M58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N58" s="3">
         <v>0</v>
@@ -3113,220 +3247,235 @@
       <c r="S58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1059300</v>
+      </c>
+      <c r="E59" s="3">
         <v>904700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>850800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>888300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>647200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>623800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>664700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>712800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>619300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>621700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>581600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>740900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>597400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>652900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>669300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>687900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>594500</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>6283100</v>
+      </c>
+      <c r="E60" s="3">
         <v>5769100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>5779600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>5868200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>5512100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>5316900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>5334300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>5168200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>5028700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>4918300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>4947200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>5067600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>4766300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>4793500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>4784300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>4850200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>4690300</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>5669200</v>
+      </c>
+      <c r="E61" s="3">
         <v>5544500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>5588700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>5425200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>5206300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>5151900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>5111200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>5156000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>5005900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>4954700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>5043500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>4983000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>5081200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>5152800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>5151900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>4997400</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>4924100</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>3349500</v>
+      </c>
+      <c r="E62" s="3">
         <v>3221300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>3206700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>3183100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>891300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>894400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>894000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>858000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>832700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>790300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>743500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>871600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>840600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>796100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>793900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>790100</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>772900</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3378,8 +3527,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3431,8 +3583,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3484,61 +3639,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>15301800</v>
+      </c>
+      <c r="E66" s="3">
         <v>14534900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>14574900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>14476500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>11609800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>11363300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>11339500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>11182200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>10867300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>10663400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>10734300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>10922200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>10688200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>10742500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>10730100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>10637800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>10387300</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3558,8 +3719,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3611,8 +3773,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3664,8 +3829,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3717,8 +3885,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3770,61 +3941,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-1451000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-2191400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-2534300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-955000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-1305300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-1870600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-2276500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-864200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-1208800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-1623600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-1990300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-1361400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-1642400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-2076300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-2408000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-1324100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-1602200</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3876,8 +4053,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3929,8 +4109,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3982,61 +4165,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-878000</v>
+      </c>
+      <c r="E76" s="3">
         <v>-1632700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-1711100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-1776100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-1713900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-1589500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-1594400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-1658600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-1520400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-1361600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-1330500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-1525100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-1428400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-1714200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-1827400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-1895200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-1787500</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4088,119 +4277,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44072</v>
+      </c>
+      <c r="E80" s="2">
         <v>43960</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43876</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43792</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43708</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43589</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43505</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43421</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43337</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43225</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43141</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43057</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42973</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42861</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42777</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42693</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42609</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>740500</v>
+      </c>
+      <c r="E81" s="3">
         <v>342900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>299300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>350300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>565200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>405900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>294600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>351400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>400300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>366700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>289500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>281000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>433900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>331700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>237100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>278100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>426800</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4220,61 +4418,65 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>125400</v>
+      </c>
+      <c r="E83" s="3">
         <v>91700</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>90700</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>89800</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>118800</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>84900</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>83800</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>82500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>108000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>79800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>79400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>78000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>103100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>75300</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>72800</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>71800</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>93900</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4326,8 +4528,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4379,8 +4584,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4432,8 +4640,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4485,8 +4696,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4538,61 +4752,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1417000</v>
+      </c>
+      <c r="E89" s="3">
         <v>651500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>204500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>447100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>841900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>469600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>367900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>449200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>823900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>504000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>187300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>565000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>561400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>445300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>157400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>406500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>545800</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4612,61 +4832,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-183800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-83300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-89200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-101400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-182200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-118000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-97700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-98200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>326700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-112400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-104500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-110300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-195900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-141800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-118200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-97900</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-377700</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4718,8 +4942,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4771,61 +4998,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-250000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-73000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-84200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-90700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-206600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-109100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-84300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-91900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-219200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-72100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-96000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-134700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-194400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-156500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-103100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-99700</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-189500</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4845,8 +5078,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4898,8 +5132,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4951,8 +5188,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5004,8 +5244,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5057,163 +5300,175 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>68500</v>
+      </c>
+      <c r="E100" s="3">
         <v>-209400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-127000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-375800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-630600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-381900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-345900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-315600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-607000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-500900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-60600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-463700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-302500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-275300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-38600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-297900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-363800</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E101" s="3">
         <v>-12900</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>1500</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>1200</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-2500</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-200</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>5900</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-7400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>1700</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-1200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-2300</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>1600</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>3000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-600</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-3100</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1241700</v>
+      </c>
+      <c r="E102" s="3">
         <v>356100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-5100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-18200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>2200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-21600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-56400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>34300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-70100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>30800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-35600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>66100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>16500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>15100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>5800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-23600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AZO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AZO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="92">
   <si>
     <t>AZO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,253 +665,278 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44240</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44156</v>
+      </c>
+      <c r="F7" s="2">
         <v>44072</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43960</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43876</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43792</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43708</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43589</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43505</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43421</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43337</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43225</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43141</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43057</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42973</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42861</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42777</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42693</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42609</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2910800</v>
+      </c>
+      <c r="E8" s="3">
+        <v>3154300</v>
+      </c>
+      <c r="F8" s="3">
         <v>4546000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>2779300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>2513700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>2793000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>3988400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>2783000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>2450600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>2641700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>3558800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>2660200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>2413000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>2589100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>3512600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>2619000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>2289200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>2467800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>3398800</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1351400</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1478600</v>
+      </c>
+      <c r="F9" s="3">
         <v>2133000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>1288700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>1147600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>1292000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>1858000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>1291000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>1125500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>1224300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>1650900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>1237200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>1136000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>1223300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>1658500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>1240600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>1083700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>1166300</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>1604000</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1559400</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1675700</v>
+      </c>
+      <c r="F10" s="3">
         <v>2413000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>1490600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>1366100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>1501000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>2130400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>1492000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>1325100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>1417400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>1907900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>1423000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>1277000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>1365800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>1854100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>1378400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>1205500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>1301500</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>1794800</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -932,8 +957,10 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -988,8 +1015,14 @@
       <c r="T12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1044,22 +1077,28 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>39900</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>8900</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>75000</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
@@ -1070,11 +1109,11 @@
       <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -1100,8 +1139,14 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1117,47 +1162,53 @@
       <c r="G15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J15" s="3">
         <v>118800</v>
       </c>
-      <c r="I15" s="3">
+      <c r="K15" s="3">
         <v>84900</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>83800</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>82500</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>108000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>79800</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>79400</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>78000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="3">
         <v>103100</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="S15" s="3">
         <v>75300</v>
       </c>
-      <c r="R15" s="3">
+      <c r="T15" s="3">
         <v>72800</v>
       </c>
-      <c r="S15" s="3">
+      <c r="U15" s="3">
         <v>71800</v>
       </c>
-      <c r="T15" s="3">
+      <c r="V15" s="3">
         <v>93900</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1175,120 +1226,134 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2429100</v>
+      </c>
+      <c r="E17" s="3">
+        <v>2539000</v>
+      </c>
+      <c r="F17" s="3">
         <v>3527900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>2287600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>2105700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>2293000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>3207700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>2235500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>2050500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>2153900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>2967500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>2114400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>2207900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>2120400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>2805000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>2089400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>1905300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>2008900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>2695400</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>481700</v>
+      </c>
+      <c r="E18" s="3">
+        <v>615300</v>
+      </c>
+      <c r="F18" s="3">
         <v>1018100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>491700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>408000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>500000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>780700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>547500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>400100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>487800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>591300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>545800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>205100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>468700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>707600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>529600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>384000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>458900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>703400</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1309,140 +1374,154 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-45300</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-45500</v>
+      </c>
+      <c r="F20" s="3">
         <v>-64900</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-46500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-43100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-42300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-61200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-43200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-41400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-39000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-54400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-42000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-39300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-38900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-51400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-35700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>-34200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>-33300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>-45800</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>530900</v>
+      </c>
+      <c r="E21" s="3">
+        <v>659300</v>
+      </c>
+      <c r="F21" s="3">
         <v>1078500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>536900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>455600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>547400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>838400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>589200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>442400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>531300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>644900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>583600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>245100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>507900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>759300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>569200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>422600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>497400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>751500</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>700</v>
+      </c>
+      <c r="E22" s="3">
+        <v>700</v>
+      </c>
+      <c r="F22" s="3">
         <v>800</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>900</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>1300</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>1400</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>8</v>
@@ -1456,11 +1535,11 @@
       <c r="M22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
-      </c>
-      <c r="O22" s="3">
-        <v>0</v>
+      <c r="N22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P22" s="3">
         <v>0</v>
@@ -1477,120 +1556,138 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>435800</v>
+      </c>
+      <c r="E23" s="3">
+        <v>569000</v>
+      </c>
+      <c r="F23" s="3">
         <v>952400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>444200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>363600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>456300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>719600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>504300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>358700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>448800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>536900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>503800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>165800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>429900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>656200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>493900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>349800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>425600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>657600</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>89800</v>
+      </c>
+      <c r="E24" s="3">
+        <v>126600</v>
+      </c>
+      <c r="F24" s="3">
         <v>212000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>101300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>64300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>105900</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>51300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>201400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>72800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>97400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>156800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>136500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>47600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>148900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>222300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>162200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>112600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>147500</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>230800</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1645,120 +1742,138 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>345900</v>
+      </c>
+      <c r="E26" s="3">
+        <v>442400</v>
+      </c>
+      <c r="F26" s="3">
         <v>740500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>342900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>299300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>350300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>668300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>302800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>285800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>351400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>380100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>367300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>118100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>281000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>433900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>331700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>237100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>278100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>426800</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>345900</v>
+      </c>
+      <c r="E27" s="3">
+        <v>442400</v>
+      </c>
+      <c r="F27" s="3">
         <v>740500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>342900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>299300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>350300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>668300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>302800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>285800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>351400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>380100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>367300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>118100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>281000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>433900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>331700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>237100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>278100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>426800</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1813,8 +1928,14 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1830,32 +1951,32 @@
       <c r="G29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H29" s="3">
+      <c r="H29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J29" s="3">
         <v>-103100</v>
       </c>
-      <c r="I29" s="3">
+      <c r="K29" s="3">
         <v>103100</v>
       </c>
-      <c r="J29" s="3">
+      <c r="L29" s="3">
         <v>8800</v>
       </c>
-      <c r="K29" s="3" t="s">
+      <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L29" s="3">
+      <c r="N29" s="3">
         <v>20200</v>
       </c>
-      <c r="M29" s="3">
+      <c r="O29" s="3">
         <v>-600</v>
       </c>
-      <c r="N29" s="3">
+      <c r="P29" s="3">
         <v>171400</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>8</v>
@@ -1869,8 +1990,14 @@
       <c r="T29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1925,8 +2052,14 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1981,120 +2114,138 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>45300</v>
+      </c>
+      <c r="E32" s="3">
+        <v>45500</v>
+      </c>
+      <c r="F32" s="3">
         <v>64900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>46500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>43100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>42300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>61200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>43200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>41400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>39000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>54400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>42000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>39300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>38900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>51400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>35700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>34200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>33300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>45800</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>345900</v>
+      </c>
+      <c r="E33" s="3">
+        <v>442400</v>
+      </c>
+      <c r="F33" s="3">
         <v>740500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>342900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>299300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>350300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>565200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>405900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>294600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>351400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>400300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>366700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>289500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>281000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>433900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>331700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>237100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>278100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>426800</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2149,125 +2300,143 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>345900</v>
+      </c>
+      <c r="E35" s="3">
+        <v>442400</v>
+      </c>
+      <c r="F35" s="3">
         <v>740500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>342900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>299300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>350300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>565200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>405900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>294600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>351400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>400300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>366700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>289500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>281000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>433900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>331700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>237100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>278100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>426800</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44240</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44156</v>
+      </c>
+      <c r="F38" s="2">
         <v>44072</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43960</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43876</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43792</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43708</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43589</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43505</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43421</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43337</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43225</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43141</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43057</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42973</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42861</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42777</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42693</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42609</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2288,8 +2457,10 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2310,64 +2481,72 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1026200</v>
+      </c>
+      <c r="E41" s="3">
+        <v>1664000</v>
+      </c>
+      <c r="F41" s="3">
         <v>1750800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>509100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>153000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>158100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>176300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>174100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>195700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>252100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>217800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>218400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>288500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>257700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>293300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>227100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>210600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>195500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>189700</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2422,232 +2601,262 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>352500</v>
+      </c>
+      <c r="E43" s="3">
+        <v>350900</v>
+      </c>
+      <c r="F43" s="3">
         <v>364800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>266900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>340300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>333200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>309000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>281600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>298300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>275200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>258100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>261300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>282500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>272500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>280700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>276100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>246900</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>270800</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>287700</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>4736800</v>
+      </c>
+      <c r="E44" s="3">
+        <v>4628300</v>
+      </c>
+      <c r="F44" s="3">
         <v>4473300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>4440600</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>4606200</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>4463100</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>4319100</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>4325700</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>4305500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>4090400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>3943700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>4005800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>4085500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>4012100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>3882100</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>3861100</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>3902100</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>3773200</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>3631900</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>211300</v>
+      </c>
+      <c r="E45" s="3">
+        <v>193500</v>
+      </c>
+      <c r="F45" s="3">
         <v>223000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>181400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>201100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>202500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>224300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>190000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>197600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>196700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>216200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>185800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>169700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>175000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>155200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>142900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>133100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>129100</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>130200</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>6326800</v>
+      </c>
+      <c r="E46" s="3">
+        <v>6836800</v>
+      </c>
+      <c r="F46" s="3">
         <v>6811900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>5398000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>5300500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>5157000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>5028700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>4971300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>4997100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>4814300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>4635900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>4671300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>4826300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>4717200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>4611300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>4507200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>4492800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>4368700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>4239600</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2702,120 +2911,138 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>7288700</v>
+      </c>
+      <c r="E48" s="3">
+        <v>7193000</v>
+      </c>
+      <c r="F48" s="3">
         <v>7090900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>6998400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>7055600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>7035800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>4398800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>4324900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>4269900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>4228800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>4218400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>4123000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>4081300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>4061000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>4031000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>3904200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>3803800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>3750500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>3733300</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>302600</v>
+      </c>
+      <c r="E49" s="3">
+        <v>302600</v>
+      </c>
+      <c r="F49" s="3">
         <v>304100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>305400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>306300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>307300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>308300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>309500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>310500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>311500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>312400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>324800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>326700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>443000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>444400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>447000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>448900</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>450900</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>452900</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2870,8 +3097,14 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2926,64 +3159,76 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>241800</v>
+      </c>
+      <c r="E52" s="3">
+        <v>236100</v>
+      </c>
+      <c r="F52" s="3">
         <v>217000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>200300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>201200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>200400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>160200</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>167900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>167600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>169000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>180300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>182700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>169400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>176000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>173100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>169900</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>157200</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>172500</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>174100</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3038,64 +3283,76 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>14160000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>14568600</v>
+      </c>
+      <c r="F54" s="3">
         <v>14423900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>12902100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>12863700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>12700500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>9895900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>9773700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>9745100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>9523600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>9347000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>9301800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>9403700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>9397100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>9259800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>9028300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>8902600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>8742500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>8599800</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3116,8 +3373,10 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3138,84 +3397,92 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>5351100</v>
+      </c>
+      <c r="E57" s="3">
+        <v>5282300</v>
+      </c>
+      <c r="F57" s="3">
         <v>5156300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>4806300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>4869900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>4922100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>4864900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>4693100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>4669600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>4455300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>4409400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>4296700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>4365700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>4326700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>4168900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>4140700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>4115000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>4162300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>4095900</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>314500</v>
+      </c>
+      <c r="E58" s="3">
+        <v>63400</v>
+      </c>
+      <c r="F58" s="3">
         <v>67500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>58000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>58900</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>57800</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>8</v>
@@ -3229,11 +3496,11 @@
       <c r="M58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N58" s="3">
-        <v>0</v>
-      </c>
-      <c r="O58" s="3">
-        <v>0</v>
+      <c r="N58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P58" s="3">
         <v>0</v>
@@ -3250,232 +3517,262 @@
       <c r="T58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1138700</v>
+      </c>
+      <c r="E59" s="3">
+        <v>1111000</v>
+      </c>
+      <c r="F59" s="3">
         <v>1059300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>904700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>850800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>888300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>647200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>623800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>664700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>712800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>619300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>621700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>581600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>740900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>597400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>652900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>669300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>687900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>594500</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>6804300</v>
+      </c>
+      <c r="E60" s="3">
+        <v>6456700</v>
+      </c>
+      <c r="F60" s="3">
         <v>6283100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>5769100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>5779600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>5868200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>5512100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>5316900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>5334300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>5168200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>5028700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>4918300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>4947200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>5067600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>4766300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>4793500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>4784300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>4850200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>4690300</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>5427300</v>
+      </c>
+      <c r="E61" s="3">
+        <v>5684400</v>
+      </c>
+      <c r="F61" s="3">
         <v>5669200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>5544500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>5588700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>5425200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>5206300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>5151900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>5111200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>5156000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>5005900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>4954700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>5043500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>4983000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>5081200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>5152800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>5151900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>4997400</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>4924100</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>3451900</v>
+      </c>
+      <c r="E62" s="3">
+        <v>3454500</v>
+      </c>
+      <c r="F62" s="3">
         <v>3349500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>3221300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>3206700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>3183100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>891300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>894400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>894000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>858000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>832700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>790300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>743500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>871600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>840600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>796100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>793900</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>790100</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>772900</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3530,8 +3827,14 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3586,8 +3889,14 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3642,64 +3951,76 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>15683600</v>
+      </c>
+      <c r="E66" s="3">
+        <v>15595600</v>
+      </c>
+      <c r="F66" s="3">
         <v>15301800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>14534900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>14574900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>14476500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>11609800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>11363300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>11339500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>11182200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>10867300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>10663400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>10734300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>10922200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>10688200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>10742500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>10730100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>10637800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>10387300</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3720,8 +4041,10 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3776,8 +4099,14 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3832,8 +4161,14 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3888,8 +4223,14 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3944,64 +4285,76 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-1801800</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-1008500</v>
+      </c>
+      <c r="F72" s="3">
         <v>-1451000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-2191400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-2534300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-955000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-1305300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-1870600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-2276500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-864200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-1208800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-1623600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-1990300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-1361400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-1642400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-2076300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-2408000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-1324100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-1602200</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4056,8 +4409,14 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4112,8 +4471,14 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4168,64 +4533,76 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-1523600</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-1027000</v>
+      </c>
+      <c r="F76" s="3">
         <v>-878000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-1632700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-1711100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-1776100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-1713900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-1589500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-1594400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-1658600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-1520400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-1361600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-1330500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-1525100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-1428400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-1714200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>-1827400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>-1895200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>-1787500</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4280,125 +4657,143 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44240</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44156</v>
+      </c>
+      <c r="F80" s="2">
         <v>44072</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43960</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43876</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43792</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43708</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43589</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43505</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43421</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43337</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43225</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43141</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43057</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42973</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42861</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42777</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42693</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42609</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>345900</v>
+      </c>
+      <c r="E81" s="3">
+        <v>442400</v>
+      </c>
+      <c r="F81" s="3">
         <v>740500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>342900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>299300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>350300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>565200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>405900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>294600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>351400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>400300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>366700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>289500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>281000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>433900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>331700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>237100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>278100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>426800</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4419,64 +4814,72 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>94500</v>
+      </c>
+      <c r="E83" s="3">
+        <v>89600</v>
+      </c>
+      <c r="F83" s="3">
         <v>125400</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>91700</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>90700</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>89800</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>118800</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>84900</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>83800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>82500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>108000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>79800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>79400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>78000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>103100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>75300</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>72800</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>71800</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>93900</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4531,8 +4934,14 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4587,8 +4996,14 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4643,8 +5058,14 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4699,8 +5120,14 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4755,64 +5182,76 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>356400</v>
+      </c>
+      <c r="E89" s="3">
+        <v>683500</v>
+      </c>
+      <c r="F89" s="3">
         <v>1417000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>651500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>204500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>447100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>841900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>469600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>367900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>449200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>823900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>504000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>187300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>565000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>561400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>445300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>157400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>406500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>545800</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4833,64 +5272,72 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>400</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="F91" s="3">
         <v>-183800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-83300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-89200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-101400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-182200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-118000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-97700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-98200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>326700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-112400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-104500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-110300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-195900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-141800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-118200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-97900</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-377700</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4945,8 +5392,14 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5001,64 +5454,76 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-118200</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-110200</v>
+      </c>
+      <c r="F94" s="3">
         <v>-250000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-73000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-84200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-90700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-206600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-109100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-84300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-91900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-219200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-72100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-96000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-134700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-194400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-156500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-103100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-99700</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-189500</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5079,8 +5544,10 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5135,8 +5602,14 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5191,8 +5664,14 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5247,8 +5726,14 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5303,172 +5788,196 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-877400</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-663400</v>
+      </c>
+      <c r="F100" s="3">
         <v>68500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-209400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-127000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-375800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-630600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-381900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-345900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-315600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-607000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-500900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-60600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-463700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-302500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-275300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-38600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-297900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>-363800</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E101" s="3">
+        <v>3300</v>
+      </c>
+      <c r="F101" s="3">
         <v>6100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>-12900</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>1500</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>1200</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>-2500</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>-200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>5900</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-7400</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>1700</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>-1200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>-2300</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>1600</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>3000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>-600</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>-3100</v>
       </c>
-      <c r="T101" s="3">
+      <c r="V101" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-637800</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-86800</v>
+      </c>
+      <c r="F102" s="3">
         <v>1241700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>356100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-5100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-18200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>2200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-21600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-56400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>34300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-70100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>30800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-35600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>66100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>16500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>15100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>5800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>-23600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AZO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AZO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="92">
   <si>
     <t>AZO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,278 +665,290 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44324</v>
+      </c>
+      <c r="E7" s="2">
         <v>44240</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44156</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44072</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43960</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43876</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43792</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43708</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43589</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43505</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43421</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43337</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43225</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43141</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43057</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42973</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42861</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42777</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42693</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42609</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>3651000</v>
+      </c>
+      <c r="E8" s="3">
         <v>2910800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>3154300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>4546000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2779300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2513700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2793000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>3988400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2783000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2450600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2641700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3558800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2660200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2413000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2589100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>3512600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2619000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>2289200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>2467800</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>3398800</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1736100</v>
+      </c>
+      <c r="E9" s="3">
         <v>1351400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1478600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>2133000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1288700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1147600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1292000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1858000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1291000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1125500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1224300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1650900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1237200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1136000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1223300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1658500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1240600</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1083700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1166300</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1604000</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1914900</v>
+      </c>
+      <c r="E10" s="3">
         <v>1559400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1675700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>2413000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1490600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1366100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1501000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>2130400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1492000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1325100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1417400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1907900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1423000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1277000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1365800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1854100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1378400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1205500</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1301500</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1794800</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -959,8 +971,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1021,8 +1034,11 @@
       <c r="V12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1083,25 +1099,28 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E14" s="3">
         <v>39900</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>8900</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>75000</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>8</v>
@@ -1115,8 +1134,8 @@
       <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
@@ -1145,8 +1164,11 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1168,47 +1190,50 @@
       <c r="I15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J15" s="3">
+      <c r="J15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K15" s="3">
         <v>118800</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>84900</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>83800</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>82500</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>108000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>79800</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>79400</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>78000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>103100</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>75300</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>72800</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>71800</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>93900</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1228,132 +1253,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2847500</v>
+      </c>
+      <c r="E17" s="3">
         <v>2429100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2539000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>3527900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2287600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2105700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2293000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>3207700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2235500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2050500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2153900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2967500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2114400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2207900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2120400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2805000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2089400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1905300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2008900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>2695400</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>803500</v>
+      </c>
+      <c r="E18" s="3">
         <v>481700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>615300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>1018100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>491700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>408000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>500000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>780700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>547500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>400100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>487800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>591300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>545800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>205100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>468700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>707600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>529600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>384000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>458900</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>703400</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1376,155 +1408,162 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-45000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-45300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-45500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-64900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-46500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-43100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-42300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-61200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-43200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-41400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-39000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-54400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-42000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-39300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-38900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-51400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-35700</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-34200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-33300</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-45800</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>852500</v>
+      </c>
+      <c r="E21" s="3">
         <v>530900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>659300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1078500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>536900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>455600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>547400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>838400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>589200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>442400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>531300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>644900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>583600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>245100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>507900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>759300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>569200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>422600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>497400</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>751500</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>700</v>
+      <c r="D22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E22" s="3">
         <v>700</v>
       </c>
       <c r="F22" s="3">
+        <v>700</v>
+      </c>
+      <c r="G22" s="3">
         <v>800</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>900</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>1300</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>1400</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>8</v>
@@ -1541,8 +1580,8 @@
       <c r="O22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P22" s="3">
-        <v>0</v>
+      <c r="P22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q22" s="3">
         <v>0</v>
@@ -1562,132 +1601,141 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>758500</v>
+      </c>
+      <c r="E23" s="3">
         <v>435800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>569000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>952400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>444200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>363600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>456300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>719600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>504300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>358700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>448800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>536900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>503800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>165800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>429900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>656200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>493900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>349800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>425600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>657600</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>162300</v>
+      </c>
+      <c r="E24" s="3">
         <v>89800</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>126600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>212000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>101300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>64300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>105900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>51300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>201400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>72800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>97400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>156800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>136500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>47600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>148900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>222300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>162200</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>112600</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>147500</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>230800</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1748,132 +1796,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>596200</v>
+      </c>
+      <c r="E26" s="3">
         <v>345900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>442400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>740500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>342900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>299300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>350300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>668300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>302800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>285800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>351400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>380100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>367300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>118100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>281000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>433900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>331700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>237100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>278100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>426800</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>596200</v>
+      </c>
+      <c r="E27" s="3">
         <v>345900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>442400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>740500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>342900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>299300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>350300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>668300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>302800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>285800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>351400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>380100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>367300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>118100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>281000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>433900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>331700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>237100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>278100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>426800</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1934,8 +1991,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1957,29 +2017,29 @@
       <c r="I29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J29" s="3">
+      <c r="J29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K29" s="3">
         <v>-103100</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>103100</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>8800</v>
       </c>
-      <c r="M29" s="3" t="s">
+      <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>20200</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>-600</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>171400</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>8</v>
@@ -1996,8 +2056,11 @@
       <c r="V29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2058,8 +2121,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2120,132 +2186,141 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>45000</v>
+      </c>
+      <c r="E32" s="3">
         <v>45300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>45500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>64900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>46500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>43100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>42300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>61200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>43200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>41400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>39000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>54400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>42000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>39300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>38900</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>51400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>35700</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>34200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>33300</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>45800</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>596200</v>
+      </c>
+      <c r="E33" s="3">
         <v>345900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>442400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>740500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>342900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>299300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>350300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>565200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>405900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>294600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>351400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>400300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>366700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>289500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>281000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>433900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>331700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>237100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>278100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>426800</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2306,137 +2381,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>596200</v>
+      </c>
+      <c r="E35" s="3">
         <v>345900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>442400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>740500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>342900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>299300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>350300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>565200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>405900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>294600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>351400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>400300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>366700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>289500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>281000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>433900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>331700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>237100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>278100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>426800</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44324</v>
+      </c>
+      <c r="E38" s="2">
         <v>44240</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44156</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44072</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43960</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43876</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43792</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43708</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43589</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43505</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43421</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43337</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43225</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43141</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43057</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42973</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42861</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42777</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42693</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42609</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2459,8 +2543,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2483,70 +2568,74 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>975600</v>
+      </c>
+      <c r="E41" s="3">
         <v>1026200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1664000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1750800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>509100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>153000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>158100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>176300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>174100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>195700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>252100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>217800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>218400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>288500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>257700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>293300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>227100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>210600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>195500</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>189700</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2607,256 +2696,271 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>359700</v>
+      </c>
+      <c r="E43" s="3">
         <v>352500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>350900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>364800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>266900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>340300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>333200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>309000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>281600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>298300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>275200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>258100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>261300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>282500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>272500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>280700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>276100</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>246900</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>270800</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>287700</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>4665500</v>
+      </c>
+      <c r="E44" s="3">
         <v>4736800</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>4628300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>4473300</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>4440600</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>4606200</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>4463100</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>4319100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>4325700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>4305500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>4090400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>3943700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>4005800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>4085500</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>4012100</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>3882100</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>3861100</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>3902100</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>3773200</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>3631900</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>223600</v>
+      </c>
+      <c r="E45" s="3">
         <v>211300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>193500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>223000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>181400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>201100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>202500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>224300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>190000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>197600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>196700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>216200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>185800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>169700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>175000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>155200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>142900</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>133100</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>129100</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>130200</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>6224400</v>
+      </c>
+      <c r="E46" s="3">
         <v>6326800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>6836800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>6811900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>5398000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>5300500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>5157000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>5028700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>4971300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>4997100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>4814300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>4635900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>4671300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>4826300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>4717200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>4611300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>4507200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>4492800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>4368700</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>4239600</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2917,70 +3021,76 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>7378000</v>
+      </c>
+      <c r="E48" s="3">
         <v>7288700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>7193000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>7090900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>6998400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>7055600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>7035800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>4398800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4324900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>4269900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>4228800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>4218400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>4123000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>4081300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>4061000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>4031000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>3904200</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>3803800</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>3750500</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>3733300</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2991,58 +3101,61 @@
         <v>302600</v>
       </c>
       <c r="F49" s="3">
+        <v>302600</v>
+      </c>
+      <c r="G49" s="3">
         <v>304100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>305400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>306300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>307300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>308300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>309500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>310500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>311500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>312400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>324800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>326700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>443000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>444400</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>447000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>448900</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>450900</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>452900</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3103,8 +3216,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3165,70 +3281,76 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>232900</v>
+      </c>
+      <c r="E52" s="3">
         <v>241800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>236100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>217000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>200300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>201200</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>200400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>160200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>167900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>167600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>169000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>180300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>182700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>169400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>176000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>173100</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>169900</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>157200</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>172500</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>174100</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3289,70 +3411,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>14137900</v>
+      </c>
+      <c r="E54" s="3">
         <v>14160000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>14568600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>14423900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>12902100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>12863700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>12700500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>9895900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>9773700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>9745100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>9523600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>9347000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>9301800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>9403700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>9397100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>9259800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>9028300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>8902600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>8742500</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>8599800</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3375,8 +3503,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3399,93 +3528,97 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>5778200</v>
+      </c>
+      <c r="E57" s="3">
         <v>5351100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>5282300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>5156300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>4806300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>4869900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>4922100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>4864900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>4693100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>4669600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>4455300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>4409400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>4296700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>4365700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>4326700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>4168900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>4140700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>4115000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>4162300</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>4095900</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
+      <c r="D58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E58" s="3">
         <v>314500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>63400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>67500</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>58000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>58900</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>57800</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>8</v>
@@ -3502,8 +3635,8 @@
       <c r="O58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P58" s="3">
-        <v>0</v>
+      <c r="P58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q58" s="3">
         <v>0</v>
@@ -3523,256 +3656,271 @@
       <c r="V58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1235000</v>
+      </c>
+      <c r="E59" s="3">
         <v>1138700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1111000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1059300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>904700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>850800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>888300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>647200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>623800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>664700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>712800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>619300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>621700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>581600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>740900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>597400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>652900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>669300</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>687900</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>594500</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>7013200</v>
+      </c>
+      <c r="E60" s="3">
         <v>6804300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>6456700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>6283100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>5769100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>5779600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>5868200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>5512100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>5316900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>5334300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>5168200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>5028700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>4918300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>4947200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>5067600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>4766300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>4793500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>4784300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>4850200</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>4690300</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>5267900</v>
+      </c>
+      <c r="E61" s="3">
         <v>5427300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>5684400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>5669200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>5544500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>5588700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>5425200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>5206300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>5151900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>5111200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>5156000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>5005900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>4954700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>5043500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>4983000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>5081200</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>5152800</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>5151900</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>4997400</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>4924100</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>3620200</v>
+      </c>
+      <c r="E62" s="3">
         <v>3451900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>3454500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>3349500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>3221300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>3206700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>3183100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>891300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>894400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>894000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>858000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>832700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>790300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>743500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>871600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>840600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>796100</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>793900</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>790100</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>772900</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3833,8 +3981,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3895,8 +4046,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3957,70 +4111,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>15901300</v>
+      </c>
+      <c r="E66" s="3">
         <v>15683600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>15595600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>15301800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>14534900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>14574900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>14476500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>11609800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>11363300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>11339500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>11182200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>10867300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>10663400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>10734300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>10922200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>10688200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>10742500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>10730100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>10637800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>10387300</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4043,8 +4203,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4105,8 +4266,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4167,8 +4331,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4229,8 +4396,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4291,70 +4461,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-1205600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-1801800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-1008500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-1451000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-2191400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-2534300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-955000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-1305300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-1870600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-2276500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-864200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-1208800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-1623600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-1990300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-1361400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-1642400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-2076300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-2408000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-1324100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-1602200</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4415,8 +4591,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4477,8 +4656,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4539,70 +4721,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-1763400</v>
+      </c>
+      <c r="E76" s="3">
         <v>-1523600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-1027000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-878000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-1632700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-1711100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-1776100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-1713900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-1589500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-1594400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-1658600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-1520400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-1361600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-1330500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-1525100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-1428400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-1714200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-1827400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-1895200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-1787500</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4663,137 +4851,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44324</v>
+      </c>
+      <c r="E80" s="2">
         <v>44240</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44156</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44072</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43960</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43876</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43792</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43708</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43589</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43505</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43421</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43337</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43225</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43141</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43057</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42973</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42861</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42777</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42693</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42609</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>596200</v>
+      </c>
+      <c r="E81" s="3">
         <v>345900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>442400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>740500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>342900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>299300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>350300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>565200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>405900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>294600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>351400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>400300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>366700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>289500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>281000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>433900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>331700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>237100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>278100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>426800</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4816,70 +5013,74 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>94000</v>
+      </c>
+      <c r="E83" s="3">
         <v>94500</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>89600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>125400</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>91700</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>90700</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>89800</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>118800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>84900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>83800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>82500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>108000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>79800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>79400</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>78000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>103100</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>75300</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>72800</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>71800</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>93900</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4940,8 +5141,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5002,8 +5206,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5064,8 +5271,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5126,8 +5336,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5188,70 +5401,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1190500</v>
+      </c>
+      <c r="E89" s="3">
         <v>356400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>683500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>1417000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>651500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>204500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>447100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>841900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>469600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>367900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>449200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>823900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>504000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>187300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>565000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>561400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>445300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>157400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>406500</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>545800</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5274,70 +5493,74 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-373700</v>
+      </c>
+      <c r="E91" s="3">
         <v>400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-2400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-183800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-83300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-89200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-101400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-182200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-118000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-97700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-98200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>326700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-112400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-104500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-110300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-195900</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-141800</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-118200</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-97900</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-377700</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5398,8 +5621,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5460,70 +5686,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-130300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-118200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-110200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-250000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-73000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-84200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-90700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-206600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-109100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-84300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-91900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-219200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-72100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-96000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-134700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-194400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-156500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-103100</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-99700</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-189500</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5546,8 +5778,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5608,8 +5841,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5670,8 +5906,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5732,8 +5971,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5794,190 +6036,202 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1110400</v>
+      </c>
+      <c r="E100" s="3">
         <v>-877400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-663400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>68500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-209400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-127000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-375800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-630600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-381900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-345900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-315600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-607000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-500900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-60600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-463700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-302500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-275300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-38600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-297900</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-363800</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E101" s="3">
         <v>1500</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>3300</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>6100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-12900</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>1500</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>1200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-2500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>5900</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-7400</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>1700</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-1200</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>100</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-2300</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>1600</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>3000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-600</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-3100</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-50500</v>
+      </c>
+      <c r="E102" s="3">
         <v>-637800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-86800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>1241700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>356100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-5100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-18200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>2200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-21600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-56400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>34300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-70100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>30800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-35600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>66100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>16500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>15100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>5800</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-23600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AZO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AZO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="92">
   <si>
     <t>AZO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,290 +665,303 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44436</v>
+      </c>
+      <c r="E7" s="2">
         <v>44324</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44240</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44156</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44072</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43960</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43876</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43792</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43708</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43589</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43505</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43421</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43337</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43225</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43141</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43057</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42973</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42861</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42777</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42693</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42609</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>4913500</v>
+      </c>
+      <c r="E8" s="3">
         <v>3651000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2910800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>3154300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>4546000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2779300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2513700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2793000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3988400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2783000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2450600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2641700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3558800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2660200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2413000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2589100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>3512600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>2619000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>2289200</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>2467800</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>3398800</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>2345600</v>
+      </c>
+      <c r="E9" s="3">
         <v>1736100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1351400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1478600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>2133000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1288700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1147600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1292000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1858000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1291000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1125500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1224300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1650900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1237200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1136000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1223300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1658500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1240600</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1083700</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1166300</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>1604000</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>2567900</v>
+      </c>
+      <c r="E10" s="3">
         <v>1914900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1559400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1675700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>2413000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1490600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1366100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1501000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2130400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1492000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1325100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1417400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1907900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1423000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1277000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1365800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1854100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1378400</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1205500</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1301500</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>1794800</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -972,8 +985,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1037,8 +1051,11 @@
       <c r="W12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1102,28 +1119,31 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E14" s="3">
         <v>6100</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>39900</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>8900</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>75000</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>8</v>
@@ -1137,8 +1157,8 @@
       <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
@@ -1167,8 +1187,11 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1193,47 +1216,50 @@
       <c r="J15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K15" s="3">
+      <c r="K15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L15" s="3">
         <v>118800</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>84900</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>83800</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>82500</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>108000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>79800</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>79400</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>78000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>103100</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>75300</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>72800</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>71800</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>93900</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1254,138 +1280,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3869500</v>
+      </c>
+      <c r="E17" s="3">
         <v>2847500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2429100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2539000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>3527900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2287600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2105700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2293000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3207700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2235500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2050500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2153900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2967500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2114400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2207900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2120400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2805000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2089400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1905300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>2008900</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>2695400</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>1044000</v>
+      </c>
+      <c r="E18" s="3">
         <v>803500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>481700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>615300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>1018100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>491700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>408000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>500000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>780700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>547500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>400100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>487800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>591300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>545800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>205100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>468700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>707600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>529600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>384000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>458900</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>703400</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1409,164 +1442,171 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-58100</v>
+      </c>
+      <c r="E20" s="3">
         <v>-45000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-45300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-45500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-64900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-46500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-43100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-42300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-61200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-43200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-41400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-39000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-54400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-42000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-39300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-38900</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-51400</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-35700</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-34200</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-33300</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-45800</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1115500</v>
+      </c>
+      <c r="E21" s="3">
         <v>852500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>530900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>659300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1078500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>536900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>455600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>547400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>838400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>589200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>442400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>531300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>644900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>583600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>245100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>507900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>759300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>569200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>422600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>497400</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>751500</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E22" s="3">
-        <v>700</v>
+      <c r="E22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F22" s="3">
         <v>700</v>
       </c>
       <c r="G22" s="3">
+        <v>700</v>
+      </c>
+      <c r="H22" s="3">
         <v>800</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>900</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>1300</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>1400</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>8</v>
@@ -1583,8 +1623,8 @@
       <c r="P22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q22" s="3">
-        <v>0</v>
+      <c r="Q22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R22" s="3">
         <v>0</v>
@@ -1604,138 +1644,147 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>985900</v>
+      </c>
+      <c r="E23" s="3">
         <v>758500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>435800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>569000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>952400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>444200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>363600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>456300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>719600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>504300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>358700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>448800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>536900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>503800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>165800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>429900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>656200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>493900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>349800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>425600</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>657600</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>200100</v>
+      </c>
+      <c r="E24" s="3">
         <v>162300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>89800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>126600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>212000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>101300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>64300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>105900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>51300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>201400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>72800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>97400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>156800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>136500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>47600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>148900</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>222300</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>162200</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>112600</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>147500</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>230800</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1799,138 +1848,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>785800</v>
+      </c>
+      <c r="E26" s="3">
         <v>596200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>345900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>442400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>740500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>342900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>299300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>350300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>668300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>302800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>285800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>351400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>380100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>367300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>118100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>281000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>433900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>331700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>237100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>278100</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>426800</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>785800</v>
+      </c>
+      <c r="E27" s="3">
         <v>596200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>345900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>442400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>740500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>342900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>299300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>350300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>668300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>302800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>285800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>351400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>380100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>367300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>118100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>281000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>433900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>331700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>237100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>278100</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>426800</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1994,8 +2052,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2020,29 +2081,29 @@
       <c r="J29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="3">
+      <c r="K29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L29" s="3">
         <v>-103100</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>103100</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>8800</v>
       </c>
-      <c r="N29" s="3" t="s">
+      <c r="O29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>20200</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>-600</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>171400</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>8</v>
@@ -2059,8 +2120,11 @@
       <c r="W29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2124,8 +2188,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2189,138 +2256,147 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>58100</v>
+      </c>
+      <c r="E32" s="3">
         <v>45000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>45300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>45500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>64900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>46500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>43100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>42300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>61200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>43200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>41400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>39000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>54400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>42000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>39300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>38900</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>51400</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>35700</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>34200</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>33300</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>45800</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>785800</v>
+      </c>
+      <c r="E33" s="3">
         <v>596200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>345900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>442400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>740500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>342900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>299300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>350300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>565200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>405900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>294600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>351400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>400300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>366700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>289500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>281000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>433900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>331700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>237100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>278100</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>426800</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2384,143 +2460,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>785800</v>
+      </c>
+      <c r="E35" s="3">
         <v>596200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>345900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>442400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>740500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>342900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>299300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>350300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>565200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>405900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>294600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>351400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>400300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>366700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>289500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>281000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>433900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>331700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>237100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>278100</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>426800</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44436</v>
+      </c>
+      <c r="E38" s="2">
         <v>44324</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44240</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44156</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44072</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43960</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43876</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43792</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43708</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43589</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43505</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43421</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43337</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43225</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43141</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43057</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42973</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42861</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42777</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42693</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42609</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2544,8 +2629,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2569,73 +2655,77 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1171300</v>
+      </c>
+      <c r="E41" s="3">
         <v>975600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1026200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1664000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1750800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>509100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>153000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>158100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>176300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>174100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>195700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>252100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>217800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>218400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>288500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>257700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>293300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>227100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>210600</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>195500</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>189700</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2699,268 +2789,283 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>378400</v>
+      </c>
+      <c r="E43" s="3">
         <v>359700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>352500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>350900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>364800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>266900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>340300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>333200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>309000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>281600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>298300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>275200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>258100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>261300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>282500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>272500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>280700</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>276100</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>246900</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>270800</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>287700</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>4639800</v>
+      </c>
+      <c r="E44" s="3">
         <v>4665500</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>4736800</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>4628300</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>4473300</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>4440600</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>4606200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>4463100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>4319100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>4325700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>4305500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>4090400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>3943700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>4005800</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>4085500</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>4012100</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>3882100</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>3861100</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>3902100</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>3773200</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>3631900</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>225800</v>
+      </c>
+      <c r="E45" s="3">
         <v>223600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>211300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>193500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>223000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>181400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>201100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>202500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>224300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>190000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>197600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>196700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>216200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>185800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>169700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>175000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>155200</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>142900</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>133100</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>129100</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>130200</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>6415300</v>
+      </c>
+      <c r="E46" s="3">
         <v>6224400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>6326800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>6836800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>6811900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>5398000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>5300500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>5157000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>5028700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>4971300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>4997100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>4814300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>4635900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>4671300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>4826300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>4717200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>4611300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>4507200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>4492800</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>4368700</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>4239600</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3024,73 +3129,79 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>7575600</v>
+      </c>
+      <c r="E48" s="3">
         <v>7378000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>7288700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>7193000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>7090900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>6998400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>7055600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>7035800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4398800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>4324900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>4269900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>4228800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>4218400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>4123000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>4081300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>4061000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>4031000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>3904200</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>3803800</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>3750500</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>3733300</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3104,58 +3215,61 @@
         <v>302600</v>
       </c>
       <c r="G49" s="3">
+        <v>302600</v>
+      </c>
+      <c r="H49" s="3">
         <v>304100</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>305400</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>306300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>307300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>308300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>309500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>310500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>311500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>312400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>324800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>326700</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>443000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>444400</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>447000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>448900</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>450900</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>452900</v>
       </c>
     </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3219,8 +3333,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3284,73 +3401,79 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>222600</v>
+      </c>
+      <c r="E52" s="3">
         <v>232900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>241800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>236100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>217000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>200300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>201200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>200400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>160200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>167900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>167600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>169000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>180300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>182700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>169400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>176000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>173100</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>169900</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>157200</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>172500</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>174100</v>
       </c>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3414,73 +3537,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>14516200</v>
+      </c>
+      <c r="E54" s="3">
         <v>14137900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>14160000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>14568600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>14423900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>12902100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>12863700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>12700500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>9895900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>9773700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>9745100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>9523600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>9347000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>9301800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>9403700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>9397100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>9259800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>9028300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>8902600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>8742500</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>8599800</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3504,8 +3633,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3529,99 +3659,103 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>6013900</v>
+      </c>
+      <c r="E57" s="3">
         <v>5778200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>5351100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>5282300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>5156300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>4806300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>4869900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>4922100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>4864900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>4693100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>4669600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>4455300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>4409400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>4296700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>4365700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>4326700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>4168900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>4140700</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>4115000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>4162300</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>4095900</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
+      <c r="D58" s="3">
+        <v>89900</v>
+      </c>
+      <c r="E58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>314500</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>63400</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>67500</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>58000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>58900</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>57800</v>
-      </c>
-      <c r="K58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L58" s="3" t="s">
         <v>8</v>
@@ -3638,8 +3772,8 @@
       <c r="P58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q58" s="3">
-        <v>0</v>
+      <c r="Q58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R58" s="3">
         <v>0</v>
@@ -3659,268 +3793,283 @@
       <c r="W58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1265900</v>
+      </c>
+      <c r="E59" s="3">
         <v>1235000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1138700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1111000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1059300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>904700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>850800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>888300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>647200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>623800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>664700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>712800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>619300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>621700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>581600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>740900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>597400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>652900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>669300</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>687900</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>594500</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>7369800</v>
+      </c>
+      <c r="E60" s="3">
         <v>7013200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>6804300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>6456700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>6283100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>5769100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>5779600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>5868200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>5512100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>5316900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>5334300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>5168200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>5028700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>4918300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>4947200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>5067600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>4766300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>4793500</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>4784300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>4850200</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>4690300</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>5455900</v>
+      </c>
+      <c r="E61" s="3">
         <v>5267900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>5427300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>5684400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>5669200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>5544500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>5588700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>5425200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>5206300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>5151900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>5111200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>5156000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>5005900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>4954700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>5043500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>4983000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>5081200</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>5152800</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>5151900</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>4997400</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>4924100</v>
       </c>
     </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>3488000</v>
+      </c>
+      <c r="E62" s="3">
         <v>3620200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>3451900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>3454500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>3349500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>3221300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>3206700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>3183100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>891300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>894400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>894000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>858000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>832700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>790300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>743500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>871600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>840600</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>796100</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>793900</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>790100</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>772900</v>
       </c>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3984,8 +4133,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4049,8 +4201,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4114,73 +4269,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>16313700</v>
+      </c>
+      <c r="E66" s="3">
         <v>15901300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>15683600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>15595600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>15301800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>14534900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>14574900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>14476500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>11609800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>11363300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>11339500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>11182200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>10867300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>10663400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>10734300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>10922200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>10688200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>10742500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>10730100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>10637800</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>10387300</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4204,8 +4365,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4269,8 +4431,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4334,8 +4499,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4399,8 +4567,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4464,73 +4635,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-419800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-1205600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-1801800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-1008500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-1451000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-2191400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-2534300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-955000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-1305300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-1870600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-2276500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-864200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-1208800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-1623600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-1990300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-1361400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-1642400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-2076300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-2408000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-1324100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-1602200</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4594,8 +4771,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4659,8 +4839,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4724,73 +4907,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-1797500</v>
+      </c>
+      <c r="E76" s="3">
         <v>-1763400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-1523600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-1027000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-878000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-1632700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-1711100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-1776100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-1713900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-1589500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-1594400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-1658600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-1520400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-1361600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-1330500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-1525100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-1428400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-1714200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-1827400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-1895200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-1787500</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4854,143 +5043,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44436</v>
+      </c>
+      <c r="E80" s="2">
         <v>44324</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44240</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44156</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44072</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43960</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43876</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43792</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43708</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43589</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43505</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43421</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43337</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43225</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43141</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43057</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42973</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42861</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42777</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42693</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42609</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>785800</v>
+      </c>
+      <c r="E81" s="3">
         <v>596200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>345900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>442400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>740500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>342900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>299300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>350300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>565200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>405900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>294600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>351400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>400300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>366700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>289500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>281000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>433900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>331700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>237100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>278100</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>426800</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5014,73 +5212,77 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>129600</v>
+      </c>
+      <c r="E83" s="3">
         <v>94000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>94500</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>89600</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>125400</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>91700</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>90700</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>89800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>118800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>84900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>83800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>82500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>108000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>79800</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>79400</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>78000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>103100</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>75300</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>72800</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>71800</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>93900</v>
       </c>
     </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5144,8 +5346,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5209,8 +5414,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5274,8 +5482,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5339,8 +5550,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5404,73 +5618,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1288200</v>
+      </c>
+      <c r="E89" s="3">
         <v>1190500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>356400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>683500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>1417000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>651500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>204500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>447100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>841900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>469600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>367900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>449200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>823900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>504000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>187300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>565000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>561400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>445300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>157400</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>406500</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>545800</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5494,73 +5714,77 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-246100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-373700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-2400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-183800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-83300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-89200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-101400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-182200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-118000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-97700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-98200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>326700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-112400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-104500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-110300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-195900</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-141800</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-118200</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-97900</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-377700</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5624,8 +5848,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5689,73 +5916,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-243100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-130300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-118200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-110200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-250000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-73000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-84200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-90700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-206600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-109100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-84300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-91900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-219200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-72100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-96000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-134700</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-194400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-156500</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-103100</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-99700</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-189500</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5779,8 +6012,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5844,8 +6078,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5909,8 +6146,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5974,8 +6214,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6039,199 +6282,211 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-849200</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1110400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-877400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-663400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>68500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-209400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-127000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-375800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-630600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-381900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-345900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-315600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-607000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-500900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-60600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-463700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-302500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-275300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-38600</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-297900</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-363800</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E101" s="3">
         <v>-400</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>1500</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>3300</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>6100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-12900</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>1500</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>1200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-2500</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>5900</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-7400</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>1700</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>100</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-2300</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>1600</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>3000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-600</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-3100</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>195700</v>
+      </c>
+      <c r="E102" s="3">
         <v>-50500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-637800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-86800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>1241700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>356100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-5100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-18200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>2200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-21600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-56400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>34300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-70100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>30800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-35600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>66100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>16500</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>15100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>5800</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-23600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AZO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AZO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="92">
   <si>
     <t>AZO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,303 +665,315 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44520</v>
+      </c>
+      <c r="E7" s="2">
         <v>44436</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44324</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44240</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44156</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44072</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43960</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43876</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43792</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43708</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43589</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43505</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43421</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43337</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43225</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43141</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43057</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42973</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42861</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42777</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42693</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42609</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>3668900</v>
+      </c>
+      <c r="E8" s="3">
         <v>4913500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>3651000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2910800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>3154300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>4546000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2779300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2513700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2793000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3988400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2783000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2450600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2641700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3558800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2660200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2413000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2589100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>3512600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>2619000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>2289200</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>2467800</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>3398800</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1743700</v>
+      </c>
+      <c r="E9" s="3">
         <v>2345600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1736100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1351400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1478600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>2133000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1288700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1147600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1292000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1858000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1291000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1125500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1224300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1650900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1237200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1136000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1223300</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1658500</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1240600</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1083700</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>1166300</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>1604000</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1925200</v>
+      </c>
+      <c r="E10" s="3">
         <v>2567900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1914900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1559400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1675700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>2413000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1490600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1366100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1501000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2130400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1492000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1325100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1417400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1907900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1423000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1277000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1365800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1854100</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1378400</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1205500</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>1301500</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>1794800</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -986,8 +998,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1054,8 +1067,11 @@
       <c r="X12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1122,32 +1138,35 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="3">
         <v>-3000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>6100</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>39900</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>8900</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>75000</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
@@ -1160,8 +1179,8 @@
       <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
@@ -1190,8 +1209,11 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1219,47 +1241,50 @@
       <c r="K15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L15" s="3">
+      <c r="L15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M15" s="3">
         <v>118800</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>84900</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>83800</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>82500</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>108000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>79800</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>79400</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>78000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>103100</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>75300</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>72800</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>71800</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>93900</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1281,144 +1306,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2914400</v>
+      </c>
+      <c r="E17" s="3">
         <v>3869500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2847500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2429100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2539000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>3527900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2287600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2105700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2293000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3207700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2235500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2050500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2153900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2967500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2114400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2207900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2120400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2805000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2089400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1905300</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>2008900</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>2695400</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>754500</v>
+      </c>
+      <c r="E18" s="3">
         <v>1044000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>803500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>481700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>615300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>1018100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>491700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>408000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>500000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>780700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>547500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>400100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>487800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>591300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>545800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>205100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>468700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>707600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>529600</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>384000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>458900</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>703400</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1443,144 +1475,151 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-43300</v>
+      </c>
+      <c r="E20" s="3">
         <v>-58100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-45000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-45300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-45500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-64900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-46500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-43100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-42300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-61200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-43200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-41400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-39000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-54400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-42000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-39300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-38900</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-51400</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-35700</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-34200</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-33300</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-45800</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>810800</v>
+      </c>
+      <c r="E21" s="3">
         <v>1115500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>852500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>530900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>659300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1078500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>536900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>455600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>547400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>838400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>589200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>442400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>531300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>644900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>583600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>245100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>507900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>759300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>569200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>422600</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>497400</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>751500</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1590,27 +1629,27 @@
       <c r="E22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F22" s="3">
-        <v>700</v>
+      <c r="F22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G22" s="3">
         <v>700</v>
       </c>
       <c r="H22" s="3">
+        <v>700</v>
+      </c>
+      <c r="I22" s="3">
         <v>800</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>900</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>1300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>1400</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M22" s="3" t="s">
         <v>8</v>
       </c>
@@ -1626,8 +1665,8 @@
       <c r="Q22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R22" s="3">
-        <v>0</v>
+      <c r="R22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S22" s="3">
         <v>0</v>
@@ -1647,144 +1686,153 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>711200</v>
+      </c>
+      <c r="E23" s="3">
         <v>985900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>758500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>435800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>569000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>952400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>444200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>363600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>456300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>719600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>504300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>358700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>448800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>536900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>503800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>165800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>429900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>656200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>493900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>349800</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>425600</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>657600</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>156000</v>
+      </c>
+      <c r="E24" s="3">
         <v>200100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>162300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>89800</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>126600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>212000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>101300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>64300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>105900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>51300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>201400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>72800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>97400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>156800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>136500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>47600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>148900</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>222300</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>162200</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>112600</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>147500</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>230800</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1851,144 +1899,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>555200</v>
+      </c>
+      <c r="E26" s="3">
         <v>785800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>596200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>345900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>442400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>740500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>342900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>299300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>350300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>668300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>302800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>285800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>351400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>380100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>367300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>118100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>281000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>433900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>331700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>237100</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>278100</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>426800</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>555200</v>
+      </c>
+      <c r="E27" s="3">
         <v>785800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>596200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>345900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>442400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>740500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>342900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>299300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>350300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>668300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>302800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>285800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>351400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>380100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>367300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>118100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>281000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>433900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>331700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>237100</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>278100</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>426800</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2055,8 +2112,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2084,30 +2144,30 @@
       <c r="K29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L29" s="3">
+      <c r="L29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M29" s="3">
         <v>-103100</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>103100</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>8800</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P29" s="3">
+      <c r="P29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q29" s="3">
         <v>20200</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>-600</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>171400</v>
       </c>
-      <c r="S29" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T29" s="3" t="s">
         <v>8</v>
       </c>
@@ -2123,8 +2183,11 @@
       <c r="X29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2191,8 +2254,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2259,144 +2325,153 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>43300</v>
+      </c>
+      <c r="E32" s="3">
         <v>58100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>45000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>45300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>45500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>64900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>46500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>43100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>42300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>61200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>43200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>41400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>39000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>54400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>42000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>39300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>38900</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>51400</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>35700</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>34200</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>33300</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>45800</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>555200</v>
+      </c>
+      <c r="E33" s="3">
         <v>785800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>596200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>345900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>442400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>740500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>342900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>299300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>350300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>565200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>405900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>294600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>351400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>400300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>366700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>289500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>281000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>433900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>331700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>237100</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>278100</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>426800</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2463,149 +2538,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>555200</v>
+      </c>
+      <c r="E35" s="3">
         <v>785800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>596200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>345900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>442400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>740500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>342900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>299300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>350300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>565200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>405900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>294600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>351400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>400300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>366700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>289500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>281000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>433900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>331700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>237100</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>278100</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>426800</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44520</v>
+      </c>
+      <c r="E38" s="2">
         <v>44436</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44324</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44240</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44156</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44072</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43960</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43876</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43792</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43708</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43589</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43505</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43421</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43337</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43225</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43141</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43057</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42973</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42861</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42777</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42693</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42609</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2630,8 +2714,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2656,76 +2741,80 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>961100</v>
+      </c>
+      <c r="E41" s="3">
         <v>1171300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>975600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1026200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1664000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1750800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>509100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>153000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>158100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>176300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>174100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>195700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>252100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>217800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>218400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>288500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>257700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>293300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>227100</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>210600</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>195500</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>189700</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2792,280 +2881,295 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>379300</v>
+      </c>
+      <c r="E43" s="3">
         <v>378400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>359700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>352500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>350900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>364800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>266900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>340300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>333200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>309000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>281600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>298300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>275200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>258100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>261300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>282500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>272500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>280700</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>276100</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>246900</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>270800</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>287700</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>4768300</v>
+      </c>
+      <c r="E44" s="3">
         <v>4639800</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>4665500</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>4736800</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>4628300</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>4473300</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>4440600</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>4606200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>4463100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>4319100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>4325700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>4305500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>4090400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>3943700</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>4005800</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>4085500</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>4012100</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>3882100</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>3861100</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>3902100</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>3773200</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>3631900</v>
       </c>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>240500</v>
+      </c>
+      <c r="E45" s="3">
         <v>225800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>223600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>211300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>193500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>223000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>181400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>201100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>202500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>224300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>190000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>197600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>196700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>216200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>185800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>169700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>175000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>155200</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>142900</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>133100</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>129100</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>130200</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>6349100</v>
+      </c>
+      <c r="E46" s="3">
         <v>6415300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>6224400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>6326800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>6836800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>6811900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>5398000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>5300500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>5157000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>5028700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>4971300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>4997100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>4814300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>4635900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>4671300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>4826300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>4717200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>4611300</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>4507200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>4492800</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>4368700</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>4239600</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3132,76 +3236,82 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>7575500</v>
+      </c>
+      <c r="E48" s="3">
         <v>7575600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>7378000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>7288700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>7193000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>7090900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>6998400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>7055600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>7035800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>4398800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>4324900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>4269900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>4228800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>4218400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>4123000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>4081300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>4061000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>4031000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>3904200</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>3803800</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>3750500</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>3733300</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3218,58 +3328,61 @@
         <v>302600</v>
       </c>
       <c r="H49" s="3">
+        <v>302600</v>
+      </c>
+      <c r="I49" s="3">
         <v>304100</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>305400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>306300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>307300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>308300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>309500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>310500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>311500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>312400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>324800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>326700</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>443000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>444400</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>447000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>448900</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>450900</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>452900</v>
       </c>
     </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3336,8 +3449,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3404,76 +3520,82 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>233700</v>
+      </c>
+      <c r="E52" s="3">
         <v>222600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>232900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>241800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>236100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>217000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>200300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>201200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>200400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>160200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>167900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>167600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>169000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>180300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>182700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>169400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>176000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>173100</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>169900</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>157200</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>172500</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>174100</v>
       </c>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3540,76 +3662,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>14460900</v>
+      </c>
+      <c r="E54" s="3">
         <v>14516200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>14137900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>14160000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>14568600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>14423900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>12902100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>12863700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>12700500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>9895900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>9773700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>9745100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>9523600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>9347000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>9301800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>9403700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>9397100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>9259800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>9028300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>8902600</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>8742500</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>8599800</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3634,8 +3762,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3660,106 +3789,110 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>6171300</v>
+      </c>
+      <c r="E57" s="3">
         <v>6013900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>5778200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>5351100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>5282300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>5156300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>4806300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>4869900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>4922100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>4864900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>4693100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>4669600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>4455300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>4409400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>4296700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>4365700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>4326700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>4168900</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>4140700</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>4115000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>4162300</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>4095900</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>500000</v>
+      </c>
+      <c r="E58" s="3">
         <v>89900</v>
       </c>
-      <c r="E58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F58" s="3">
+      <c r="F58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G58" s="3">
         <v>314500</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>63400</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>67500</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>58000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>58900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>57800</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M58" s="3" t="s">
         <v>8</v>
       </c>
@@ -3775,8 +3908,8 @@
       <c r="Q58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R58" s="3">
-        <v>0</v>
+      <c r="R58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S58" s="3">
         <v>0</v>
@@ -3796,280 +3929,295 @@
       <c r="X58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1416500</v>
+      </c>
+      <c r="E59" s="3">
         <v>1265900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1235000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1138700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1111000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1059300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>904700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>850800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>888300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>647200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>623800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>664700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>712800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>619300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>621700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>581600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>740900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>597400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>652900</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>669300</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>687900</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>594500</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>8087900</v>
+      </c>
+      <c r="E60" s="3">
         <v>7369800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>7013200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>6804300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>6456700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>6283100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>5769100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>5779600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>5868200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>5512100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>5316900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>5334300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>5168200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>5028700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>4918300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>4947200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>5067600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>4766300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>4793500</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>4784300</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>4850200</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>4690300</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>4771300</v>
+      </c>
+      <c r="E61" s="3">
         <v>5455900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>5267900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>5427300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>5684400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>5669200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>5544500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>5588700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>5425200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>5206300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>5151900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>5111200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>5156000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>5005900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>4954700</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>5043500</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>4983000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>5081200</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>5152800</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>5151900</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>4997400</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>4924100</v>
       </c>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>3726500</v>
+      </c>
+      <c r="E62" s="3">
         <v>3488000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>3620200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>3451900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>3454500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>3349500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>3221300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>3206700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>3183100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>891300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>894400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>894000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>858000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>832700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>790300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>743500</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>871600</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>840600</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>796100</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>793900</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>790100</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>772900</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4136,8 +4284,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4204,8 +4355,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4272,76 +4426,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>16585700</v>
+      </c>
+      <c r="E66" s="3">
         <v>16313700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>15901300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>15683600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>15595600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>15301800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>14534900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>14574900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>14476500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>11609800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>11363300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>11339500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>11182200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>10867300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>10663400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>10734300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>10922200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>10688200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>10742500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>10730100</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>10637800</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>10387300</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4366,8 +4526,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4434,8 +4595,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4502,8 +4666,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4570,8 +4737,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4638,76 +4808,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>135400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-419800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-1205600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-1801800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-1008500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-1451000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-2191400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-2534300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-955000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-1305300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-1870600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-2276500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-864200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-1208800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-1623600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-1990300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-1361400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-1642400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-2076300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-2408000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-1324100</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-1602200</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4774,8 +4950,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4842,8 +5021,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4910,76 +5092,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-2124800</v>
+      </c>
+      <c r="E76" s="3">
         <v>-1797500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-1763400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-1523600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-1027000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-878000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-1632700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-1711100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-1776100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-1713900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-1589500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-1594400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-1658600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-1520400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-1361600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-1330500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-1525100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-1428400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-1714200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-1827400</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-1895200</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>-1787500</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5046,149 +5234,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44520</v>
+      </c>
+      <c r="E80" s="2">
         <v>44436</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44324</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44240</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44156</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44072</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43960</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43876</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43792</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43708</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43589</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43505</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43421</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43337</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43225</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43141</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43057</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42973</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42861</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42777</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42693</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42609</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>555200</v>
+      </c>
+      <c r="E81" s="3">
         <v>785800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>596200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>345900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>442400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>740500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>342900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>299300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>350300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>565200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>405900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>294600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>351400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>400300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>366700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>289500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>281000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>433900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>331700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>237100</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>278100</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>426800</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5213,76 +5410,80 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>99600</v>
+      </c>
+      <c r="E83" s="3">
         <v>129600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>94000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>94500</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>89600</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>125400</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>91700</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>90700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>89800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>118800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>84900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>83800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>82500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>108000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>79800</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>79400</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>78000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>103100</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>75300</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>72800</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>71800</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>93900</v>
       </c>
     </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5349,8 +5550,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5417,8 +5621,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5485,8 +5692,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5553,8 +5763,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5621,76 +5834,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>777900</v>
+      </c>
+      <c r="E89" s="3">
         <v>1288200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>1190500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>356400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>683500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1417000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>651500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>204500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>447100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>841900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>469600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>367900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>449200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>823900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>504000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>187300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>565000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>561400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>445300</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>157400</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>406500</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>545800</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5715,76 +5934,80 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-102300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-246100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-373700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-2400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-183800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-83300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-89200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-101400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-182200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-118000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-97700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-98200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>326700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-112400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-104500</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-110300</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-195900</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-141800</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-118200</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-97900</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-377700</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5851,8 +6074,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5919,76 +6145,82 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-91000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-243100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-130300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-118200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-110200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-250000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-73000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-84200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-90700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-206600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-109100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-84300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-91900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-219200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-72100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-96000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-134700</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-194400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-156500</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-103100</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-99700</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-189500</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6013,8 +6245,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6081,8 +6314,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6149,8 +6385,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6217,8 +6456,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6285,208 +6527,220 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-895900</v>
+      </c>
+      <c r="E100" s="3">
         <v>-849200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-1110400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-877400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-663400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>68500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-209400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-127000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-375800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-630600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-381900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-345900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-315600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-607000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-500900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-60600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-463700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-302500</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-275300</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-38600</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-297900</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-363800</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E101" s="3">
         <v>-200</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-400</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>1500</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>3300</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>6100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-12900</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>1500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>1200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-2500</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>5900</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-7400</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>1700</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-1200</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>100</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-2300</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>1600</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>3000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-600</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-3100</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-210200</v>
+      </c>
+      <c r="E102" s="3">
         <v>195700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-50500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-637800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-86800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>1241700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>356100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-5100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-18200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>2200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-21600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-56400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>34300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-70100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>30800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-35600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>66100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>16500</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>15100</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>5800</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-23600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AZO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AZO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="92">
   <si>
     <t>AZO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,315 +665,328 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44604</v>
+      </c>
+      <c r="E7" s="2">
         <v>44520</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44436</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44324</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44240</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44156</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44072</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43960</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43876</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43792</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43708</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43589</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43505</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43421</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43337</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43225</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43141</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43057</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42973</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42861</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42777</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42693</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42609</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>3369800</v>
+      </c>
+      <c r="E8" s="3">
         <v>3668900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>4913500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>3651000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2910800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>3154300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>4546000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2779300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2513700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2793000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3988400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2783000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2450600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2641700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>3558800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2660200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2413000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>2589100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>3512600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>2619000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>2289200</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>2467800</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>3398800</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1584500</v>
+      </c>
+      <c r="E9" s="3">
         <v>1743700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>2345600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1736100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1351400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1478600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>2133000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1288700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1147600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1292000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1858000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1291000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1125500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1224300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1650900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1237200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1136000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1223300</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1658500</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1240600</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>1083700</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>1166300</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>1604000</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1785300</v>
+      </c>
+      <c r="E10" s="3">
         <v>1925200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>2567900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1914900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1559400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1675700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>2413000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1490600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1366100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1501000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2130400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1492000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1325100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1417400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1907900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1423000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1277000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1365800</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1854100</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1378400</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>1205500</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>1301500</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>1794800</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -999,8 +1012,9 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1070,8 +1084,11 @@
       <c r="Y12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1141,35 +1158,38 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="3">
         <v>-3000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>6100</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>39900</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>8900</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>75000</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
@@ -1182,8 +1202,8 @@
       <c r="O14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="P14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
@@ -1212,8 +1232,11 @@
       <c r="Y14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1244,47 +1267,50 @@
       <c r="L15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M15" s="3">
+      <c r="M15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N15" s="3">
         <v>118800</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>84900</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>83800</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>82500</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>108000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>79800</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>79400</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>78000</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>103100</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>75300</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>72800</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>71800</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>93900</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1307,150 +1333,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2743000</v>
+      </c>
+      <c r="E17" s="3">
         <v>2914400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>3869500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2847500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2429100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2539000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>3527900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2287600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2105700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2293000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3207700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2235500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2050500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2153900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2967500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2114400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2207900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2120400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2805000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>2089400</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1905300</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>2008900</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>2695400</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>626800</v>
+      </c>
+      <c r="E18" s="3">
         <v>754500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>1044000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>803500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>481700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>615300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>1018100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>491700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>408000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>500000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>780700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>547500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>400100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>487800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>591300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>545800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>205100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>468700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>707600</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>529600</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>384000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>458900</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>703400</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1476,150 +1509,157 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-42500</v>
+      </c>
+      <c r="E20" s="3">
         <v>-43300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-58100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-45000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-45300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-45500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-64900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-46500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-43100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-42300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-61200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-43200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-41400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-39000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-54400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-42000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-39300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-38900</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-51400</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-35700</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-34200</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-33300</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-45800</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>684000</v>
+      </c>
+      <c r="E21" s="3">
         <v>810800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>1115500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>852500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>530900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>659300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1078500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>536900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>455600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>547400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>838400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>589200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>442400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>531300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>644900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>583600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>245100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>507900</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>759300</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>569200</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>422600</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>497400</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>751500</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1632,27 +1672,27 @@
       <c r="F22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G22" s="3">
-        <v>700</v>
+      <c r="G22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H22" s="3">
         <v>700</v>
       </c>
       <c r="I22" s="3">
+        <v>700</v>
+      </c>
+      <c r="J22" s="3">
         <v>800</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>1300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>1400</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N22" s="3" t="s">
         <v>8</v>
       </c>
@@ -1668,8 +1708,8 @@
       <c r="R22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S22" s="3">
-        <v>0</v>
+      <c r="S22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T22" s="3">
         <v>0</v>
@@ -1689,150 +1729,159 @@
       <c r="Y22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>584300</v>
+      </c>
+      <c r="E23" s="3">
         <v>711200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>985900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>758500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>435800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>569000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>952400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>444200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>363600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>456300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>719600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>504300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>358700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>448800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>536900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>503800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>165800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>429900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>656200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>493900</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>349800</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>425600</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>657600</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>112500</v>
+      </c>
+      <c r="E24" s="3">
         <v>156000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>200100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>162300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>89800</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>126600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>212000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>101300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>64300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>105900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>51300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>201400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>72800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>97400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>156800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>136500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>47600</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>148900</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>222300</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>162200</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>112600</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>147500</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>230800</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1902,150 +1951,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>471800</v>
+      </c>
+      <c r="E26" s="3">
         <v>555200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>785800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>596200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>345900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>442400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>740500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>342900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>299300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>350300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>668300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>302800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>285800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>351400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>380100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>367300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>118100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>281000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>433900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>331700</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>237100</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>278100</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>426800</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>471800</v>
+      </c>
+      <c r="E27" s="3">
         <v>555200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>785800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>596200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>345900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>442400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>740500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>342900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>299300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>350300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>668300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>302800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>285800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>351400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>380100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>367300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>118100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>281000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>433900</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>331700</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>237100</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>278100</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>426800</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2115,8 +2173,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2147,30 +2208,30 @@
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3">
+      <c r="M29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N29" s="3">
         <v>-103100</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>103100</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>8800</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q29" s="3">
+      <c r="Q29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R29" s="3">
         <v>20200</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>-600</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>171400</v>
       </c>
-      <c r="T29" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="U29" s="3" t="s">
         <v>8</v>
       </c>
@@ -2186,8 +2247,11 @@
       <c r="Y29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2257,8 +2321,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2328,150 +2395,159 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>42500</v>
+      </c>
+      <c r="E32" s="3">
         <v>43300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>58100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>45000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>45300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>45500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>64900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>46500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>43100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>42300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>61200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>43200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>41400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>39000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>54400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>42000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>39300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>38900</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>51400</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>35700</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>34200</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>33300</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>45800</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>471800</v>
+      </c>
+      <c r="E33" s="3">
         <v>555200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>785800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>596200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>345900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>442400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>740500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>342900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>299300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>350300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>565200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>405900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>294600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>351400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>400300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>366700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>289500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>281000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>433900</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>331700</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>237100</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>278100</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>426800</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2541,155 +2617,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>471800</v>
+      </c>
+      <c r="E35" s="3">
         <v>555200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>785800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>596200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>345900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>442400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>740500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>342900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>299300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>350300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>565200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>405900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>294600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>351400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>400300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>366700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>289500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>281000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>433900</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>331700</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>237100</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>278100</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>426800</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44604</v>
+      </c>
+      <c r="E38" s="2">
         <v>44520</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44436</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44324</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44240</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44156</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44072</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43960</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43876</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43792</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43708</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43589</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43505</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43421</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43337</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43225</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43141</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43057</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42973</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42861</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42777</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42693</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42609</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2715,8 +2800,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2742,79 +2828,83 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>239400</v>
+      </c>
+      <c r="E41" s="3">
         <v>961100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1171300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>975600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1026200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1664000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1750800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>509100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>153000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>158100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>176300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>174100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>195700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>252100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>217800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>218400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>288500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>257700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>293300</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>227100</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>210600</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>195500</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>189700</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2884,292 +2974,307 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>405600</v>
+      </c>
+      <c r="E43" s="3">
         <v>379300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>378400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>359700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>352500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>350900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>364800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>266900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>340300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>333200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>309000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>281600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>298300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>275200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>258100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>261300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>282500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>272500</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>280700</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>276100</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>246900</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>270800</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>287700</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>5031200</v>
+      </c>
+      <c r="E44" s="3">
         <v>4768300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>4639800</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>4665500</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>4736800</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>4628300</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>4473300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>4440600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>4606200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>4463100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>4319100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>4325700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>4305500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>4090400</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>3943700</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>4005800</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>4085500</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>4012100</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>3882100</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>3861100</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>3902100</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>3773200</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>3631900</v>
       </c>
     </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>227500</v>
+      </c>
+      <c r="E45" s="3">
         <v>240500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>225800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>223600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>211300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>193500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>223000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>181400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>201100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>202500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>224300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>190000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>197600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>196700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>216200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>185800</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>169700</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>175000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>155200</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>142900</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>133100</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>129100</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>130200</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>5903800</v>
+      </c>
+      <c r="E46" s="3">
         <v>6349100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>6415300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>6224400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>6326800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>6836800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>6811900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>5398000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>5300500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>5157000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>5028700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>4971300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>4997100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>4814300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>4635900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>4671300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>4826300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>4717200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>4611300</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>4507200</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>4492800</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>4368700</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>4239600</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3239,79 +3344,85 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>7622900</v>
+      </c>
+      <c r="E48" s="3">
         <v>7575500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>7575600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>7378000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>7288700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>7193000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>7090900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>6998400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>7055600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>7035800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>4398800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>4324900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>4269900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>4228800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>4218400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>4123000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>4081300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>4061000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>4031000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>3904200</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>3803800</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>3750500</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>3733300</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3331,58 +3442,61 @@
         <v>302600</v>
       </c>
       <c r="I49" s="3">
+        <v>302600</v>
+      </c>
+      <c r="J49" s="3">
         <v>304100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>305400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>306300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>307300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>308300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>309500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>310500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>311500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>312400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>324800</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>326700</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>443000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>444400</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>447000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>448900</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>450900</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>452900</v>
       </c>
     </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3452,8 +3566,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3523,79 +3640,85 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>249200</v>
+      </c>
+      <c r="E52" s="3">
         <v>233700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>222600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>232900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>241800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>236100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>217000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>200300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>201200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>200400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>160200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>167900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>167600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>169000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>180300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>182700</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>169400</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>176000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>173100</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>169900</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>157200</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>172500</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>174100</v>
       </c>
     </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3665,79 +3788,85 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>14078500</v>
+      </c>
+      <c r="E54" s="3">
         <v>14460900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>14516200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>14137900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>14160000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>14568600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>14423900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>12902100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>12863700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>12700500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>9895900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>9773700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>9745100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>9523600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>9347000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>9301800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>9403700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>9397100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>9259800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>9028300</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>8902600</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>8742500</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>8599800</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3763,8 +3892,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3790,112 +3920,116 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>6378600</v>
+      </c>
+      <c r="E57" s="3">
         <v>6171300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>6013900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>5778200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>5351100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>5282300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>5156300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>4806300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>4869900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>4922100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>4864900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>4693100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>4669600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>4455300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>4409400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>4296700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>4365700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>4326700</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>4168900</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>4140700</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>4115000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>4162300</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>4095900</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
+      <c r="D58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E58" s="3">
         <v>500000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>89900</v>
       </c>
-      <c r="F58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G58" s="3">
+      <c r="G58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H58" s="3">
         <v>314500</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>63400</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>67500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>58000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>58900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>57800</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N58" s="3" t="s">
         <v>8</v>
       </c>
@@ -3911,8 +4045,8 @@
       <c r="R58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S58" s="3">
-        <v>0</v>
+      <c r="S58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T58" s="3">
         <v>0</v>
@@ -3932,292 +4066,307 @@
       <c r="Y58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1306000</v>
+      </c>
+      <c r="E59" s="3">
         <v>1416500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1265900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1235000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1138700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1111000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1059300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>904700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>850800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>888300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>647200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>623800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>664700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>712800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>619300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>621700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>581600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>740900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>597400</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>652900</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>669300</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>687900</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>594500</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>7684600</v>
+      </c>
+      <c r="E60" s="3">
         <v>8087900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>7369800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>7013200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>6804300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>6456700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>6283100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>5769100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>5779600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>5868200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>5512100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>5316900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>5334300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>5168200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>5028700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>4918300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>4947200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>5067600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>4766300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>4793500</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>4784300</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>4850200</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>4690300</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>5840900</v>
+      </c>
+      <c r="E61" s="3">
         <v>4771300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>5455900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>5267900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>5427300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>5684400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>5669200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>5544500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>5588700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>5425200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>5206300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>5151900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>5111200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>5156000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>5005900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>4954700</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>5043500</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>4983000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>5081200</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>5152800</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>5151900</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>4997400</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>4924100</v>
       </c>
     </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>3690400</v>
+      </c>
+      <c r="E62" s="3">
         <v>3726500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>3488000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>3620200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>3451900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>3454500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>3349500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>3221300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>3206700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>3183100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>891300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>894400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>894000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>858000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>832700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>790300</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>743500</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>871600</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>840600</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>796100</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>793900</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>790100</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>772900</v>
       </c>
     </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4287,8 +4436,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4358,8 +4510,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4429,79 +4584,85 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>17216000</v>
+      </c>
+      <c r="E66" s="3">
         <v>16585700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>16313700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>15901300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>15683600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>15595600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>15301800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>14534900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>14574900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>14476500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>11609800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>11363300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>11339500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>11182200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>10867300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>10663400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>10734300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>10922200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>10688200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>10742500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>10730100</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>10637800</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>10387300</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4527,8 +4688,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4598,8 +4760,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4669,8 +4834,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4740,8 +4908,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4811,79 +4982,85 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-2730700</v>
+      </c>
+      <c r="E72" s="3">
         <v>135400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-419800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-1205600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-1801800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-1008500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-1451000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-2191400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-2534300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-955000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-1305300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-1870600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-2276500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-864200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-1208800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-1623600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-1990300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-1361400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-1642400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-2076300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-2408000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-1324100</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-1602200</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4953,8 +5130,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5024,8 +5204,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5095,79 +5278,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-3137500</v>
+      </c>
+      <c r="E76" s="3">
         <v>-2124800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-1797500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-1763400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-1523600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-1027000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-878000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-1632700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-1711100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-1776100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-1713900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-1589500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-1594400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-1658600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-1520400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-1361600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-1330500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-1525100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-1428400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-1714200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-1827400</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>-1895200</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>-1787500</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5237,155 +5426,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44604</v>
+      </c>
+      <c r="E80" s="2">
         <v>44520</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44436</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44324</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44240</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44156</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44072</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43960</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43876</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43792</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43708</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43589</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43505</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43421</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43337</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43225</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43141</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43057</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42973</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42861</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42777</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42693</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42609</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>471800</v>
+      </c>
+      <c r="E81" s="3">
         <v>555200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>785800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>596200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>345900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>442400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>740500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>342900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>299300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>350300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>565200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>405900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>294600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>351400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>400300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>366700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>289500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>281000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>433900</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>331700</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>237100</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>278100</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>426800</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5411,79 +5609,83 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>99700</v>
+      </c>
+      <c r="E83" s="3">
         <v>99600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>129600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>94000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>94500</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>89600</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>125400</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>91700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>90700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>89800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>118800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>84900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>83800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>82500</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>108000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>79800</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>79400</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>78000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>103100</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>75300</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>72800</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>71800</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>93900</v>
       </c>
     </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5553,8 +5755,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5624,8 +5829,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5695,8 +5903,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5766,8 +5977,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5837,79 +6051,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>361800</v>
+      </c>
+      <c r="E89" s="3">
         <v>777900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>1288200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>1190500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>356400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>683500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1417000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>651500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>204500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>447100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>841900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>469600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>367900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>449200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>823900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>504000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>187300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>565000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>561400</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>445300</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>157400</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>406500</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>545800</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5935,79 +6155,83 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-105900</v>
+      </c>
+      <c r="E91" s="3">
         <v>-102300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-246100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-373700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-2400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-183800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-83300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-89200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-101400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-182200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-118000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-97700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-98200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>326700</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-112400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-104500</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-110300</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-195900</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-141800</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-118200</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-97900</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-377700</v>
       </c>
     </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6077,8 +6301,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6148,79 +6375,85 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-120400</v>
+      </c>
+      <c r="E94" s="3">
         <v>-91000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-243100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-130300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-118200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-110200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-250000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-73000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-84200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-90700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-206600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-109100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-84300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-91900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-219200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-72100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-96000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-134700</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-194400</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-156500</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-103100</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-99700</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-189500</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6246,8 +6479,9 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6317,8 +6551,11 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6388,8 +6625,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6459,8 +6699,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6530,217 +6773,229 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-964000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-895900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-849200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-1110400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-877400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-663400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>68500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-209400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-127000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-375800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-630600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-381900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-345900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-315600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-607000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-500900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-60600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-463700</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-302500</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-275300</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-38600</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-297900</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-363800</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>800</v>
+      </c>
+      <c r="E101" s="3">
         <v>-1200</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-200</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-400</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>1500</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>3300</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>6100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-12900</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>1500</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>1200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-2500</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>5900</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-7400</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>1700</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-1200</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>100</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-2300</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>1600</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>3000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-600</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-3100</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-721700</v>
+      </c>
+      <c r="E102" s="3">
         <v>-210200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>195700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-50500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-637800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-86800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>1241700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>356100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-5100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-18200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>2200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-21600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-56400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>34300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-70100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>30800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-35600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>66100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>16500</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>15100</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>5800</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-23600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AZO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AZO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="92">
   <si>
     <t>AZO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,328 +665,340 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44688</v>
+      </c>
+      <c r="E7" s="2">
         <v>44604</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44520</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44436</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44324</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44240</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44156</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44072</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43960</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43876</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43792</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43708</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43589</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43505</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43421</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43337</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43225</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43141</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43057</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42973</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42861</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42777</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42693</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42609</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>3865200</v>
+      </c>
+      <c r="E8" s="3">
         <v>3369800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>3668900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>4913500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>3651000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2910800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>3154300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>4546000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2779300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2513700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2793000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3988400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2783000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2450600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2641700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>3558800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2660200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>2413000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>2589100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>3512600</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>2619000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>2289200</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>2467800</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>3398800</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1858800</v>
+      </c>
+      <c r="E9" s="3">
         <v>1584500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1743700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>2345600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1736100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1351400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1478600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>2133000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1288700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1147600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1292000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1858000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1291000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1125500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1224300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1650900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1237200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1136000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1223300</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1658500</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>1240600</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>1083700</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>1166300</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>1604000</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>2006400</v>
+      </c>
+      <c r="E10" s="3">
         <v>1785300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1925200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>2567900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1914900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1559400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1675700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>2413000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1490600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1366100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1501000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>2130400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1492000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1325100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1417400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1907900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1423000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1277000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1365800</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1854100</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>1378400</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>1205500</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>1301500</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>1794800</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1013,8 +1025,9 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1087,8 +1100,11 @@
       <c r="Z12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1161,8 +1177,11 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1172,27 +1191,27 @@
       <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="3">
         <v>-3000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>6100</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>39900</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>8900</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>75000</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
@@ -1205,8 +1224,8 @@
       <c r="P14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
+      <c r="Q14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R14" s="3">
         <v>0</v>
@@ -1235,8 +1254,11 @@
       <c r="Z14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1270,47 +1292,50 @@
       <c r="M15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N15" s="3">
+      <c r="N15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O15" s="3">
         <v>118800</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>84900</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>83800</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>82500</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>108000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>79800</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>79400</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>78000</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>103100</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>75300</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>72800</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>71800</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>93900</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1334,156 +1359,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3079600</v>
+      </c>
+      <c r="E17" s="3">
         <v>2743000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2914400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>3869500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2847500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2429100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2539000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>3527900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2287600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2105700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2293000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3207700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2235500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2050500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2153900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2967500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2114400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2207900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2120400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>2805000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>2089400</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1905300</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>2008900</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>2695400</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>785600</v>
+      </c>
+      <c r="E18" s="3">
         <v>626800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>754500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>1044000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>803500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>481700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>615300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>1018100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>491700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>408000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>500000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>780700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>547500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>400100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>487800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>591300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>545800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>205100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>468700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>707600</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>529600</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>384000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>458900</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>703400</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1510,156 +1542,163 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-41900</v>
+      </c>
+      <c r="E20" s="3">
         <v>-42500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-43300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-58100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-45000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-45300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-45500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-64900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-46500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-43100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-42300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-61200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-43200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-41400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-39000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-54400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-42000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-39300</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-38900</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-51400</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-35700</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-34200</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-33300</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-45800</v>
       </c>
     </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>845900</v>
+      </c>
+      <c r="E21" s="3">
         <v>684000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>810800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1115500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>852500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>530900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>659300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1078500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>536900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>455600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>547400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>838400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>589200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>442400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>531300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>644900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>583600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>245100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>507900</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>759300</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>569200</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>422600</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>497400</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>751500</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1675,27 +1714,27 @@
       <c r="G22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H22" s="3">
-        <v>700</v>
+      <c r="H22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I22" s="3">
         <v>700</v>
       </c>
       <c r="J22" s="3">
+        <v>700</v>
+      </c>
+      <c r="K22" s="3">
         <v>800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>900</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>1300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>1400</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O22" s="3" t="s">
         <v>8</v>
       </c>
@@ -1711,8 +1750,8 @@
       <c r="S22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T22" s="3">
-        <v>0</v>
+      <c r="T22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U22" s="3">
         <v>0</v>
@@ -1732,156 +1771,165 @@
       <c r="Z22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>743800</v>
+      </c>
+      <c r="E23" s="3">
         <v>584300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>711200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>985900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>758500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>435800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>569000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>952400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>444200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>363600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>456300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>719600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>504300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>358700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>448800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>536900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>503800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>165800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>429900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>656200</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>493900</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>349800</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>425600</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>657600</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>151200</v>
+      </c>
+      <c r="E24" s="3">
         <v>112500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>156000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>200100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>162300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>89800</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>126600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>212000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>101300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>64300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>105900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>51300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>201400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>72800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>97400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>156800</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>136500</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>47600</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>148900</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>222300</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>162200</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>112600</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>147500</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>230800</v>
       </c>
     </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1954,156 +2002,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>592600</v>
+      </c>
+      <c r="E26" s="3">
         <v>471800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>555200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>785800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>596200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>345900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>442400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>740500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>342900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>299300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>350300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>668300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>302800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>285800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>351400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>380100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>367300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>118100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>281000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>433900</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>331700</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>237100</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>278100</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>426800</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>592600</v>
+      </c>
+      <c r="E27" s="3">
         <v>471800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>555200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>785800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>596200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>345900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>442400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>740500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>342900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>299300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>350300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>668300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>302800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>285800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>351400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>380100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>367300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>118100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>281000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>433900</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>331700</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>237100</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>278100</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>426800</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2176,8 +2233,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2211,30 +2271,30 @@
       <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O29" s="3">
         <v>-103100</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>103100</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>8800</v>
       </c>
-      <c r="Q29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R29" s="3">
+      <c r="R29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S29" s="3">
         <v>20200</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>-600</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>171400</v>
       </c>
-      <c r="U29" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="V29" s="3" t="s">
         <v>8</v>
       </c>
@@ -2250,8 +2310,11 @@
       <c r="Z29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2324,8 +2387,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2398,156 +2464,165 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>41900</v>
+      </c>
+      <c r="E32" s="3">
         <v>42500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>43300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>58100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>45000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>45300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>45500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>64900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>46500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>43100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>42300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>61200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>43200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>41400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>39000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>54400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>42000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>39300</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>38900</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>51400</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>35700</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>34200</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>33300</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>45800</v>
       </c>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>592600</v>
+      </c>
+      <c r="E33" s="3">
         <v>471800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>555200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>785800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>596200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>345900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>442400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>740500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>342900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>299300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>350300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>565200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>405900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>294600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>351400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>400300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>366700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>289500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>281000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>433900</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>331700</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>237100</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>278100</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>426800</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2620,161 +2695,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>592600</v>
+      </c>
+      <c r="E35" s="3">
         <v>471800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>555200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>785800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>596200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>345900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>442400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>740500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>342900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>299300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>350300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>565200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>405900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>294600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>351400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>400300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>366700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>289500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>281000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>433900</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>331700</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>237100</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>278100</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>426800</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44688</v>
+      </c>
+      <c r="E38" s="2">
         <v>44604</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44520</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44436</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44324</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44240</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44156</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44072</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43960</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43876</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43792</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43708</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43589</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43505</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43421</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43337</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43225</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43141</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43057</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42973</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42861</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42777</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42693</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42609</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2801,8 +2885,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2829,82 +2914,86 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>263000</v>
+      </c>
+      <c r="E41" s="3">
         <v>239400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>961100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1171300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>975600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1026200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1664000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1750800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>509100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>153000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>158100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>176300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>174100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>195700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>252100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>217800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>218400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>288500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>257700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>293300</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>227100</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>210600</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>195500</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>189700</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2977,304 +3066,319 @@
       <c r="Z42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>439800</v>
+      </c>
+      <c r="E43" s="3">
         <v>405600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>379300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>378400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>359700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>352500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>350900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>364800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>266900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>340300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>333200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>309000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>281600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>298300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>275200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>258100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>261300</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>282500</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>272500</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>280700</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>276100</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>246900</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>270800</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>287700</v>
       </c>
     </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>5313100</v>
+      </c>
+      <c r="E44" s="3">
         <v>5031200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>4768300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>4639800</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>4665500</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>4736800</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>4628300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>4473300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>4440600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>4606200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>4463100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>4319100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>4325700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>4305500</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>4090400</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>3943700</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>4005800</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>4085500</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>4012100</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>3882100</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>3861100</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>3902100</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>3773200</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>3631900</v>
       </c>
     </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>238700</v>
+      </c>
+      <c r="E45" s="3">
         <v>227500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>240500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>225800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>223600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>211300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>193500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>223000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>181400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>201100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>202500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>224300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>190000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>197600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>196700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>216200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>185800</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>169700</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>175000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>155200</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>142900</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>133100</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>129100</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>130200</v>
       </c>
     </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>6254700</v>
+      </c>
+      <c r="E46" s="3">
         <v>5903800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>6349100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>6415300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>6224400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>6326800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>6836800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>6811900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>5398000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>5300500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>5157000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>5028700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>4971300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>4997100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>4814300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>4635900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>4671300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>4826300</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>4717200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>4611300</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>4507200</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>4492800</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>4368700</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>4239600</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3347,82 +3451,88 @@
       <c r="Z47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>7736300</v>
+      </c>
+      <c r="E48" s="3">
         <v>7622900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>7575500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>7575600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>7378000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>7288700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>7193000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>7090900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>6998400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>7055600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>7035800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>4398800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>4324900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>4269900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>4228800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>4218400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>4123000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>4081300</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>4061000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>4031000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>3904200</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>3803800</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>3750500</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>3733300</v>
       </c>
     </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3445,58 +3555,61 @@
         <v>302600</v>
       </c>
       <c r="J49" s="3">
+        <v>302600</v>
+      </c>
+      <c r="K49" s="3">
         <v>304100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>305400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>306300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>307300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>308300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>309500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>310500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>311500</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>312400</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>324800</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>326700</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>443000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>444400</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>447000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>448900</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>450900</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>452900</v>
       </c>
     </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3569,8 +3682,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3643,82 +3759,88 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>226900</v>
+      </c>
+      <c r="E52" s="3">
         <v>249200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>233700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>222600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>232900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>241800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>236100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>217000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>200300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>201200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>200400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>160200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>167900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>167600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>169000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>180300</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>182700</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>169400</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>176000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>173100</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>169900</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>157200</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>172500</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>174100</v>
       </c>
     </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3791,82 +3913,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>14520600</v>
+      </c>
+      <c r="E54" s="3">
         <v>14078500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>14460900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>14516200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>14137900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>14160000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>14568600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>14423900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>12902100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>12863700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>12700500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>9895900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>9773700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>9745100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>9523600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>9347000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>9301800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>9403700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>9397100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>9259800</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>9028300</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>8902600</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>8742500</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>8599800</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3893,8 +4021,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3921,118 +4050,122 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>6793200</v>
+      </c>
+      <c r="E57" s="3">
         <v>6378600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>6171300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>6013900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>5778200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>5351100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>5282300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>5156300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>4806300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>4869900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>4922100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>4864900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>4693100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>4669600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>4455300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>4409400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>4296700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>4365700</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>4326700</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>4168900</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>4140700</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>4115000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>4162300</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>4095900</v>
       </c>
     </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E58" s="3">
+      <c r="E58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F58" s="3">
         <v>500000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>89900</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H58" s="3">
+      <c r="H58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I58" s="3">
         <v>314500</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>63400</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>67500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>58000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>58900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>57800</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O58" s="3" t="s">
         <v>8</v>
       </c>
@@ -4048,8 +4181,8 @@
       <c r="S58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T58" s="3">
-        <v>0</v>
+      <c r="T58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U58" s="3">
         <v>0</v>
@@ -4069,304 +4202,319 @@
       <c r="Z58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1270900</v>
+      </c>
+      <c r="E59" s="3">
         <v>1306000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1416500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1265900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1235000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1138700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1111000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1059300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>904700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>850800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>888300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>647200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>623800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>664700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>712800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>619300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>621700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>581600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>740900</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>597400</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>652900</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>669300</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>687900</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>594500</v>
       </c>
     </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>8064100</v>
+      </c>
+      <c r="E60" s="3">
         <v>7684600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>8087900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>7369800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>7013200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>6804300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>6456700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>6283100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>5769100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>5779600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>5868200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>5512100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>5316900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>5334300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>5168200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>5028700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>4918300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>4947200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>5067600</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>4766300</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>4793500</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>4784300</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>4850200</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>4690300</v>
       </c>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>6057400</v>
+      </c>
+      <c r="E61" s="3">
         <v>5840900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>4771300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>5455900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>5267900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>5427300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>5684400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>5669200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>5544500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>5588700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>5425200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>5206300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>5151900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>5111200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>5156000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>5005900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>4954700</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>5043500</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>4983000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>5081200</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>5152800</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>5151900</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>4997400</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>4924100</v>
       </c>
     </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>3786300</v>
+      </c>
+      <c r="E62" s="3">
         <v>3690400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>3726500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>3488000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>3620200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>3451900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>3454500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>3349500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>3221300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>3206700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>3183100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>891300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>894400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>894000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>858000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>832700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>790300</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>743500</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>871600</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>840600</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>796100</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>793900</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>790100</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>772900</v>
       </c>
     </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4439,8 +4587,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4513,8 +4664,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4587,82 +4741,88 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>17907800</v>
+      </c>
+      <c r="E66" s="3">
         <v>17216000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>16585700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>16313700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>15901300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>15683600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>15595600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>15301800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>14534900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>14574900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>14476500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>11609800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>11363300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>11339500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>11182200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>10867300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>10663400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>10734300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>10922200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>10688200</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>10742500</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>10730100</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>10637800</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>10387300</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4689,8 +4849,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4763,8 +4924,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4837,8 +5001,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4911,8 +5078,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4985,82 +5155,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-2138200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-2730700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>135400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-419800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-1205600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-1801800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-1008500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-1451000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-2191400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-2534300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-955000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-1305300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-1870600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-2276500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-864200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-1208800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-1623600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-1990300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-1361400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-1642400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-2076300</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-2408000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-1324100</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-1602200</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5133,8 +5309,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5207,8 +5386,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5281,82 +5463,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-3387200</v>
+      </c>
+      <c r="E76" s="3">
         <v>-3137500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-2124800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-1797500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-1763400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-1523600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-1027000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-878000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-1632700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-1711100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-1776100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-1713900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-1589500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-1594400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-1658600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-1520400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-1361600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-1330500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-1525100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-1428400</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-1714200</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>-1827400</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>-1895200</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>-1787500</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5429,161 +5617,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44688</v>
+      </c>
+      <c r="E80" s="2">
         <v>44604</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44520</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44436</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44324</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44240</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44156</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44072</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43960</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43876</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43792</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43708</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43589</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43505</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43421</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43337</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43225</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43141</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43057</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42973</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42861</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42777</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42693</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42609</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>592600</v>
+      </c>
+      <c r="E81" s="3">
         <v>471800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>555200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>785800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>596200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>345900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>442400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>740500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>342900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>299300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>350300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>565200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>405900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>294600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>351400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>400300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>366700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>289500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>281000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>433900</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>331700</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>237100</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>278100</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>426800</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5610,82 +5807,86 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>102100</v>
+      </c>
+      <c r="E83" s="3">
         <v>99700</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>99600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>129600</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>94000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>94500</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>89600</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>125400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>91700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>90700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>89800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>118800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>84900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>83800</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>82500</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>108000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>79800</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>79400</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>78000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>103100</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>75300</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>72800</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>71800</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>93900</v>
       </c>
     </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5758,8 +5959,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5832,8 +6036,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5906,8 +6113,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5980,8 +6190,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6054,82 +6267,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>843400</v>
+      </c>
+      <c r="E89" s="3">
         <v>361800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>777900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>1288200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>1190500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>356400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>683500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1417000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>651500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>204500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>447100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>841900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>469600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>367900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>449200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>823900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>504000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>187300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>565000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>561400</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>445300</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>157400</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>406500</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>545800</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6156,82 +6375,86 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-161200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-105900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-102300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-246100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-373700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-2400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-183800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-83300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-89200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-101400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-182200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-118000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-97700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-98200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>326700</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-112400</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-104500</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-110300</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-195900</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-141800</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-118200</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-97900</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-377700</v>
       </c>
     </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6304,8 +6527,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6378,82 +6604,88 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-149400</v>
+      </c>
+      <c r="E94" s="3">
         <v>-120400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-91000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-243100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-130300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-118200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-110200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-250000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-73000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-84200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-90700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-206600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-109100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-84300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-91900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-219200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-72100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-96000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-134700</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-194400</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-156500</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-103100</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-99700</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-189500</v>
       </c>
     </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6480,8 +6712,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6554,8 +6787,11 @@
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6628,8 +6864,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6702,8 +6941,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6776,226 +7018,238 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-670900</v>
+      </c>
+      <c r="E100" s="3">
         <v>-964000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-895900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-849200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-1110400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-877400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-663400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>68500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-209400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-127000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-375800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-630600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-381900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-345900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-315600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-607000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-500900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-60600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-463700</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-302500</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-275300</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-38600</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-297900</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-363800</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>600</v>
+      </c>
+      <c r="E101" s="3">
         <v>800</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-1200</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-200</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-400</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>1500</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>3300</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>6100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-12900</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>1500</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>1200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-2500</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-200</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>5900</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-7400</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>1700</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-1200</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>100</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-2300</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>1600</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>3000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-600</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-3100</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>23600</v>
+      </c>
+      <c r="E102" s="3">
         <v>-721700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-210200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>195700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-50500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-637800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-86800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>1241700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>356100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-5100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-18200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>2200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-21600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-56400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>34300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-70100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>30800</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-35600</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>66100</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>16500</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>15100</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>5800</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-23600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AZO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AZO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="92">
   <si>
     <t>AZO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,340 +665,353 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44800</v>
+      </c>
+      <c r="E7" s="2">
         <v>44688</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44604</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44520</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44436</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44324</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44240</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44156</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44072</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43960</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43876</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43792</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43708</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43589</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43505</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43421</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43337</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43225</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43141</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43057</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42973</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42861</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42777</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42693</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42609</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>5348400</v>
+      </c>
+      <c r="E8" s="3">
         <v>3865200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>3369800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>3668900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>4913500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>3651000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2910800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>3154300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4546000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2779300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2513700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2793000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3988400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2783000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2450600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2641700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>3558800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>2660200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>2413000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>2589100</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>3512600</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>2619000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>2289200</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>2467800</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>3398800</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>2592500</v>
+      </c>
+      <c r="E9" s="3">
         <v>1858800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1584500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1743700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>2345600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1736100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1351400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1478600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2133000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1288700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1147600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1292000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1858000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1291000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1125500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1224300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1650900</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1237200</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1136000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1223300</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>1658500</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>1240600</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>1083700</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>1166300</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>1604000</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>2755900</v>
+      </c>
+      <c r="E10" s="3">
         <v>2006400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1785300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1925200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>2567900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1914900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1559400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1675700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2413000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1490600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1366100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1501000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>2130400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1492000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1325100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1417400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1907900</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1423000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1277000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1365800</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>1854100</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>1378400</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>1205500</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>1301500</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>1794800</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1026,8 +1039,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1103,8 +1117,11 @@
       <c r="AA12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1180,8 +1197,11 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1194,27 +1214,27 @@
       <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="3">
         <v>-3000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>6100</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>39900</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>8900</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>75000</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
@@ -1227,8 +1247,8 @@
       <c r="Q14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
+      <c r="R14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S14" s="3">
         <v>0</v>
@@ -1257,8 +1277,11 @@
       <c r="AA14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1295,47 +1318,50 @@
       <c r="N15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O15" s="3">
+      <c r="O15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P15" s="3">
         <v>118800</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>84900</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>83800</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>82500</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>108000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>79800</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>79400</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>78000</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>103100</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>75300</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>72800</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>71800</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>93900</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1360,162 +1386,169 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>4244500</v>
+      </c>
+      <c r="E17" s="3">
         <v>3079600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2743000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2914400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>3869500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2847500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2429100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2539000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3527900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2287600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2105700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2293000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3207700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2235500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2050500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2153900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2967500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2114400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2207900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>2120400</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>2805000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>2089400</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>1905300</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>2008900</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>2695400</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>1103900</v>
+      </c>
+      <c r="E18" s="3">
         <v>785600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>626800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>754500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>1044000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>803500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>481700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>615300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1018100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>491700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>408000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>500000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>780700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>547500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>400100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>487800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>591300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>545800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>205100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>468700</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>707600</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>529600</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>384000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>458900</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>703400</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1543,162 +1576,169 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-64000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-41900</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-42500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-43300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-58100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-45000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-45300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-45500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-64900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-46500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-43100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-42300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-61200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-43200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-41400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-39000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-54400</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-42000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-39300</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-38900</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-51400</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-35700</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-34200</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-33300</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-45800</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1180700</v>
+      </c>
+      <c r="E21" s="3">
         <v>845900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>684000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>810800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1115500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>852500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>530900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>659300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1078500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>536900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>455600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>547400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>838400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>589200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>442400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>531300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>644900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>583600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>245100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>507900</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>759300</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>569200</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>422600</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>497400</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>751500</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1717,27 +1757,27 @@
       <c r="H22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I22" s="3">
-        <v>700</v>
+      <c r="I22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J22" s="3">
         <v>700</v>
       </c>
       <c r="K22" s="3">
+        <v>700</v>
+      </c>
+      <c r="L22" s="3">
         <v>800</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>900</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>1300</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>1400</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P22" s="3" t="s">
         <v>8</v>
       </c>
@@ -1753,8 +1793,8 @@
       <c r="T22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U22" s="3">
-        <v>0</v>
+      <c r="U22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V22" s="3">
         <v>0</v>
@@ -1774,162 +1814,171 @@
       <c r="AA22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1039800</v>
+      </c>
+      <c r="E23" s="3">
         <v>743800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>584300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>711200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>985900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>758500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>435800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>569000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>952400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>444200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>363600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>456300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>719600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>504300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>358700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>448800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>536900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>503800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>165800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>429900</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>656200</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>493900</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>349800</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>425600</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>657600</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>229800</v>
+      </c>
+      <c r="E24" s="3">
         <v>151200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>112500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>156000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>200100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>162300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>89800</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>126600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>212000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>101300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>64300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>105900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>51300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>201400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>72800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>97400</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>156800</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>136500</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>47600</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>148900</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>222300</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>162200</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>112600</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>147500</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>230800</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2005,162 +2054,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>810000</v>
+      </c>
+      <c r="E26" s="3">
         <v>592600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>471800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>555200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>785800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>596200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>345900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>442400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>740500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>342900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>299300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>350300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>668300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>302800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>285800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>351400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>380100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>367300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>118100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>281000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>433900</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>331700</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>237100</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>278100</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>426800</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>810000</v>
+      </c>
+      <c r="E27" s="3">
         <v>592600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>471800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>555200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>785800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>596200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>345900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>442400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>740500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>342900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>299300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>350300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>668300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>302800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>285800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>351400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>380100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>367300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>118100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>281000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>433900</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>331700</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>237100</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>278100</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>426800</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2236,8 +2294,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2274,30 +2335,30 @@
       <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O29" s="3">
+      <c r="O29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P29" s="3">
         <v>-103100</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>103100</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>8800</v>
       </c>
-      <c r="R29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S29" s="3">
+      <c r="S29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T29" s="3">
         <v>20200</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>-600</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>171400</v>
       </c>
-      <c r="V29" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="W29" s="3" t="s">
         <v>8</v>
       </c>
@@ -2313,8 +2374,11 @@
       <c r="AA29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2390,8 +2454,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2467,162 +2534,171 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>64000</v>
+      </c>
+      <c r="E32" s="3">
         <v>41900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>42500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>43300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>58100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>45000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>45300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>45500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>64900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>46500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>43100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>42300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>61200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>43200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>41400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>39000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>54400</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>42000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>39300</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>38900</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>51400</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>35700</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>34200</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>33300</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>45800</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>810000</v>
+      </c>
+      <c r="E33" s="3">
         <v>592600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>471800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>555200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>785800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>596200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>345900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>442400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>740500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>342900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>299300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>350300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>565200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>405900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>294600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>351400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>400300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>366700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>289500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>281000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>433900</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>331700</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>237100</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>278100</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>426800</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2698,167 +2774,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>810000</v>
+      </c>
+      <c r="E35" s="3">
         <v>592600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>471800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>555200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>785800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>596200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>345900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>442400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>740500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>342900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>299300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>350300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>565200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>405900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>294600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>351400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>400300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>366700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>289500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>281000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>433900</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>331700</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>237100</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>278100</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>426800</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44800</v>
+      </c>
+      <c r="E38" s="2">
         <v>44688</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44604</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44520</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44436</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44324</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44240</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44156</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44072</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43960</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43876</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43792</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43708</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43589</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43505</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43421</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43337</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43225</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43141</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43057</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42973</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42861</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42777</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42693</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42609</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2886,8 +2971,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2915,85 +3001,89 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>264400</v>
+      </c>
+      <c r="E41" s="3">
         <v>263000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>239400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>961100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1171300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>975600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1026200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1664000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1750800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>509100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>153000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>158100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>176300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>174100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>195700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>252100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>217800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>218400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>288500</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>257700</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>293300</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>227100</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>210600</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>195500</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>189700</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3069,316 +3159,331 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>504900</v>
+      </c>
+      <c r="E43" s="3">
         <v>439800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>405600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>379300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>378400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>359700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>352500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>350900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>364800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>266900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>340300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>333200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>309000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>281600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>298300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>275200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>258100</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>261300</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>282500</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>272500</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>280700</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>276100</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>246900</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>270800</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>287700</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>5638000</v>
+      </c>
+      <c r="E44" s="3">
         <v>5313100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>5031200</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>4768300</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>4639800</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>4665500</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>4736800</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>4628300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>4473300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>4440600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>4606200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>4463100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>4319100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>4325700</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>4305500</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>4090400</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>3943700</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>4005800</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>4085500</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>4012100</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>3882100</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>3861100</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>3902100</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>3773200</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>3631900</v>
       </c>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>220700</v>
+      </c>
+      <c r="E45" s="3">
         <v>238700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>227500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>240500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>225800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>223600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>211300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>193500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>223000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>181400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>201100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>202500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>224300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>190000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>197600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>196700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>216200</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>185800</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>169700</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>175000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>155200</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>142900</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>133100</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>129100</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>130200</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>6628000</v>
+      </c>
+      <c r="E46" s="3">
         <v>6254700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>5903800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>6349100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>6415300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>6224400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>6326800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>6836800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>6811900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>5398000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>5300500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>5157000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>5028700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>4971300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>4997100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>4814300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>4635900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>4671300</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>4826300</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>4717200</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>4611300</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>4507200</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>4492800</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>4368700</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>4239600</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3454,85 +3559,91 @@
       <c r="AA47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>8089200</v>
+      </c>
+      <c r="E48" s="3">
         <v>7736300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>7622900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>7575500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>7575600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>7378000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>7288700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>7193000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>7090900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>6998400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>7055600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>7035800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>4398800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>4324900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>4269900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>4228800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>4218400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>4123000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>4081300</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>4061000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>4031000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>3904200</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>3803800</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>3750500</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>3733300</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3558,58 +3669,61 @@
         <v>302600</v>
       </c>
       <c r="K49" s="3">
+        <v>302600</v>
+      </c>
+      <c r="L49" s="3">
         <v>304100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>305400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>306300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>307300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>308300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>309500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>310500</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>311500</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>312400</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>324800</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>326700</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>443000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>444400</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>447000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>448900</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>450900</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>452900</v>
       </c>
     </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3685,8 +3799,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3762,85 +3879,91 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>255200</v>
+      </c>
+      <c r="E52" s="3">
         <v>226900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>249200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>233700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>222600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>232900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>241800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>236100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>217000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>200300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>201200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>200400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>160200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>167900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>167600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>169000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>180300</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>182700</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>169400</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>176000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>173100</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>169900</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>157200</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>172500</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>174100</v>
       </c>
     </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3916,85 +4039,91 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>15275000</v>
+      </c>
+      <c r="E54" s="3">
         <v>14520600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>14078500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>14460900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>14516200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>14137900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>14160000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>14568600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>14423900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>12902100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>12863700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>12700500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>9895900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>9773700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>9745100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>9523600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>9347000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>9301800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>9403700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>9397100</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>9259800</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>9028300</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>8902600</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>8742500</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>8599800</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4022,8 +4151,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4051,124 +4181,128 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>7301300</v>
+      </c>
+      <c r="E57" s="3">
         <v>6793200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>6378600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>6171300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>6013900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>5778200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>5351100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>5282300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>5156300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>4806300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>4869900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>4922100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>4864900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>4693100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>4669600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>4455300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>4409400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>4296700</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>4365700</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>4326700</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>4168900</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>4140700</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>4115000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>4162300</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>4095900</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>8</v>
+      <c r="D58" s="3">
+        <v>92900</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F58" s="3">
+      <c r="F58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G58" s="3">
         <v>500000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>89900</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I58" s="3">
+      <c r="I58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J58" s="3">
         <v>314500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>63400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>67500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>58000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>58900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>57800</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P58" s="3" t="s">
         <v>8</v>
       </c>
@@ -4184,8 +4318,8 @@
       <c r="T58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U58" s="3">
-        <v>0</v>
+      <c r="U58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V58" s="3">
         <v>0</v>
@@ -4205,316 +4339,331 @@
       <c r="AA58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1194200</v>
+      </c>
+      <c r="E59" s="3">
         <v>1270900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1306000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1416500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1265900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1235000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1138700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1111000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1059300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>904700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>850800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>888300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>647200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>623800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>664700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>712800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>619300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>621700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>581600</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>740900</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>597400</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>652900</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>669300</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>687900</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>594500</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>8588400</v>
+      </c>
+      <c r="E60" s="3">
         <v>8064100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>7684600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>8087900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>7369800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>7013200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>6804300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>6456700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>6283100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>5769100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>5779600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>5868200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>5512100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>5316900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>5334300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>5168200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>5028700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>4918300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>4947200</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>5067600</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>4766300</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>4793500</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>4784300</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>4850200</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>4690300</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>6339500</v>
+      </c>
+      <c r="E61" s="3">
         <v>6057400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>5840900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>4771300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>5455900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>5267900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>5427300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>5684400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>5669200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>5544500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>5588700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>5425200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>5206300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>5151900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>5111200</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>5156000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>5005900</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>4954700</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>5043500</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>4983000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>5081200</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>5152800</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>5151900</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>4997400</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>4924100</v>
       </c>
     </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>3886000</v>
+      </c>
+      <c r="E62" s="3">
         <v>3786300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>3690400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>3726500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>3488000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>3620200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>3451900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>3454500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>3349500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>3221300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>3206700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>3183100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>891300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>894400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>894000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>858000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>832700</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>790300</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>743500</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>871600</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>840600</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>796100</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>793900</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>790100</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>772900</v>
       </c>
     </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4590,8 +4739,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4667,8 +4819,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4744,85 +4899,91 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>18814000</v>
+      </c>
+      <c r="E66" s="3">
         <v>17907800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>17216000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>16585700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>16313700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>15901300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>15683600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>15595600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>15301800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>14534900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>14574900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>14476500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>11609800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>11363300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>11339500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>11182200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>10867300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>10663400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>10734300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>10922200</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>10688200</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>10742500</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>10730100</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>10637800</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>10387300</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4850,8 +5011,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4927,8 +5089,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5004,8 +5169,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5081,8 +5249,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5158,85 +5329,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-1330100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-2138200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-2730700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>135400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-419800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-1205600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-1801800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-1008500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-1451000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-2191400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-2534300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-955000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-1305300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-1870600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-2276500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-864200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-1208800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-1623600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-1990300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-1361400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-1642400</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-2076300</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-2408000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-1324100</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-1602200</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5312,8 +5489,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5389,8 +5569,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5466,85 +5649,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-3538900</v>
+      </c>
+      <c r="E76" s="3">
         <v>-3387200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-3137500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-2124800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-1797500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-1763400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-1523600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-1027000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-878000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-1632700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-1711100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-1776100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-1713900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-1589500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-1594400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-1658600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-1520400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-1361600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-1330500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-1525100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-1428400</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>-1714200</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>-1827400</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>-1895200</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>-1787500</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5620,167 +5809,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44800</v>
+      </c>
+      <c r="E80" s="2">
         <v>44688</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44604</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44520</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44436</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44324</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44240</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44156</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44072</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43960</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43876</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43792</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43708</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43589</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43505</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43421</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43337</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43225</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43141</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43057</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42973</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42861</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42777</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42693</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42609</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>810000</v>
+      </c>
+      <c r="E81" s="3">
         <v>592600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>471800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>555200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>785800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>596200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>345900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>442400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>740500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>342900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>299300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>350300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>565200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>405900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>294600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>351400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>400300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>366700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>289500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>281000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>433900</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>331700</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>237100</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>278100</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>426800</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5808,85 +6006,89 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>140900</v>
+      </c>
+      <c r="E83" s="3">
         <v>102100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>99700</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>99600</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>129600</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>94000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>94500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>89600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>125400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>91700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>90700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>89800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>118800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>84900</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>83800</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>82500</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>108000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>79800</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>79400</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>78000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>103100</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>75300</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>72800</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>71800</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>93900</v>
       </c>
     </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5962,8 +6164,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6039,8 +6244,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6116,8 +6324,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6193,8 +6404,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6270,85 +6484,91 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1228000</v>
+      </c>
+      <c r="E89" s="3">
         <v>843400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>361800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>777900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>1288200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1190500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>356400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>683500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1417000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>651500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>204500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>447100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>841900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>469600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>367900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>449200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>823900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>504000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>187300</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>565000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>561400</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>445300</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>157400</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>406500</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>545800</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6376,85 +6596,89 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-303000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-161200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-105900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-102300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-246100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-373700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-2400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-183800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-83300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-89200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-101400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-182200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-118000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-97700</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-98200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>326700</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-112400</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-104500</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-110300</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-195900</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-141800</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-118200</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-97900</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-377700</v>
       </c>
     </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6530,8 +6754,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6607,85 +6834,91 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-287400</v>
+      </c>
+      <c r="E94" s="3">
         <v>-149400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-120400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-91000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-243100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-130300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-118200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-110200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-250000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-73000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-84200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-90700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-206600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-109100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-84300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-91900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-219200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-72100</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-96000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-134700</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-194400</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-156500</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-103100</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-99700</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-189500</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6713,8 +6946,9 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6790,8 +7024,11 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6867,8 +7104,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6944,8 +7184,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7021,235 +7264,247 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-939700</v>
+      </c>
+      <c r="E100" s="3">
         <v>-670900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-964000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-895900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-849200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-1110400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-877400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-663400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>68500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-209400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-127000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-375800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-630600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-381900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-345900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-315600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-607000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-500900</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-60600</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-463700</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-302500</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-275300</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-38600</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-297900</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-363800</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>400</v>
+      </c>
+      <c r="E101" s="3">
         <v>600</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>800</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-1200</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-200</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-400</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>1500</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>3300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>6100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-12900</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>1500</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>1200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-2500</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-200</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>5900</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-7400</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>1700</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-1200</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>100</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-2300</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>1600</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>3000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-600</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-3100</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E102" s="3">
         <v>23600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-721700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-210200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>195700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-50500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-637800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-86800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1241700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>356100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-5100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-18200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>2200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-21600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-56400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>34300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-70100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>30800</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-35600</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>66100</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>16500</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>15100</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>5800</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-23600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AZO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AZO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="92">
   <si>
     <t>AZO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,353 +665,365 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44884</v>
+      </c>
+      <c r="E7" s="2">
         <v>44800</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44688</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44604</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44520</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44436</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44324</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44240</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44156</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44072</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43960</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43876</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43792</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43708</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43589</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43505</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43421</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43337</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43225</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43141</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43057</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42973</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42861</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42777</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42693</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42609</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>3985100</v>
+      </c>
+      <c r="E8" s="3">
         <v>5348400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>3865200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>3369800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>3668900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>4913500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>3651000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2910800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3154300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4546000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2779300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2513700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2793000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3988400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2783000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2450600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2641700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>3558800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>2660200</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>2413000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>2589100</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>3512600</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>2619000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>2289200</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>2467800</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>3398800</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1990400</v>
+      </c>
+      <c r="E9" s="3">
         <v>2592500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1858800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1584500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1743700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>2345600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1736100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1351400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1478600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2133000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1288700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1147600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1292000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1858000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1291000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1125500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1224300</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1650900</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1237200</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1136000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>1223300</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>1658500</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>1240600</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>1083700</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>1166300</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>1604000</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1994700</v>
+      </c>
+      <c r="E10" s="3">
         <v>2755900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>2006400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1785300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1925200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>2567900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1914900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1559400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1675700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2413000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1490600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1366100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1501000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>2130400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1492000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1325100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1417400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1907900</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1423000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1277000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>1365800</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>1854100</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>1378400</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>1205500</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>1301500</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>1794800</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1040,8 +1052,9 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1120,8 +1133,11 @@
       <c r="AB12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1200,8 +1216,11 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1217,26 +1236,26 @@
       <c r="G14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="3">
         <v>-3000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>6100</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>39900</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>8900</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>75000</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>8</v>
@@ -1250,8 +1269,8 @@
       <c r="R14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
+      <c r="S14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T14" s="3">
         <v>0</v>
@@ -1280,31 +1299,34 @@
       <c r="AB14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>8</v>
+      <c r="D15" s="3">
+        <v>0</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0</v>
+      </c>
+      <c r="J15" s="3">
+        <v>0</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>8</v>
@@ -1321,47 +1343,50 @@
       <c r="O15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P15" s="3">
+      <c r="P15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q15" s="3">
         <v>118800</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>84900</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>83800</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>82500</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>108000</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>79800</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>79400</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>78000</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>103100</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>75300</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>72800</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>71800</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AC15" s="3">
         <v>93900</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1387,168 +1412,175 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3262000</v>
+      </c>
+      <c r="E17" s="3">
         <v>4244500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>3079600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2743000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2914400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>3869500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2847500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2429100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2539000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3527900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2287600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2105700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2293000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>3207700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2235500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2050500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2153900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2967500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2114400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>2207900</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>2120400</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>2805000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>2089400</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>1905300</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>2008900</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>2695400</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>723100</v>
+      </c>
+      <c r="E18" s="3">
         <v>1103900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>785600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>626800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>754500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>1044000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>803500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>481700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>615300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1018100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>491700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>408000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>500000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>780700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>547500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>400100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>487800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>591300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>545800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>205100</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>468700</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>707600</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>529600</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>384000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>458900</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>703400</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1577,168 +1609,175 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-57800</v>
+      </c>
+      <c r="E20" s="3">
         <v>-64000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-41900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-42500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-43300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-58100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-45000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-45300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-45500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-64900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-46500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-43100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-42300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-61200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-43200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-41400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-39000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-54400</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-42000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-39300</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-38900</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-51400</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-35700</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-34200</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-33300</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-45800</v>
       </c>
     </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>774600</v>
+      </c>
+      <c r="E21" s="3">
         <v>1180700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>845900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>684000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>810800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1115500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>852500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>530900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>659300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1078500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>536900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>455600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>547400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>838400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>589200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>442400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>531300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>644900</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>583600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>245100</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>507900</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>759300</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>569200</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>422600</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>497400</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>751500</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1760,26 +1799,26 @@
       <c r="I22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J22" s="3">
-        <v>700</v>
+      <c r="J22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K22" s="3">
         <v>700</v>
       </c>
       <c r="L22" s="3">
+        <v>700</v>
+      </c>
+      <c r="M22" s="3">
         <v>800</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>900</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>1300</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>1400</v>
-      </c>
-      <c r="P22" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q22" s="3" t="s">
         <v>8</v>
@@ -1796,8 +1835,8 @@
       <c r="U22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V22" s="3">
-        <v>0</v>
+      <c r="V22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="W22" s="3">
         <v>0</v>
@@ -1817,168 +1856,177 @@
       <c r="AB22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>665300</v>
+      </c>
+      <c r="E23" s="3">
         <v>1039800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>743800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>584300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>711200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>985900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>758500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>435800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>569000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>952400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>444200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>363600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>456300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>719600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>504300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>358700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>448800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>536900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>503800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>165800</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>429900</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>656200</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>493900</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>349800</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>425600</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>657600</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>126000</v>
+      </c>
+      <c r="E24" s="3">
         <v>229800</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>151200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>112500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>156000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>200100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>162300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>89800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>126600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>212000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>101300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>64300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>105900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>51300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>201400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>72800</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>97400</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>156800</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>136500</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>47600</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>148900</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>222300</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>162200</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>112600</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>147500</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>230800</v>
       </c>
     </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2057,168 +2105,177 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>539300</v>
+      </c>
+      <c r="E26" s="3">
         <v>810000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>592600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>471800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>555200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>785800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>596200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>345900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>442400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>740500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>342900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>299300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>350300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>668300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>302800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>285800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>351400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>380100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>367300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>118100</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>281000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>433900</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>331700</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>237100</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>278100</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>426800</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>539300</v>
+      </c>
+      <c r="E27" s="3">
         <v>810000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>592600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>471800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>555200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>785800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>596200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>345900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>442400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>740500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>342900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>299300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>350300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>668300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>302800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>285800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>351400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>380100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>367300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>118100</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>281000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>433900</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>331700</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>237100</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>278100</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>426800</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2297,31 +2354,34 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>8</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>8</v>
@@ -2338,29 +2398,29 @@
       <c r="O29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P29" s="3">
+      <c r="P29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q29" s="3">
         <v>-103100</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>103100</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>8800</v>
       </c>
-      <c r="S29" s="3" t="s">
+      <c r="T29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>20200</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>-600</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>171400</v>
-      </c>
-      <c r="W29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="X29" s="3" t="s">
         <v>8</v>
@@ -2377,8 +2437,11 @@
       <c r="AB29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2457,8 +2520,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2537,168 +2603,177 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>57800</v>
+      </c>
+      <c r="E32" s="3">
         <v>64000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>41900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>42500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>43300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>58100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>45000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>45300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>45500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>64900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>46500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>43100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>42300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>61200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>43200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>41400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>39000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>54400</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>42000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>39300</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>38900</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>51400</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>35700</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>34200</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>33300</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>45800</v>
       </c>
     </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>539300</v>
+      </c>
+      <c r="E33" s="3">
         <v>810000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>592600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>471800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>555200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>785800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>596200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>345900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>442400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>740500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>342900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>299300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>350300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>565200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>405900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>294600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>351400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>400300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>366700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>289500</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>281000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>433900</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>331700</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>237100</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>278100</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>426800</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2777,173 +2852,182 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>539300</v>
+      </c>
+      <c r="E35" s="3">
         <v>810000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>592600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>471800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>555200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>785800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>596200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>345900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>442400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>740500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>342900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>299300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>350300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>565200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>405900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>294600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>351400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>400300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>366700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>289500</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>281000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>433900</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>331700</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>237100</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>278100</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>426800</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44884</v>
+      </c>
+      <c r="E38" s="2">
         <v>44800</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44688</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44604</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44520</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44436</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44324</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44240</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44156</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44072</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43960</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43876</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43792</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43708</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43589</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43505</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43421</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43337</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43225</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43141</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43057</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42973</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42861</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42777</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42693</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42609</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2972,8 +3056,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3002,88 +3087,92 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>269800</v>
+      </c>
+      <c r="E41" s="3">
         <v>264400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>263000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>239400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>961100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1171300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>975600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1026200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1664000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1750800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>509100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>153000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>158100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>176300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>174100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>195700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>252100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>217800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>218400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>288500</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>257700</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>293300</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>227100</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>210600</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>195500</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>189700</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3162,328 +3251,343 @@
       <c r="AB42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>501800</v>
+      </c>
+      <c r="E43" s="3">
         <v>504900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>439800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>405600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>379300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>378400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>359700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>352500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>350900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>364800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>266900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>340300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>333200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>309000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>281600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>298300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>275200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>258100</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>261300</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>282500</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>272500</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>280700</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>276100</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>246900</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>270800</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>287700</v>
       </c>
     </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>5607700</v>
+      </c>
+      <c r="E44" s="3">
         <v>5638000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>5313100</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>5031200</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>4768300</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>4639800</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>4665500</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>4736800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>4628300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>4473300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>4440600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>4606200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>4463100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>4319100</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>4325700</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>4305500</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>4090400</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>3943700</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>4005800</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>4085500</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>4012100</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>3882100</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>3861100</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>3902100</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>3773200</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>3631900</v>
       </c>
     </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>253800</v>
+      </c>
+      <c r="E45" s="3">
         <v>220700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>238700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>227500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>240500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>225800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>223600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>211300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>193500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>223000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>181400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>201100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>202500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>224300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>190000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>197600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>196700</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>216200</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>185800</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>169700</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>175000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>155200</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>142900</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>133100</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>129100</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>130200</v>
       </c>
     </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>6633100</v>
+      </c>
+      <c r="E46" s="3">
         <v>6628000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>6254700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>5903800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>6349100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>6415300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>6224400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>6326800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>6836800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>6811900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>5398000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>5300500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>5157000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>5028700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>4971300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>4997100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>4814300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>4635900</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>4671300</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>4826300</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>4717200</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>4611300</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>4507200</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>4492800</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>4368700</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>4239600</v>
       </c>
     </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3562,88 +3666,94 @@
       <c r="AB47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>8116700</v>
+      </c>
+      <c r="E48" s="3">
         <v>8089200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>7736300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>7622900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>7575500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>7575600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>7378000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>7288700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>7193000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>7090900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>6998400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>7055600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>7035800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>4398800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>4324900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>4269900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>4228800</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>4218400</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>4123000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>4081300</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>4061000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>4031000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>3904200</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>3803800</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>3750500</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>3733300</v>
       </c>
     </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3672,58 +3782,61 @@
         <v>302600</v>
       </c>
       <c r="L49" s="3">
+        <v>302600</v>
+      </c>
+      <c r="M49" s="3">
         <v>304100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>305400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>306300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>307300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>308300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>309500</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>310500</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>311500</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>312400</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>324800</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>326700</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>443000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>444400</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>447000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>448900</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>450900</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>452900</v>
       </c>
     </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3802,8 +3915,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3882,88 +3998,94 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>263500</v>
+      </c>
+      <c r="E52" s="3">
         <v>255200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>226900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>249200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>233700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>222600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>232900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>241800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>236100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>217000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>200300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>201200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>200400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>160200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>167900</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>167600</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>169000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>180300</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>182700</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>169400</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>176000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>173100</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>169900</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>157200</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>172500</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>174100</v>
       </c>
     </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4042,88 +4164,94 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>15315900</v>
+      </c>
+      <c r="E54" s="3">
         <v>15275000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>14520600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>14078500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>14460900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>14516200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>14137900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>14160000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>14568600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>14423900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>12902100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>12863700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>12700500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>9895900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>9773700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>9745100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>9523600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>9347000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>9301800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>9403700</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>9397100</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>9259800</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>9028300</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>8902600</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>8742500</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>8599800</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4152,8 +4280,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4182,129 +4311,133 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>7346000</v>
+      </c>
+      <c r="E57" s="3">
         <v>7301300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>6793200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>6378600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>6171300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>6013900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>5778200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>5351100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>5282300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>5156300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>4806300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>4869900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>4922100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>4864900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>4693100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>4669600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>4455300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>4409400</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>4296700</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>4365700</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>4326700</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>4168900</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>4140700</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>4115000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>4162300</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>4095900</v>
       </c>
     </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
+      <c r="D58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E58" s="3">
         <v>92900</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G58" s="3">
+      <c r="G58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H58" s="3">
         <v>500000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>89900</v>
       </c>
-      <c r="I58" s="3" t="s">
+      <c r="J58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>314500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>63400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>67500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>58000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>58900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>57800</v>
-      </c>
-      <c r="P58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q58" s="3" t="s">
         <v>8</v>
@@ -4321,8 +4454,8 @@
       <c r="U58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V58" s="3">
-        <v>0</v>
+      <c r="V58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="W58" s="3">
         <v>0</v>
@@ -4342,328 +4475,343 @@
       <c r="AB58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1363000</v>
+      </c>
+      <c r="E59" s="3">
         <v>1194200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1270900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1306000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1416500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1265900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1235000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1138700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1111000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1059300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>904700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>850800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>888300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>647200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>623800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>664700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>712800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>619300</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>621700</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>581600</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>740900</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>597400</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>652900</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>669300</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>687900</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>594500</v>
       </c>
     </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>8709000</v>
+      </c>
+      <c r="E60" s="3">
         <v>8588400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>8064100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>7684600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>8087900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>7369800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>7013200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>6804300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>6456700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>6283100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>5769100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>5779600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>5868200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>5512100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>5316900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>5334300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>5168200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>5028700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>4918300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>4947200</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>5067600</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>4766300</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>4793500</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>4784300</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>4850200</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>4690300</v>
       </c>
     </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>6328300</v>
+      </c>
+      <c r="E61" s="3">
         <v>6339500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>6057400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>5840900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>4771300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>5455900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>5267900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>5427300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>5684400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>5669200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>5544500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>5588700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>5425200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>5206300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>5151900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>5111200</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>5156000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>5005900</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>4954700</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>5043500</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>4983000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>5081200</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>5152800</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>5151900</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>4997400</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>4924100</v>
       </c>
     </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>4116500</v>
+      </c>
+      <c r="E62" s="3">
         <v>3886000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>3786300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>3690400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>3726500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>3488000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>3620200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>3451900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>3454500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>3349500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>3221300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>3206700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>3183100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>891300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>894400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>894000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>858000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>832700</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>790300</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>743500</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>871600</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>840600</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>796100</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>793900</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>790100</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>772900</v>
       </c>
     </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4742,8 +4890,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4822,8 +4973,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4902,88 +5056,94 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>19153900</v>
+      </c>
+      <c r="E66" s="3">
         <v>18814000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>17907800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>17216000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>16585700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>16313700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>15901300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>15683600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>15595600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>15301800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>14534900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>14574900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>14476500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>11609800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>11363300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>11339500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>11182200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>10867300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>10663400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>10734300</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>10922200</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>10688200</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>10742500</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>10730100</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>10637800</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>10387300</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5012,8 +5172,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5092,8 +5253,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5172,8 +5336,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5252,8 +5419,11 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5332,88 +5502,94 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-790700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-1330100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-2138200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-2730700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>135400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-419800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-1205600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-1801800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-1008500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-1451000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-2191400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-2534300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-955000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-1305300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-1870600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-2276500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-864200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-1208800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-1623600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-1990300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-1361400</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-1642400</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-2076300</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-2408000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-1324100</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-1602200</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5492,8 +5668,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5572,8 +5751,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5652,88 +5834,94 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-3837900</v>
+      </c>
+      <c r="E76" s="3">
         <v>-3538900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-3387200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-3137500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-2124800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-1797500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-1763400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-1523600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-1027000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-878000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-1632700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-1711100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-1776100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-1713900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-1589500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-1594400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-1658600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-1520400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-1361600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-1330500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-1525100</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>-1428400</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>-1714200</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>-1827400</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>-1895200</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>-1787500</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5812,173 +6000,182 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44884</v>
+      </c>
+      <c r="E80" s="2">
         <v>44800</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44688</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44604</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44520</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44436</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44324</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44240</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44156</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44072</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43960</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43876</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43792</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43708</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43589</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43505</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43421</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43337</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43225</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43141</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43057</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42973</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42861</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42777</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42693</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42609</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>539300</v>
+      </c>
+      <c r="E81" s="3">
         <v>810000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>592600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>471800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>555200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>785800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>596200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>345900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>442400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>740500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>342900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>299300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>350300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>565200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>405900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>294600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>351400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>400300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>366700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>289500</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>281000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>433900</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>331700</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>237100</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>278100</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>426800</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6007,88 +6204,92 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>109300</v>
+      </c>
+      <c r="E83" s="3">
         <v>140900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>102100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>99700</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>99600</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>129600</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>94000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>94500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>89600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>125400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>91700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>90700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>89800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>118800</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>84900</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>83800</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>82500</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>108000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>79800</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>79400</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>78000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>103100</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>75300</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>72800</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>71800</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>93900</v>
       </c>
     </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6167,8 +6368,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6247,8 +6451,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6327,8 +6534,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6407,8 +6617,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6487,88 +6700,94 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>793600</v>
+      </c>
+      <c r="E89" s="3">
         <v>1228000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>843400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>361800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>777900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1288200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1190500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>356400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>683500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1417000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>651500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>204500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>447100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>841900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>469600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>367900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>449200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>823900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>504000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>187300</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>565000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>561400</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>445300</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>157400</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>406500</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>545800</v>
       </c>
     </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6597,88 +6816,92 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-114400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-303000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-161200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-105900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-102300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-246100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-373700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-2400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-183800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-83300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-89200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-101400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-182200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-118000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-97700</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-98200</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>326700</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-112400</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-104500</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-110300</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-195900</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-141800</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-118200</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-97900</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-377700</v>
       </c>
     </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6757,8 +6980,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6837,88 +7063,94 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-113900</v>
+      </c>
+      <c r="E94" s="3">
         <v>-287400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-149400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-120400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-91000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-243100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-130300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-118200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-110200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-250000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-73000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-84200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-90700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-206600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-109100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-84300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-91900</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-219200</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-72100</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-96000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-134700</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-194400</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-156500</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-103100</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-99700</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-189500</v>
       </c>
     </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6947,8 +7179,9 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7027,8 +7260,11 @@
       <c r="AB96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7107,8 +7343,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7187,8 +7426,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7267,244 +7509,256 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-675700</v>
+      </c>
+      <c r="E100" s="3">
         <v>-939700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-670900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-964000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-895900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-849200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-1110400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-877400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-663400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>68500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-209400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-127000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-375800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-630600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-381900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-345900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-315600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-607000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-500900</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-60600</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-463700</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-302500</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-275300</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-38600</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-297900</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-363800</v>
       </c>
     </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E101" s="3">
         <v>400</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>600</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>800</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-1200</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-200</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-400</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>1500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>3300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>6100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-12900</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>1500</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>1200</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-2500</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-200</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>5900</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-7400</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>1700</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-1200</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>100</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-2300</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>1600</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>3000</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-600</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>-3100</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E102" s="3">
         <v>1300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>23600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-721700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-210200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>195700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-50500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-637800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-86800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1241700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>356100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-5100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-18200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>2200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-21600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-56400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>34300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-70100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>30800</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-35600</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>66100</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>16500</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>15100</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>5800</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-23600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AZO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AZO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="92">
   <si>
     <t>AZO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,365 +665,378 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44968</v>
+      </c>
+      <c r="E7" s="2">
         <v>44884</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44800</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44688</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44604</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44520</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44436</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44324</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44240</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44156</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44072</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43960</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43876</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43792</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43708</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43589</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43505</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43421</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43337</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43225</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43141</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43057</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42973</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42861</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42777</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42693</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42609</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>3691000</v>
+      </c>
+      <c r="E8" s="3">
         <v>3985100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>5348400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>3865200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>3369800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>3668900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>4913500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>3651000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2910800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3154300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>4546000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2779300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2513700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2793000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>3988400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2783000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2450600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>2641700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>3558800</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>2660200</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>2413000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>2589100</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>3512600</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>2619000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>2289200</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>2467800</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>3398800</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1761000</v>
+      </c>
+      <c r="E9" s="3">
         <v>1990400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>2592500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1858800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1584500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1743700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>2345600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1736100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1351400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1478600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2133000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1288700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1147600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1292000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1858000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1291000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1125500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1224300</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1650900</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1237200</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>1136000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>1223300</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>1658500</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>1240600</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>1083700</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>1166300</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>1604000</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1930000</v>
+      </c>
+      <c r="E10" s="3">
         <v>1994700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>2755900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>2006400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1785300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1925200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>2567900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1914900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1559400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1675700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2413000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1490600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1366100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1501000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>2130400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1492000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1325100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1417400</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1907900</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1423000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>1277000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>1365800</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>1854100</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>1378400</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>1205500</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>1301500</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>1794800</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1053,8 +1066,9 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1136,8 +1150,11 @@
       <c r="AC12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1219,8 +1236,11 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1239,27 +1259,27 @@
       <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="3">
         <v>-3000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>6100</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>39900</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>8900</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>75000</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P14" s="3" t="s">
         <v>8</v>
       </c>
@@ -1272,8 +1292,8 @@
       <c r="S14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
+      <c r="T14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U14" s="3">
         <v>0</v>
@@ -1302,8 +1322,11 @@
       <c r="AC14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1328,8 +1351,8 @@
       <c r="J15" s="3">
         <v>0</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>8</v>
+      <c r="K15" s="3">
+        <v>0</v>
       </c>
       <c r="L15" s="3" t="s">
         <v>8</v>
@@ -1346,47 +1369,50 @@
       <c r="P15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="Q15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R15" s="3">
         <v>118800</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>84900</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>83800</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>82500</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>108000</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>79800</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>79400</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>78000</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>103100</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>75300</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>72800</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AC15" s="3">
         <v>71800</v>
       </c>
-      <c r="AC15" s="3">
+      <c r="AD15" s="3">
         <v>93900</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1413,174 +1439,181 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3021000</v>
+      </c>
+      <c r="E17" s="3">
         <v>3262000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>4244500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>3079600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2743000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2914400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>3869500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2847500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2429100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2539000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3527900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2287600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2105700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2293000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>3207700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2235500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2050500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2153900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2967500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>2114400</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>2207900</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>2120400</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>2805000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>2089400</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>1905300</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>2008900</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>2695400</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>670000</v>
+      </c>
+      <c r="E18" s="3">
         <v>723100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>1103900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>785600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>626800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>754500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>1044000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>803500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>481700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>615300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1018100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>491700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>408000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>500000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>780700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>547500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>400100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>487800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>591300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>545800</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>205100</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>468700</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>707600</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>529600</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>384000</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>458900</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>703400</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1610,174 +1643,181 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-65600</v>
+      </c>
+      <c r="E20" s="3">
         <v>-57800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-64000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-41900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-42500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-43300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-58100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-45000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-45300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-45500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-64900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-46500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-43100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-42300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-61200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-43200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-41400</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-39000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-54400</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-42000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-39300</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-38900</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-51400</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-35700</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-34200</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-33300</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>-45800</v>
       </c>
     </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>718100</v>
+      </c>
+      <c r="E21" s="3">
         <v>774600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>1180700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>845900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>684000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>810800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1115500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>852500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>530900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>659300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1078500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>536900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>455600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>547400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>838400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>589200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>442400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>531300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>644900</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>583600</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>245100</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>507900</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>759300</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>569200</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>422600</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>497400</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>751500</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1802,27 +1842,27 @@
       <c r="J22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K22" s="3">
-        <v>700</v>
+      <c r="K22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L22" s="3">
         <v>700</v>
       </c>
       <c r="M22" s="3">
+        <v>700</v>
+      </c>
+      <c r="N22" s="3">
         <v>800</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>900</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>1300</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>1400</v>
       </c>
-      <c r="Q22" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R22" s="3" t="s">
         <v>8</v>
       </c>
@@ -1838,8 +1878,8 @@
       <c r="V22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W22" s="3">
-        <v>0</v>
+      <c r="W22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="X22" s="3">
         <v>0</v>
@@ -1859,174 +1899,183 @@
       <c r="AC22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>604400</v>
+      </c>
+      <c r="E23" s="3">
         <v>665300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1039800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>743800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>584300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>711200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>985900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>758500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>435800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>569000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>952400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>444200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>363600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>456300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>719600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>504300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>358700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>448800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>536900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>503800</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>165800</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>429900</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>656200</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>493900</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>349800</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>425600</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>657600</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>127800</v>
+      </c>
+      <c r="E24" s="3">
         <v>126000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>229800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>151200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>112500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>156000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>200100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>162300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>89800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>126600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>212000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>101300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>64300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>105900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>51300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>201400</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>72800</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>97400</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>156800</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>136500</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>47600</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>148900</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>222300</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>162200</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>112600</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>147500</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>230800</v>
       </c>
     </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2108,174 +2157,183 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>476500</v>
+      </c>
+      <c r="E26" s="3">
         <v>539300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>810000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>592600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>471800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>555200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>785800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>596200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>345900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>442400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>740500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>342900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>299300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>350300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>668300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>302800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>285800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>351400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>380100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>367300</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>118100</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>281000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>433900</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>331700</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>237100</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>278100</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>426800</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>476500</v>
+      </c>
+      <c r="E27" s="3">
         <v>539300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>810000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>592600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>471800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>555200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>785800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>596200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>345900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>442400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>740500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>342900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>299300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>350300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>668300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>302800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>285800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>351400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>380100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>367300</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>118100</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>281000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>433900</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>331700</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>237100</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>278100</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>426800</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2357,8 +2415,11 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2383,8 +2444,8 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>8</v>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>8</v>
@@ -2401,30 +2462,30 @@
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="Q29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R29" s="3">
         <v>-103100</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>103100</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>8800</v>
       </c>
-      <c r="T29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U29" s="3">
+      <c r="U29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V29" s="3">
         <v>20200</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>-600</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>171400</v>
       </c>
-      <c r="X29" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Y29" s="3" t="s">
         <v>8</v>
       </c>
@@ -2440,8 +2501,11 @@
       <c r="AC29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2523,8 +2587,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2606,174 +2673,183 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>65600</v>
+      </c>
+      <c r="E32" s="3">
         <v>57800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>64000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>41900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>42500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>43300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>58100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>45000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>45300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>45500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>64900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>46500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>43100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>42300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>61200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>43200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>41400</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>39000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>54400</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>42000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>39300</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>38900</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>51400</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>35700</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>34200</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>33300</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>45800</v>
       </c>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>476500</v>
+      </c>
+      <c r="E33" s="3">
         <v>539300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>810000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>592600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>471800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>555200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>785800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>596200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>345900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>442400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>740500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>342900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>299300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>350300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>565200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>405900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>294600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>351400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>400300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>366700</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>289500</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>281000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>433900</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>331700</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>237100</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>278100</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>426800</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2855,179 +2931,188 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>476500</v>
+      </c>
+      <c r="E35" s="3">
         <v>539300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>810000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>592600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>471800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>555200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>785800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>596200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>345900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>442400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>740500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>342900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>299300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>350300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>565200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>405900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>294600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>351400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>400300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>366700</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>289500</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>281000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>433900</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>331700</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>237100</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>278100</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>426800</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44968</v>
+      </c>
+      <c r="E38" s="2">
         <v>44884</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44800</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44688</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44604</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44520</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44436</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44324</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44240</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44156</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44072</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43960</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43876</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43792</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43708</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43589</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43505</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43421</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43337</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43225</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43141</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43057</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42973</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42861</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42777</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42693</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42609</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3057,8 +3142,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3088,91 +3174,95 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>301300</v>
+      </c>
+      <c r="E41" s="3">
         <v>269800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>264400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>263000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>239400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>961100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1171300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>975600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1026200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1664000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1750800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>509100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>153000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>158100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>176300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>174100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>195700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>252100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>217800</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>218400</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>288500</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>257700</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>293300</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>227100</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>210600</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>195500</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>189700</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3254,340 +3344,355 @@
       <c r="AC42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>484800</v>
+      </c>
+      <c r="E43" s="3">
         <v>501800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>504900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>439800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>405600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>379300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>378400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>359700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>352500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>350900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>364800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>266900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>340300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>333200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>309000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>281600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>298300</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>275200</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>258100</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>261300</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>282500</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>272500</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>280700</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>276100</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>246900</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>270800</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>287700</v>
       </c>
     </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>5731300</v>
+      </c>
+      <c r="E44" s="3">
         <v>5607700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>5638000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>5313100</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>5031200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>4768300</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>4639800</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>4665500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>4736800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>4628300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>4473300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>4440600</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>4606200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>4463100</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>4319100</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>4325700</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>4305500</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>4090400</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>3943700</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>4005800</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>4085500</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>4012100</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>3882100</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>3861100</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>3902100</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>3773200</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>3631900</v>
       </c>
     </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>277500</v>
+      </c>
+      <c r="E45" s="3">
         <v>253800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>220700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>238700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>227500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>240500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>225800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>223600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>211300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>193500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>223000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>181400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>201100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>202500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>224300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>190000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>197600</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>196700</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>216200</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>185800</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>169700</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>175000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>155200</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>142900</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>133100</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>129100</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>130200</v>
       </c>
     </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>6794800</v>
+      </c>
+      <c r="E46" s="3">
         <v>6633100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>6628000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>6254700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>5903800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>6349100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>6415300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>6224400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>6326800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>6836800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>6811900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>5398000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>5300500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>5157000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>5028700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>4971300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>4997100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>4814300</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>4635900</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>4671300</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>4826300</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>4717200</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>4611300</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>4507200</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>4492800</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>4368700</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>4239600</v>
       </c>
     </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3669,91 +3774,97 @@
       <c r="AC47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>8180000</v>
+      </c>
+      <c r="E48" s="3">
         <v>8116700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>8089200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>7736300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>7622900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>7575500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>7575600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>7378000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>7288700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>7193000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>7090900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>6998400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>7055600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>7035800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>4398800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>4324900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>4269900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>4228800</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>4218400</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>4123000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>4081300</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>4061000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>4031000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>3904200</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>3803800</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>3750500</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>3733300</v>
       </c>
     </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3785,58 +3896,61 @@
         <v>302600</v>
       </c>
       <c r="M49" s="3">
+        <v>302600</v>
+      </c>
+      <c r="N49" s="3">
         <v>304100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>305400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>306300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>307300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>308300</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>309500</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>310500</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>311500</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>312400</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>324800</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>326700</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>443000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>444400</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>447000</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>448900</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>450900</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>452900</v>
       </c>
     </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3918,8 +4032,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4001,91 +4118,97 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>267700</v>
+      </c>
+      <c r="E52" s="3">
         <v>263500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>255200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>226900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>249200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>233700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>222600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>232900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>241800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>236100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>217000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>200300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>201200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>200400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>160200</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>167900</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>167600</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>169000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>180300</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>182700</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>169400</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>176000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>173100</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>169900</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>157200</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>172500</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>174100</v>
       </c>
     </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4167,91 +4290,97 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>15545100</v>
+      </c>
+      <c r="E54" s="3">
         <v>15315900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>15275000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>14520600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>14078500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>14460900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>14516200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>14137900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>14160000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>14568600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>14423900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>12902100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>12863700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>12700500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>9895900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>9773700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>9745100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>9523600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>9347000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>9301800</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>9403700</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>9397100</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>9259800</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>9028300</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>8902600</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>8742500</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>8599800</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4281,8 +4410,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4312,136 +4442,140 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>7321600</v>
+      </c>
+      <c r="E57" s="3">
         <v>7346000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>7301300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>6793200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>6378600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>6171300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>6013900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>5778200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>5351100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>5282300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>5156300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>4806300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>4869900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>4922100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>4864900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>4693100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>4669600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>4455300</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>4409400</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>4296700</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>4365700</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>4326700</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>4168900</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>4140700</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>4115000</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>4162300</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>4095900</v>
       </c>
     </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E58" s="3">
+      <c r="E58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F58" s="3">
         <v>92900</v>
       </c>
-      <c r="F58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H58" s="3">
+      <c r="H58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I58" s="3">
         <v>500000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>89900</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K58" s="3">
+      <c r="K58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L58" s="3">
         <v>314500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>63400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>67500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>58000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>58900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>57800</v>
       </c>
-      <c r="Q58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R58" s="3" t="s">
         <v>8</v>
       </c>
@@ -4457,8 +4591,8 @@
       <c r="V58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W58" s="3">
-        <v>0</v>
+      <c r="W58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="X58" s="3">
         <v>0</v>
@@ -4478,340 +4612,355 @@
       <c r="AC58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1293100</v>
+      </c>
+      <c r="E59" s="3">
         <v>1363000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1194200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1270900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1306000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1416500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1265900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1235000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1138700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1111000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1059300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>904700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>850800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>888300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>647200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>623800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>664700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>712800</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>619300</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>621700</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>581600</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>740900</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>597400</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>652900</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>669300</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>687900</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>594500</v>
       </c>
     </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>8614600</v>
+      </c>
+      <c r="E60" s="3">
         <v>8709000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>8588400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>8064100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>7684600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>8087900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>7369800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>7013200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>6804300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>6456700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>6283100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>5769100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>5779600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>5868200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>5512100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>5316900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>5334300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>5168200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>5028700</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>4918300</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>4947200</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>5067600</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>4766300</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>4793500</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>4784300</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>4850200</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>4690300</v>
       </c>
     </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>7042300</v>
+      </c>
+      <c r="E61" s="3">
         <v>6328300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>6339500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>6057400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>5840900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>4771300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>5455900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>5267900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>5427300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>5684400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>5669200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>5544500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>5588700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>5425200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>5206300</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>5151900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>5111200</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>5156000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>5005900</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>4954700</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>5043500</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>4983000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>5081200</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>5152800</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>5151900</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>4997400</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>4924100</v>
       </c>
     </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>4072400</v>
+      </c>
+      <c r="E62" s="3">
         <v>4116500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>3886000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>3786300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>3690400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>3726500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>3488000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>3620200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>3451900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>3454500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>3349500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>3221300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>3206700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>3183100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>891300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>894400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>894000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>858000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>832700</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>790300</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>743500</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>871600</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>840600</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>796100</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>793900</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>790100</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>772900</v>
       </c>
     </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4893,8 +5042,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4976,8 +5128,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5059,91 +5214,97 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>19729300</v>
+      </c>
+      <c r="E66" s="3">
         <v>19153900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>18814000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>17907800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>17216000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>16585700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>16313700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>15901300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>15683600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>15595600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>15301800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>14534900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>14574900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>14476500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>11609800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>11363300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>11339500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>11182200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>10867300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>10663400</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>10734300</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>10922200</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>10688200</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>10742500</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>10730100</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>10637800</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>10387300</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5173,8 +5334,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5256,8 +5418,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5339,8 +5504,11 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5422,8 +5590,11 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5505,91 +5676,97 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-4471800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-790700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-1330100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-2138200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-2730700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>135400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-419800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-1205600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-1801800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-1008500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-1451000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-2191400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-2534300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-955000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-1305300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-1870600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-2276500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-864200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-1208800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-1623600</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-1990300</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-1361400</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-1642400</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-2076300</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-2408000</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-1324100</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>-1602200</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5671,8 +5848,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5754,8 +5934,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5837,91 +6020,97 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-4184200</v>
+      </c>
+      <c r="E76" s="3">
         <v>-3837900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-3538900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-3387200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-3137500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-2124800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-1797500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-1763400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-1523600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-1027000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-878000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-1632700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-1711100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-1776100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-1713900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-1589500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-1594400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-1658600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-1520400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-1361600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-1330500</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>-1525100</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>-1428400</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>-1714200</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>-1827400</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>-1895200</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>-1787500</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6003,179 +6192,188 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44968</v>
+      </c>
+      <c r="E80" s="2">
         <v>44884</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44800</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44688</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44604</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44520</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44436</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44324</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44240</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44156</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44072</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43960</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43876</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43792</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43708</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43589</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43505</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43421</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43337</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43225</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43141</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43057</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42973</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42861</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42777</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42693</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42609</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>476500</v>
+      </c>
+      <c r="E81" s="3">
         <v>539300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>810000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>592600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>471800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>555200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>785800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>596200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>345900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>442400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>740500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>342900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>299300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>350300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>565200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>405900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>294600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>351400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>400300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>366700</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>289500</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>281000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>433900</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>331700</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>237100</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>278100</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>426800</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6205,91 +6403,95 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>113700</v>
+      </c>
+      <c r="E83" s="3">
         <v>109300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>140900</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>102100</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>99700</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>99600</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>129600</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>94000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>94500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>89600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>125400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>91700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>90700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>89800</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>118800</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>84900</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>83800</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>82500</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>108000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>79800</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>79400</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>78000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>103100</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>75300</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>72800</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>71800</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>93900</v>
       </c>
     </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6371,8 +6573,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6454,8 +6659,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6537,8 +6745,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6620,8 +6831,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6703,91 +6917,97 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>354500</v>
+      </c>
+      <c r="E89" s="3">
         <v>793600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>1228000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>843400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>361800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>777900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1288200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1190500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>356400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>683500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1417000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>651500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>204500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>447100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>841900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>469600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>367900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>449200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>823900</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>504000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>187300</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>565000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>561400</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>445300</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>157400</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>406500</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>545800</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6817,91 +7037,95 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-144800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-114400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-303000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-161200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-105900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-102300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-246100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-373700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-2400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-183800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-83300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-89200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-101400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-182200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-118000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-97700</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-98200</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>326700</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-112400</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-104500</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-110300</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-195900</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-141800</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-118200</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-97900</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-377700</v>
       </c>
     </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6983,8 +7207,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7066,91 +7293,97 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-156100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-113900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-287400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-149400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-120400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-91000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-243100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-130300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-118200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-110200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-250000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-73000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-84200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-90700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-206600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-109100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-84300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-91900</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-219200</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-72100</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-96000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-134700</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-194400</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-156500</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-103100</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-99700</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-189500</v>
       </c>
     </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7180,8 +7413,9 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7263,8 +7497,11 @@
       <c r="AC96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7346,8 +7583,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7429,8 +7669,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7512,253 +7755,265 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-169100</v>
+      </c>
+      <c r="E100" s="3">
         <v>-675700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-939700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-670900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-964000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-895900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-849200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-1110400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-877400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-663400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>68500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-209400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-127000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-375800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-630600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-381900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-345900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-315600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-607000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-500900</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-60600</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-463700</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-302500</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-275300</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-38600</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-297900</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-363800</v>
       </c>
     </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E101" s="3">
         <v>1400</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>400</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>600</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>800</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-1200</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>1500</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>3300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>6100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-12900</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>1500</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>1200</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-2500</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-200</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>5900</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-7400</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>1700</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-1200</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>100</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-2300</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>1600</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>3000</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>-600</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>-3100</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>31500</v>
+      </c>
+      <c r="E102" s="3">
         <v>5400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>1300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>23600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-721700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-210200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>195700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-50500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-637800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-86800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1241700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>356100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-5100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-18200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>2200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-21600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-56400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>34300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-600</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-70100</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>30800</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-35600</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>66100</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>16500</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>15100</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>5800</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-23600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AZO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AZO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="92">
   <si>
     <t>AZO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,378 +665,390 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45052</v>
+      </c>
+      <c r="E7" s="2">
         <v>44968</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44884</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44800</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44688</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44604</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44520</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44436</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44324</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44240</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44156</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44072</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43960</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43876</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43792</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43708</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43589</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43505</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43421</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43337</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43225</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43141</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43057</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42973</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42861</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42777</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42693</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42609</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>4090500</v>
+      </c>
+      <c r="E8" s="3">
         <v>3691000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>3985100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>5348400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>3865200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>3369800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>3668900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>4913500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3651000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2910800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3154300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>4546000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2779300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2513700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2793000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>3988400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2783000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>2450600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>2641700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>3558800</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>2660200</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>2413000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>2589100</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>3512600</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>2619000</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>2289200</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>2467800</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>3398800</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1944400</v>
+      </c>
+      <c r="E9" s="3">
         <v>1761000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1990400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>2592500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1858800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1584500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1743700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>2345600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1736100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1351400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1478600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2133000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1288700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1147600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1292000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1858000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1291000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1125500</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1224300</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1650900</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>1237200</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>1136000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>1223300</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>1658500</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>1240600</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>1083700</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>1166300</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>1604000</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>2146100</v>
+      </c>
+      <c r="E10" s="3">
         <v>1930000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1994700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>2755900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>2006400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1785300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1925200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>2567900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1914900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1559400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1675700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>2413000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1490600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1366100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1501000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>2130400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1492000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1325100</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1417400</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1907900</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>1423000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>1277000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>1365800</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>1854100</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>1378400</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>1205500</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>1301500</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>1794800</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1067,8 +1079,9 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1153,8 +1166,11 @@
       <c r="AD12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1239,8 +1255,11 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1262,27 +1281,27 @@
       <c r="I14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K14" s="3">
         <v>-3000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>6100</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>39900</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>8900</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>75000</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q14" s="3" t="s">
         <v>8</v>
       </c>
@@ -1295,8 +1314,8 @@
       <c r="T14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
+      <c r="U14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V14" s="3">
         <v>0</v>
@@ -1325,8 +1344,11 @@
       <c r="AD14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1354,8 +1376,8 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-      <c r="L15" s="3" t="s">
-        <v>8</v>
+      <c r="L15" s="3">
+        <v>0</v>
       </c>
       <c r="M15" s="3" t="s">
         <v>8</v>
@@ -1372,47 +1394,50 @@
       <c r="Q15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R15" s="3">
+      <c r="R15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S15" s="3">
         <v>118800</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>84900</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>83800</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>82500</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>108000</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>79800</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>79400</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>78000</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>103100</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>75300</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AC15" s="3">
         <v>72800</v>
       </c>
-      <c r="AC15" s="3">
+      <c r="AD15" s="3">
         <v>71800</v>
       </c>
-      <c r="AD15" s="3">
+      <c r="AE15" s="3">
         <v>93900</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1440,180 +1465,187 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3232100</v>
+      </c>
+      <c r="E17" s="3">
         <v>3021000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>3262000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>4244500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>3079600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2743000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2914400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>3869500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2847500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2429100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2539000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3527900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2287600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2105700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2293000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>3207700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2235500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2050500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2153900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>2967500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>2114400</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>2207900</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>2120400</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>2805000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>2089400</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>1905300</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>2008900</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>2695400</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>858400</v>
+      </c>
+      <c r="E18" s="3">
         <v>670000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>723100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>1103900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>785600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>626800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>754500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>1044000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>803500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>481700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>615300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1018100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>491700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>408000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>500000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>780700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>547500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>400100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>487800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>591300</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>545800</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>205100</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>468700</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>707600</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>529600</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>384000</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>458900</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>703400</v>
       </c>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1644,180 +1676,187 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-74300</v>
+      </c>
+      <c r="E20" s="3">
         <v>-65600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-57800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-64000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-41900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-42500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-43300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-58100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-45000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-45300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-45500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-64900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-46500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-43100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-42300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-61200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-43200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-41400</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-39000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-54400</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-42000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-39300</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-38900</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-51400</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-35700</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-34200</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>-33300</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>-45800</v>
       </c>
     </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>900300</v>
+      </c>
+      <c r="E21" s="3">
         <v>718100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>774600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1180700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>845900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>684000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>810800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1115500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>852500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>530900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>659300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1078500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>536900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>455600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>547400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>838400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>589200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>442400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>531300</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>644900</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>583600</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>245100</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>507900</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>759300</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>569200</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>422600</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>497400</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>751500</v>
       </c>
     </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1845,27 +1884,27 @@
       <c r="K22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L22" s="3">
-        <v>700</v>
+      <c r="L22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M22" s="3">
         <v>700</v>
       </c>
       <c r="N22" s="3">
+        <v>700</v>
+      </c>
+      <c r="O22" s="3">
         <v>800</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>900</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>1300</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>1400</v>
       </c>
-      <c r="R22" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S22" s="3" t="s">
         <v>8</v>
       </c>
@@ -1881,8 +1920,8 @@
       <c r="W22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X22" s="3">
-        <v>0</v>
+      <c r="X22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Y22" s="3">
         <v>0</v>
@@ -1902,180 +1941,189 @@
       <c r="AD22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>784200</v>
+      </c>
+      <c r="E23" s="3">
         <v>604400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>665300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1039800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>743800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>584300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>711200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>985900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>758500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>435800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>569000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>952400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>444200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>363600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>456300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>719600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>504300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>358700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>448800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>536900</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>503800</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>165800</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>429900</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>656200</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>493900</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>349800</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>425600</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>657600</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>136400</v>
+      </c>
+      <c r="E24" s="3">
         <v>127800</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>126000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>229800</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>151200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>112500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>156000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>200100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>162300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>89800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>126600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>212000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>101300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>64300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>105900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>51300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>201400</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>72800</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>97400</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>156800</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>136500</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>47600</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>148900</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>222300</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>162200</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>112600</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>147500</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>230800</v>
       </c>
     </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2160,180 +2208,189 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>647700</v>
+      </c>
+      <c r="E26" s="3">
         <v>476500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>539300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>810000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>592600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>471800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>555200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>785800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>596200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>345900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>442400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>740500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>342900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>299300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>350300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>668300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>302800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>285800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>351400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>380100</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>367300</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>118100</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>281000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>433900</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>331700</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>237100</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>278100</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>426800</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>647700</v>
+      </c>
+      <c r="E27" s="3">
         <v>476500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>539300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>810000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>592600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>471800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>555200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>785800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>596200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>345900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>442400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>740500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>342900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>299300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>350300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>668300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>302800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>285800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>351400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>380100</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>367300</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>118100</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>281000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>433900</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>331700</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>237100</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>278100</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>426800</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2418,8 +2475,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2447,8 +2507,8 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>8</v>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>8</v>
@@ -2465,30 +2525,30 @@
       <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R29" s="3">
+      <c r="R29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S29" s="3">
         <v>-103100</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>103100</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>8800</v>
       </c>
-      <c r="U29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V29" s="3">
+      <c r="V29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W29" s="3">
         <v>20200</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>-600</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Y29" s="3">
         <v>171400</v>
       </c>
-      <c r="Y29" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Z29" s="3" t="s">
         <v>8</v>
       </c>
@@ -2504,8 +2564,11 @@
       <c r="AD29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2590,8 +2653,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2676,180 +2742,189 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>74300</v>
+      </c>
+      <c r="E32" s="3">
         <v>65600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>57800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>64000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>41900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>42500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>43300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>58100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>45000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>45300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>45500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>64900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>46500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>43100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>42300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>61200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>43200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>41400</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>39000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>54400</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>42000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>39300</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>38900</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>51400</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>35700</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>34200</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>33300</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>45800</v>
       </c>
     </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>647700</v>
+      </c>
+      <c r="E33" s="3">
         <v>476500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>539300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>810000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>592600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>471800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>555200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>785800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>596200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>345900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>442400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>740500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>342900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>299300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>350300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>565200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>405900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>294600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>351400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>400300</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>366700</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>289500</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>281000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>433900</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>331700</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>237100</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>278100</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>426800</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2934,185 +3009,194 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>647700</v>
+      </c>
+      <c r="E35" s="3">
         <v>476500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>539300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>810000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>592600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>471800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>555200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>785800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>596200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>345900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>442400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>740500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>342900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>299300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>350300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>565200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>405900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>294600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>351400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>400300</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>366700</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>289500</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>281000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>433900</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>331700</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>237100</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>278100</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>426800</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45052</v>
+      </c>
+      <c r="E38" s="2">
         <v>44968</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44884</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44800</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44688</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44604</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44520</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44436</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44324</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44240</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44156</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44072</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43960</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43876</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43792</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43708</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43589</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43505</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43421</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43337</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43225</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43141</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43057</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42973</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42861</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42777</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42693</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42609</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3143,8 +3227,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3175,94 +3260,98 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>274900</v>
+      </c>
+      <c r="E41" s="3">
         <v>301300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>269800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>264400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>263000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>239400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>961100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1171300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>975600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1026200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1664000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1750800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>509100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>153000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>158100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>176300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>174100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>195700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>252100</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>217800</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>218400</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>288500</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>257700</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>293300</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>227100</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>210600</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>195500</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>189700</v>
       </c>
     </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3347,352 +3436,367 @@
       <c r="AD42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>471000</v>
+      </c>
+      <c r="E43" s="3">
         <v>484800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>501800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>504900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>439800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>405600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>379300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>378400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>359700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>352500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>350900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>364800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>266900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>340300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>333200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>309000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>281600</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>298300</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>275200</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>258100</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>261300</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>282500</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>272500</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>280700</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>276100</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>246900</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>270800</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>287700</v>
       </c>
     </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>5703700</v>
+      </c>
+      <c r="E44" s="3">
         <v>5731300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>5607700</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>5638000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>5313100</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>5031200</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>4768300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>4639800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>4665500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>4736800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>4628300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>4473300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>4440600</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>4606200</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>4463100</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>4319100</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>4325700</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>4305500</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>4090400</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>3943700</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>4005800</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>4085500</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>4012100</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>3882100</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>3861100</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>3902100</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>3773200</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>3631900</v>
       </c>
     </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>259300</v>
+      </c>
+      <c r="E45" s="3">
         <v>277500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>253800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>220700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>238700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>227500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>240500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>225800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>223600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>211300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>193500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>223000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>181400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>201100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>202500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>224300</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>190000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>197600</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>196700</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>216200</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>185800</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>169700</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>175000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>155200</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>142900</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>133100</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>129100</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>130200</v>
       </c>
     </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>6708900</v>
+      </c>
+      <c r="E46" s="3">
         <v>6794800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>6633100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>6628000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>6254700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>5903800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>6349100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>6415300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>6224400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>6326800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>6836800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>6811900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>5398000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>5300500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>5157000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>5028700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>4971300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>4997100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>4814300</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>4635900</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>4671300</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>4826300</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>4717200</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>4611300</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>4507200</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>4492800</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>4368700</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>4239600</v>
       </c>
     </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3777,94 +3881,100 @@
       <c r="AD47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>8293500</v>
+      </c>
+      <c r="E48" s="3">
         <v>8180000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>8116700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>8089200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>7736300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>7622900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>7575500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>7575600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>7378000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>7288700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>7193000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>7090900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>6998400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>7055600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>7035800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>4398800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>4324900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>4269900</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>4228800</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>4218400</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>4123000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>4081300</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>4061000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>4031000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>3904200</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>3803800</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>3750500</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>3733300</v>
       </c>
     </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3899,58 +4009,61 @@
         <v>302600</v>
       </c>
       <c r="N49" s="3">
+        <v>302600</v>
+      </c>
+      <c r="O49" s="3">
         <v>304100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>305400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>306300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>307300</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>308300</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>309500</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>310500</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>311500</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>312400</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>324800</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>326700</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>443000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>444400</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>447000</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>448900</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>450900</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>452900</v>
       </c>
     </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4035,8 +4148,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4121,94 +4237,100 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>292900</v>
+      </c>
+      <c r="E52" s="3">
         <v>267700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>263500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>255200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>226900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>249200</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>233700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>222600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>232900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>241800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>236100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>217000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>200300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>201200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>200400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>160200</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>167900</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>167600</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>169000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>180300</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>182700</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>169400</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>176000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>173100</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>169900</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>157200</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>172500</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>174100</v>
       </c>
     </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4293,94 +4415,100 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>15597900</v>
+      </c>
+      <c r="E54" s="3">
         <v>15545100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>15315900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>15275000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>14520600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>14078500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>14460900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>14516200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>14137900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>14160000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>14568600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>14423900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>12902100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>12863700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>12700500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>9895900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>9773700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>9745100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>9523600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>9347000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>9301800</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>9403700</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>9397100</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>9259800</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>9028300</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>8902600</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>8742500</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>8599800</v>
       </c>
     </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4411,8 +4539,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4443,94 +4572,98 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>7215600</v>
+      </c>
+      <c r="E57" s="3">
         <v>7321600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>7346000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>7301300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>6793200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>6378600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>6171300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>6013900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>5778200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>5351100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>5282300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>5156300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>4806300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>4869900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>4922100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>4864900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>4693100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>4669600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>4455300</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>4409400</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>4296700</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>4365700</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>4326700</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>4168900</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>4140700</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>4115000</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>4162300</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>4095900</v>
       </c>
     </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4540,45 +4673,45 @@
       <c r="E58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F58" s="3">
+      <c r="F58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G58" s="3">
         <v>92900</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I58" s="3">
+      <c r="I58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J58" s="3">
         <v>500000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>89900</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L58" s="3">
+      <c r="L58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M58" s="3">
         <v>314500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>63400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>67500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>58000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>58900</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>57800</v>
       </c>
-      <c r="R58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S58" s="3" t="s">
         <v>8</v>
       </c>
@@ -4594,8 +4727,8 @@
       <c r="W58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X58" s="3">
-        <v>0</v>
+      <c r="X58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Y58" s="3">
         <v>0</v>
@@ -4615,352 +4748,367 @@
       <c r="AD58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1249400</v>
+      </c>
+      <c r="E59" s="3">
         <v>1293100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1363000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1194200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1270900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1306000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1416500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1265900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1235000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1138700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1111000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1059300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>904700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>850800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>888300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>647200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>623800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>664700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>712800</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>619300</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>621700</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>581600</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>740900</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>597400</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>652900</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>669300</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>687900</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>594500</v>
       </c>
     </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>8464900</v>
+      </c>
+      <c r="E60" s="3">
         <v>8614600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>8709000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>8588400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>8064100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>7684600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>8087900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>7369800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>7013200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>6804300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>6456700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>6283100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>5769100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>5779600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>5868200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>5512100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>5316900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>5334300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>5168200</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>5028700</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>4918300</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>4947200</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>5067600</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>4766300</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>4793500</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>4784300</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>4850200</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>4690300</v>
       </c>
     </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>7340500</v>
+      </c>
+      <c r="E61" s="3">
         <v>7042300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>6328300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>6339500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>6057400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>5840900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>4771300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>5455900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>5267900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>5427300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>5684400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>5669200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>5544500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>5588700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>5425200</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>5206300</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>5151900</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>5111200</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>5156000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>5005900</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>4954700</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>5043500</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>4983000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>5081200</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>5152800</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>5151900</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>4997400</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>4924100</v>
       </c>
     </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>4094100</v>
+      </c>
+      <c r="E62" s="3">
         <v>4072400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>4116500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>3886000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>3786300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>3690400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>3726500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>3488000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>3620200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>3451900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>3454500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>3349500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>3221300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>3206700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>3183100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>891300</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>894400</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>894000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>858000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>832700</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>790300</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>743500</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>871600</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>840600</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>796100</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>793900</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>790100</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>772900</v>
       </c>
     </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5045,8 +5193,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5131,8 +5282,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5217,94 +5371,100 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>19899500</v>
+      </c>
+      <c r="E66" s="3">
         <v>19729300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>19153900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>18814000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>17907800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>17216000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>16585700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>16313700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>15901300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>15683600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>15595600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>15301800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>14534900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>14574900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>14476500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>11609800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>11363300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>11339500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>11182200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>10867300</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>10663400</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>10734300</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>10922200</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>10688200</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>10742500</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>10730100</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>10637800</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>10387300</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5335,8 +5495,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5421,8 +5582,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5507,8 +5671,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5593,8 +5760,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5679,94 +5849,100 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-3824100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-4471800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-790700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-1330100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-2138200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-2730700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>135400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-419800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-1205600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-1801800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-1008500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-1451000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-2191400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-2534300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-955000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-1305300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-1870600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-2276500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-864200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-1208800</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-1623600</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-1990300</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-1361400</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-1642400</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-2076300</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-2408000</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>-1324100</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>-1602200</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5851,8 +6027,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5937,8 +6116,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6023,94 +6205,100 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-4301600</v>
+      </c>
+      <c r="E76" s="3">
         <v>-4184200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-3837900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-3538900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-3387200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-3137500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-2124800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-1797500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-1763400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-1523600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-1027000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-878000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-1632700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-1711100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-1776100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-1713900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-1589500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-1594400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-1658600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-1520400</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-1361600</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>-1330500</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>-1525100</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>-1428400</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>-1714200</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>-1827400</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>-1895200</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>-1787500</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6195,185 +6383,194 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45052</v>
+      </c>
+      <c r="E80" s="2">
         <v>44968</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44884</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44800</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44688</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44604</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44520</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44436</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44324</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44240</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44156</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44072</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43960</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43876</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43792</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43708</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43589</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43505</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43421</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43337</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43225</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43141</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43057</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42973</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42861</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42777</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42693</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42609</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>647700</v>
+      </c>
+      <c r="E81" s="3">
         <v>476500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>539300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>810000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>592600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>471800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>555200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>785800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>596200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>345900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>442400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>740500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>342900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>299300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>350300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>565200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>405900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>294600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>351400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>400300</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>366700</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>289500</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>281000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>433900</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>331700</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>237100</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>278100</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>426800</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6404,94 +6601,98 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>116100</v>
+      </c>
+      <c r="E83" s="3">
         <v>113700</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>109300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>140900</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>102100</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>99700</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>99600</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>129600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>94000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>94500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>89600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>125400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>91700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>90700</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>89800</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>118800</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>84900</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>83800</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>82500</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>108000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>79800</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>79400</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>78000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>103100</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>75300</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>72800</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>71800</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>93900</v>
       </c>
     </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6576,8 +6777,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6662,8 +6866,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6748,8 +6955,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6834,8 +7044,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6920,94 +7133,100 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>724700</v>
+      </c>
+      <c r="E89" s="3">
         <v>354500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>793600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>1228000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>843400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>361800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>777900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1288200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1190500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>356400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>683500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1417000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>651500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>204500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>447100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>841900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>469600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>367900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>449200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>823900</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>504000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>187300</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>565000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>561400</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>445300</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>157400</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>406500</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>545800</v>
       </c>
     </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7038,94 +7257,98 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-171200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-144800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-114400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-303000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-161200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-105900</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-102300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-246100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-373700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-2400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-183800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-83300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-89200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-101400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-182200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-118000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-97700</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-98200</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>326700</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-112400</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-104500</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-110300</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-195900</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-141800</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-118200</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-97900</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-377700</v>
       </c>
     </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7210,8 +7433,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7296,94 +7522,100 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-209000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-156100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-113900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-287400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-149400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-120400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-91000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-243100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-130300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-118200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-110200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-250000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-73000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-84200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-90700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-206600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-109100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-84300</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-91900</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-219200</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-72100</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-96000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-134700</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-194400</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-156500</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-103100</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-99700</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-189500</v>
       </c>
     </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7414,8 +7646,9 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7500,8 +7733,11 @@
       <c r="AD96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7586,8 +7822,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7672,8 +7911,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7758,262 +8000,274 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-543600</v>
+      </c>
+      <c r="E100" s="3">
         <v>-169100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-675700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-939700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-670900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-964000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-895900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-849200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1110400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-877400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-663400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>68500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-209400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-127000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-375800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-630600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-381900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-345900</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-315600</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-607000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-500900</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-60600</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-463700</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-302500</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-275300</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-38600</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-297900</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>-363800</v>
       </c>
     </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E101" s="3">
         <v>2200</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>1400</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>400</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>600</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>800</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-1200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-400</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>1500</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>3300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>6100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-12900</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>1500</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>1200</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-2500</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-200</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>5900</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-7400</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>1700</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-1200</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>100</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-2300</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>1600</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>3000</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>-600</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>-3100</v>
       </c>
-      <c r="AD101" s="3">
+      <c r="AE101" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-26400</v>
+      </c>
+      <c r="E102" s="3">
         <v>31500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>5400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>1300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>23600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-721700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-210200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>195700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-50500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-637800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-86800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1241700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>356100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-5100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-18200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>2200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-21600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-56400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>34300</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-600</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-70100</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>30800</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-35600</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>66100</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>16500</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>15100</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>5800</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>-23600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AZO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AZO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="92">
   <si>
     <t>AZO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,390 +665,403 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45164</v>
+      </c>
+      <c r="E7" s="2">
         <v>45052</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44968</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44884</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44800</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44688</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44604</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44520</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44436</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44324</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44240</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44156</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44072</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43960</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43876</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43792</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43708</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43589</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43505</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43421</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43337</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43225</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43141</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43057</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42973</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42861</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42777</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42693</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42609</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>5690600</v>
+      </c>
+      <c r="E8" s="3">
         <v>4090500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>3691000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>3985100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>5348400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>3865200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>3369800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>3668900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4913500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3651000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2910800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3154300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>4546000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2779300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2513700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2793000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>3988400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>2783000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>2450600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>2641700</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>3558800</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>2660200</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>2413000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>2589100</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>3512600</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>2619000</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>2289200</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>2467800</v>
       </c>
-      <c r="AE8" s="3">
+      <c r="AF8" s="3">
         <v>3398800</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>2690900</v>
+      </c>
+      <c r="E9" s="3">
         <v>1944400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1761000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1990400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>2592500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1858800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1584500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1743700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2345600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1736100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1351400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1478600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2133000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1288700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1147600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1292000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1858000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1291000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1125500</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1224300</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>1650900</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>1237200</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>1136000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>1223300</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>1658500</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>1240600</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>1083700</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>1166300</v>
       </c>
-      <c r="AE9" s="3">
+      <c r="AF9" s="3">
         <v>1604000</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>2999700</v>
+      </c>
+      <c r="E10" s="3">
         <v>2146100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1930000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1994700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>2755900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>2006400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1785300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1925200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2567900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1914900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1559400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1675700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>2413000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1490600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1366100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1501000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>2130400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1492000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1325100</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1417400</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>1907900</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>1423000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>1277000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>1365800</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>1854100</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>1378400</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>1205500</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>1301500</v>
       </c>
-      <c r="AE10" s="3">
+      <c r="AF10" s="3">
         <v>1794800</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1080,8 +1093,9 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1169,8 +1183,11 @@
       <c r="AE12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1258,8 +1275,11 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1284,27 +1304,27 @@
       <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L14" s="3">
         <v>-3000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>6100</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>39900</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>8900</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>75000</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R14" s="3" t="s">
         <v>8</v>
       </c>
@@ -1317,8 +1337,8 @@
       <c r="U14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
+      <c r="V14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="W14" s="3">
         <v>0</v>
@@ -1347,8 +1367,11 @@
       <c r="AE14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1379,8 +1402,8 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-      <c r="M15" s="3" t="s">
-        <v>8</v>
+      <c r="M15" s="3">
+        <v>0</v>
       </c>
       <c r="N15" s="3" t="s">
         <v>8</v>
@@ -1397,47 +1420,50 @@
       <c r="R15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S15" s="3">
+      <c r="S15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T15" s="3">
         <v>118800</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>84900</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>83800</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>82500</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>108000</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>79800</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>79400</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>78000</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>103100</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AC15" s="3">
         <v>75300</v>
       </c>
-      <c r="AC15" s="3">
+      <c r="AD15" s="3">
         <v>72800</v>
       </c>
-      <c r="AD15" s="3">
+      <c r="AE15" s="3">
         <v>71800</v>
       </c>
-      <c r="AE15" s="3">
+      <c r="AF15" s="3">
         <v>93900</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1466,186 +1492,193 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>4468100</v>
+      </c>
+      <c r="E17" s="3">
         <v>3232100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>3021000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>3262000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>4244500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>3079600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2743000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2914400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3869500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2847500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2429100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2539000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3527900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2287600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2105700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2293000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>3207700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2235500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2050500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>2153900</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>2967500</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>2114400</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>2207900</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>2120400</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>2805000</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>2089400</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>1905300</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>2008900</v>
       </c>
-      <c r="AE17" s="3">
+      <c r="AF17" s="3">
         <v>2695400</v>
       </c>
     </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>1222500</v>
+      </c>
+      <c r="E18" s="3">
         <v>858400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>670000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>723100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>1103900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>785600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>626800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>754500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1044000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>803500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>481700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>615300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1018100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>491700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>408000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>500000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>780700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>547500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>400100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>487800</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>591300</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>545800</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>205100</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>468700</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>707600</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>529600</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>384000</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>458900</v>
       </c>
-      <c r="AE18" s="3">
+      <c r="AF18" s="3">
         <v>703400</v>
       </c>
     </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1677,186 +1710,193 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-108700</v>
+      </c>
+      <c r="E20" s="3">
         <v>-74300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-65600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-57800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-64000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-41900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-42500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-43300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-58100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-45000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-45300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-45500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-64900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-46500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-43100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-42300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-61200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-43200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-41400</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-39000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-54400</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-42000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-39300</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-38900</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-51400</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-35700</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>-34200</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>-33300</v>
       </c>
-      <c r="AE20" s="3">
+      <c r="AF20" s="3">
         <v>-45800</v>
       </c>
     </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1272300</v>
+      </c>
+      <c r="E21" s="3">
         <v>900300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>718100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>774600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1180700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>845900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>684000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>810800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1115500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>852500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>530900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>659300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1078500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>536900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>455600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>547400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>838400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>589200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>442400</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>531300</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>644900</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>583600</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>245100</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>507900</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>759300</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>569200</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>422600</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>497400</v>
       </c>
-      <c r="AE21" s="3">
+      <c r="AF21" s="3">
         <v>751500</v>
       </c>
     </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1887,27 +1927,27 @@
       <c r="L22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M22" s="3">
-        <v>700</v>
+      <c r="M22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N22" s="3">
         <v>700</v>
       </c>
       <c r="O22" s="3">
+        <v>700</v>
+      </c>
+      <c r="P22" s="3">
         <v>800</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>900</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>1300</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>1400</v>
       </c>
-      <c r="S22" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T22" s="3" t="s">
         <v>8</v>
       </c>
@@ -1923,8 +1963,8 @@
       <c r="X22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y22" s="3">
-        <v>0</v>
+      <c r="Y22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Z22" s="3">
         <v>0</v>
@@ -1944,186 +1984,195 @@
       <c r="AE22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1113800</v>
+      </c>
+      <c r="E23" s="3">
         <v>784200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>604400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>665300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1039800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>743800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>584300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>711200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>985900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>758500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>435800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>569000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>952400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>444200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>363600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>456300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>719600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>504300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>358700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>448800</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>536900</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>503800</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>165800</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>429900</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>656200</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>493900</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>349800</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>425600</v>
       </c>
-      <c r="AE23" s="3">
+      <c r="AF23" s="3">
         <v>657600</v>
       </c>
     </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>248900</v>
+      </c>
+      <c r="E24" s="3">
         <v>136400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>127800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>126000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>229800</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>151200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>112500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>156000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>200100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>162300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>89800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>126600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>212000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>101300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>64300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>105900</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>51300</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>201400</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>72800</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>97400</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>156800</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>136500</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>47600</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>148900</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>222300</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>162200</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>112600</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>147500</v>
       </c>
-      <c r="AE24" s="3">
+      <c r="AF24" s="3">
         <v>230800</v>
       </c>
     </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2211,186 +2260,195 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>864800</v>
+      </c>
+      <c r="E26" s="3">
         <v>647700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>476500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>539300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>810000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>592600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>471800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>555200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>785800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>596200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>345900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>442400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>740500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>342900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>299300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>350300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>668300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>302800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>285800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>351400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>380100</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>367300</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>118100</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>281000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>433900</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>331700</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>237100</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>278100</v>
       </c>
-      <c r="AE26" s="3">
+      <c r="AF26" s="3">
         <v>426800</v>
       </c>
     </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>864800</v>
+      </c>
+      <c r="E27" s="3">
         <v>647700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>476500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>539300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>810000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>592600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>471800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>555200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>785800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>596200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>345900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>442400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>740500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>342900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>299300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>350300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>668300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>302800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>285800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>351400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>380100</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>367300</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>118100</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>281000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>433900</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>331700</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>237100</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>278100</v>
       </c>
-      <c r="AE27" s="3">
+      <c r="AF27" s="3">
         <v>426800</v>
       </c>
     </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2478,8 +2536,11 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2510,8 +2571,8 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>8</v>
+      <c r="M29" s="3">
+        <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>8</v>
@@ -2528,30 +2589,30 @@
       <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S29" s="3">
+      <c r="S29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T29" s="3">
         <v>-103100</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>103100</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>8800</v>
       </c>
-      <c r="V29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W29" s="3">
+      <c r="W29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X29" s="3">
         <v>20200</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Y29" s="3">
         <v>-600</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Z29" s="3">
         <v>171400</v>
       </c>
-      <c r="Z29" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AA29" s="3" t="s">
         <v>8</v>
       </c>
@@ -2567,8 +2628,11 @@
       <c r="AE29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2656,8 +2720,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2745,186 +2812,195 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>108700</v>
+      </c>
+      <c r="E32" s="3">
         <v>74300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>65600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>57800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>64000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>41900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>42500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>43300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>58100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>45000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>45300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>45500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>64900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>46500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>43100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>42300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>61200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>43200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>41400</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>39000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>54400</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>42000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>39300</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>38900</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>51400</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>35700</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>34200</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>33300</v>
       </c>
-      <c r="AE32" s="3">
+      <c r="AF32" s="3">
         <v>45800</v>
       </c>
     </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>864800</v>
+      </c>
+      <c r="E33" s="3">
         <v>647700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>476500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>539300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>810000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>592600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>471800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>555200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>785800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>596200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>345900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>442400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>740500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>342900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>299300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>350300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>565200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>405900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>294600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>351400</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>400300</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>366700</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>289500</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>281000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>433900</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>331700</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>237100</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>278100</v>
       </c>
-      <c r="AE33" s="3">
+      <c r="AF33" s="3">
         <v>426800</v>
       </c>
     </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -3012,191 +3088,200 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>864800</v>
+      </c>
+      <c r="E35" s="3">
         <v>647700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>476500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>539300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>810000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>592600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>471800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>555200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>785800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>596200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>345900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>442400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>740500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>342900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>299300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>350300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>565200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>405900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>294600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>351400</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>400300</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>366700</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>289500</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>281000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>433900</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>331700</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>237100</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>278100</v>
       </c>
-      <c r="AE35" s="3">
+      <c r="AF35" s="3">
         <v>426800</v>
       </c>
     </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45164</v>
+      </c>
+      <c r="E38" s="2">
         <v>45052</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44968</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44884</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44800</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44688</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44604</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44520</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44436</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44324</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44240</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44156</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44072</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43960</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43876</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43792</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43708</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43589</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43505</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43421</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43337</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43225</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43141</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43057</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42973</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42861</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42777</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42693</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42609</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3228,8 +3313,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3261,97 +3347,101 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>277100</v>
+      </c>
+      <c r="E41" s="3">
         <v>274900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>301300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>269800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>264400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>263000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>239400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>961100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1171300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>975600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1026200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1664000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1750800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>509100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>153000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>158100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>176300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>174100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>195700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>252100</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>217800</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>218400</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>288500</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>257700</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>293300</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>227100</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>210600</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>195500</v>
       </c>
-      <c r="AE41" s="3">
+      <c r="AF41" s="3">
         <v>189700</v>
       </c>
     </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3439,364 +3529,379 @@
       <c r="AE42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>520400</v>
+      </c>
+      <c r="E43" s="3">
         <v>471000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>484800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>501800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>504900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>439800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>405600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>379300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>378400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>359700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>352500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>350900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>364800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>266900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>340300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>333200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>309000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>281600</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>298300</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>275200</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>258100</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>261300</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>282500</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>272500</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>280700</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>276100</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>246900</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>270800</v>
       </c>
-      <c r="AE43" s="3">
+      <c r="AF43" s="3">
         <v>287700</v>
       </c>
     </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>5764100</v>
+      </c>
+      <c r="E44" s="3">
         <v>5703700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>5731300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>5607700</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>5638000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>5313100</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>5031200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>4768300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>4639800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>4665500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>4736800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>4628300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>4473300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>4440600</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>4606200</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>4463100</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>4319100</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>4325700</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>4305500</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>4090400</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>3943700</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>4005800</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>4085500</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>4012100</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>3882100</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>3861100</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>3902100</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>3773200</v>
       </c>
-      <c r="AE44" s="3">
+      <c r="AF44" s="3">
         <v>3631900</v>
       </c>
     </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>217800</v>
+      </c>
+      <c r="E45" s="3">
         <v>259300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>277500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>253800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>220700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>238700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>227500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>240500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>225800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>223600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>211300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>193500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>223000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>181400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>201100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>202500</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>224300</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>190000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>197600</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>196700</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>216200</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>185800</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>169700</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>175000</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>155200</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>142900</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>133100</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>129100</v>
       </c>
-      <c r="AE45" s="3">
+      <c r="AF45" s="3">
         <v>130200</v>
       </c>
     </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>6779400</v>
+      </c>
+      <c r="E46" s="3">
         <v>6708900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>6794800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>6633100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>6628000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>6254700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>5903800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>6349100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>6415300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>6224400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>6326800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>6836800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>6811900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>5398000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>5300500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>5157000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>5028700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>4971300</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>4997100</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>4814300</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>4635900</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>4671300</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>4826300</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>4717200</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>4611300</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>4507200</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>4492800</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>4368700</v>
       </c>
-      <c r="AE46" s="3">
+      <c r="AF46" s="3">
         <v>4239600</v>
       </c>
     </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3884,97 +3989,103 @@
       <c r="AE47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>8594600</v>
+      </c>
+      <c r="E48" s="3">
         <v>8293500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>8180000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>8116700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>8089200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>7736300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>7622900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>7575500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>7575600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>7378000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>7288700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>7193000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>7090900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>6998400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>7055600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>7035800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>4398800</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>4324900</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>4269900</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>4228800</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>4218400</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>4123000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>4081300</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>4061000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>4031000</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>3904200</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>3803800</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>3750500</v>
       </c>
-      <c r="AE48" s="3">
+      <c r="AF48" s="3">
         <v>3733300</v>
       </c>
     </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -4012,58 +4123,61 @@
         <v>302600</v>
       </c>
       <c r="O49" s="3">
+        <v>302600</v>
+      </c>
+      <c r="P49" s="3">
         <v>304100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>305400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>306300</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>307300</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>308300</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>309500</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>310500</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>311500</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>312400</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>324800</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>326700</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>443000</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>444400</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>447000</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>448900</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>450900</v>
       </c>
-      <c r="AE49" s="3">
+      <c r="AF49" s="3">
         <v>452900</v>
       </c>
     </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4151,8 +4265,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4240,97 +4357,103 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>309200</v>
+      </c>
+      <c r="E52" s="3">
         <v>292900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>267700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>263500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>255200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>226900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>249200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>233700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>222600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>232900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>241800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>236100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>217000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>200300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>201200</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>200400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>160200</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>167900</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>167600</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>169000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>180300</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>182700</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>169400</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>176000</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>173100</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>169900</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>157200</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>172500</v>
       </c>
-      <c r="AE52" s="3">
+      <c r="AF52" s="3">
         <v>174100</v>
       </c>
     </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4418,97 +4541,103 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>15985900</v>
+      </c>
+      <c r="E54" s="3">
         <v>15597900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>15545100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>15315900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>15275000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>14520600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>14078500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>14460900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>14516200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>14137900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>14160000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>14568600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>14423900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>12902100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>12863700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>12700500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>9895900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>9773700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>9745100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>9523600</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>9347000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>9301800</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>9403700</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>9397100</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>9259800</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>9028300</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>8902600</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>8742500</v>
       </c>
-      <c r="AE54" s="3">
+      <c r="AF54" s="3">
         <v>8599800</v>
       </c>
     </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4540,8 +4669,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4573,97 +4703,101 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>7201300</v>
+      </c>
+      <c r="E57" s="3">
         <v>7215600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>7321600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>7346000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>7301300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>6793200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>6378600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>6171300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>6013900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>5778200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>5351100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>5282300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>5156300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>4806300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>4869900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>4922100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>4864900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>4693100</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>4669600</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>4455300</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>4409400</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>4296700</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>4365700</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>4326700</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>4168900</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>4140700</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>4115000</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>4162300</v>
       </c>
-      <c r="AE57" s="3">
+      <c r="AF57" s="3">
         <v>4095900</v>
       </c>
     </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4676,45 +4810,45 @@
       <c r="F58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G58" s="3">
+      <c r="G58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H58" s="3">
         <v>92900</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J58" s="3">
+      <c r="J58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K58" s="3">
         <v>500000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>89900</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M58" s="3">
+      <c r="M58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N58" s="3">
         <v>314500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>63400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>67500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>58000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>58900</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>57800</v>
       </c>
-      <c r="S58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T58" s="3" t="s">
         <v>8</v>
       </c>
@@ -4730,8 +4864,8 @@
       <c r="X58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y58" s="3">
-        <v>0</v>
+      <c r="Y58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Z58" s="3">
         <v>0</v>
@@ -4751,364 +4885,379 @@
       <c r="AE58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1310600</v>
+      </c>
+      <c r="E59" s="3">
         <v>1249400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1293100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1363000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1194200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1270900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1306000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1416500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1265900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1235000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1138700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1111000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1059300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>904700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>850800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>888300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>647200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>623800</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>664700</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>712800</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>619300</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>621700</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>581600</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>740900</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>597400</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>652900</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>669300</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>687900</v>
       </c>
-      <c r="AE59" s="3">
+      <c r="AF59" s="3">
         <v>594500</v>
       </c>
     </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>8511900</v>
+      </c>
+      <c r="E60" s="3">
         <v>8464900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>8614600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>8709000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>8588400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>8064100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>7684600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>8087900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>7369800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>7013200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>6804300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>6456700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>6283100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>5769100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>5779600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>5868200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>5512100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>5316900</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>5334300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>5168200</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>5028700</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>4918300</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>4947200</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>5067600</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>4766300</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>4793500</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>4784300</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>4850200</v>
       </c>
-      <c r="AE60" s="3">
+      <c r="AF60" s="3">
         <v>4690300</v>
       </c>
     </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>7668500</v>
+      </c>
+      <c r="E61" s="3">
         <v>7340500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>7042300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>6328300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>6339500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>6057400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>5840900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>4771300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>5455900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>5267900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>5427300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>5684400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>5669200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>5544500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>5588700</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>5425200</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>5206300</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>5151900</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>5111200</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>5156000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>5005900</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>4954700</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>5043500</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>4983000</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>5081200</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>5152800</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>5151900</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>4997400</v>
       </c>
-      <c r="AE61" s="3">
+      <c r="AF61" s="3">
         <v>4924100</v>
       </c>
     </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>4155400</v>
+      </c>
+      <c r="E62" s="3">
         <v>4094100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>4072400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>4116500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>3886000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>3786300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>3690400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>3726500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>3488000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>3620200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>3451900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>3454500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>3349500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>3221300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>3206700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>3183100</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>891300</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>894400</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>894000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>858000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>832700</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>790300</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>743500</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>871600</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>840600</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>796100</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>793900</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>790100</v>
       </c>
-      <c r="AE62" s="3">
+      <c r="AF62" s="3">
         <v>772900</v>
       </c>
     </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5196,8 +5345,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5285,8 +5437,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5374,97 +5529,103 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>20335800</v>
+      </c>
+      <c r="E66" s="3">
         <v>19899500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>19729300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>19153900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>18814000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>17907800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>17216000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>16585700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>16313700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>15901300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>15683600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>15595600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>15301800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>14534900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>14574900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>14476500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>11609800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>11363300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>11339500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>11182200</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>10867300</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>10663400</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>10734300</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>10922200</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>10688200</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>10742500</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>10730100</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>10637800</v>
       </c>
-      <c r="AE66" s="3">
+      <c r="AF66" s="3">
         <v>10387300</v>
       </c>
     </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5496,8 +5657,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5585,8 +5747,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5674,8 +5839,11 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5763,8 +5931,11 @@
       <c r="AE70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5852,97 +6023,103 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-2959300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-3824100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-4471800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-790700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-1330100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-2138200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-2730700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>135400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-419800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-1205600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-1801800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-1008500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-1451000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-2191400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-2534300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-955000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-1305300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-1870600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-2276500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-864200</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-1208800</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-1623600</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-1990300</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-1361400</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-1642400</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-2076300</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>-2408000</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>-1324100</v>
       </c>
-      <c r="AE72" s="3">
+      <c r="AF72" s="3">
         <v>-1602200</v>
       </c>
     </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6030,8 +6207,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6119,8 +6299,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6208,97 +6391,103 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-4349900</v>
+      </c>
+      <c r="E76" s="3">
         <v>-4301600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-4184200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-3837900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-3538900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-3387200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-3137500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-2124800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-1797500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-1763400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-1523600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-1027000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-878000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-1632700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-1711100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-1776100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-1713900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-1589500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-1594400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-1658600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-1520400</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>-1361600</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>-1330500</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>-1525100</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>-1428400</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>-1714200</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>-1827400</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>-1895200</v>
       </c>
-      <c r="AE76" s="3">
+      <c r="AF76" s="3">
         <v>-1787500</v>
       </c>
     </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6386,191 +6575,200 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45164</v>
+      </c>
+      <c r="E80" s="2">
         <v>45052</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44968</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44884</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44800</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44688</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44604</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44520</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44436</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44324</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44240</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44156</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44072</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43960</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43876</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43792</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43708</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43589</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43505</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43421</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43337</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43225</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43141</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43057</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42973</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42861</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42777</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42693</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42609</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>864800</v>
+      </c>
+      <c r="E81" s="3">
         <v>647700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>476500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>539300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>810000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>592600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>471800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>555200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>785800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>596200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>345900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>442400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>740500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>342900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>299300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>350300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>565200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>405900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>294600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>351400</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>400300</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>366700</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>289500</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>281000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>433900</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>331700</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>237100</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>278100</v>
       </c>
-      <c r="AE81" s="3">
+      <c r="AF81" s="3">
         <v>426800</v>
       </c>
     </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6602,97 +6800,101 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>158500</v>
+      </c>
+      <c r="E83" s="3">
         <v>116100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>113700</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>109300</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>140900</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>102100</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>99700</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>99600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>129600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>94000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>94500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>89600</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>125400</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>91700</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>90700</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>89800</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>118800</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>84900</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>83800</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>82500</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>108000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>79800</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>79400</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>78000</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>103100</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>75300</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>72800</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>71800</v>
       </c>
-      <c r="AE83" s="3">
+      <c r="AF83" s="3">
         <v>93900</v>
       </c>
     </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6780,8 +6982,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6869,8 +7074,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6958,8 +7166,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7047,8 +7258,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7136,97 +7350,103 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1068000</v>
+      </c>
+      <c r="E89" s="3">
         <v>724700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>354500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>793600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>1228000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>843400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>361800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>777900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1288200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1190500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>356400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>683500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1417000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>651500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>204500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>447100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>841900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>469600</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>367900</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>449200</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>823900</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>504000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>187300</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>565000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>561400</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>445300</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>157400</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>406500</v>
       </c>
-      <c r="AE89" s="3">
+      <c r="AF89" s="3">
         <v>545800</v>
       </c>
     </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7258,97 +7478,101 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-366200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-171200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-144800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-114400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-303000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-161200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-105900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-102300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-246100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-373700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-2400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-183800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-83300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-89200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-101400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-182200</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-118000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-97700</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-98200</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>326700</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-112400</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-104500</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-110300</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-195900</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-141800</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-118200</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-97900</v>
       </c>
-      <c r="AE91" s="3">
+      <c r="AF91" s="3">
         <v>-377700</v>
       </c>
     </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7436,8 +7660,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7525,97 +7752,103 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-397200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-209000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-156100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-113900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-287400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-149400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-120400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-91000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-243100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-130300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-118200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-110200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-250000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-73000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-84200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-90700</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-206600</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-109100</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-84300</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-91900</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-219200</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-72100</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-96000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-134700</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-194400</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-156500</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-103100</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-99700</v>
       </c>
-      <c r="AE94" s="3">
+      <c r="AF94" s="3">
         <v>-189500</v>
       </c>
     </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7647,8 +7880,9 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7736,8 +7970,11 @@
       <c r="AE96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7825,8 +8062,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7914,8 +8154,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -8003,271 +8246,283 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-671800</v>
+      </c>
+      <c r="E100" s="3">
         <v>-543600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-169100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-675700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-939700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-670900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-964000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-895900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-849200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1110400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-877400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-663400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>68500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-209400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-127000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-375800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-630600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-381900</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-345900</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-315600</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-607000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-500900</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-60600</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-463700</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-302500</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-275300</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-38600</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>-297900</v>
       </c>
-      <c r="AE100" s="3">
+      <c r="AF100" s="3">
         <v>-363800</v>
       </c>
     </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E101" s="3">
         <v>1500</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>2200</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>1400</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>400</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>600</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>800</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-1200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-400</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>1500</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>3300</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>6100</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-12900</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>1500</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>1200</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-2500</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-200</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>5900</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-7400</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>1700</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-1200</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>100</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-2300</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>1600</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>3000</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>-600</v>
       </c>
-      <c r="AD101" s="3">
+      <c r="AE101" s="3">
         <v>-3100</v>
       </c>
-      <c r="AE101" s="3">
+      <c r="AF101" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-26400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>31500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>5400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>1300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>23600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-721700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-210200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>195700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-50500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-637800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-86800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>1241700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>356100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-5100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-18200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>2200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-21600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-56400</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>34300</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-600</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-70100</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>30800</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-35600</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>66100</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>16500</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>15100</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>5800</v>
       </c>
-      <c r="AE102" s="3">
+      <c r="AF102" s="3">
         <v>-23600</v>
       </c>
     </row>
